--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:36:14</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:14:19</t>
   </si>
 </sst>
 </file>
@@ -31880,28 +31880,28 @@
         <v>96.9</v>
       </c>
       <c r="E79" t="n" s="10">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="F79" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="H79" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="I79" t="n" s="10">
-        <v>99.1</v>
+        <v>99.2</v>
       </c>
       <c r="J79" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="K79" t="n" s="10">
         <v>97.0</v>
       </c>
       <c r="L79" t="n" s="10">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="M79" t="n" s="10">
         <v>93.0</v>
@@ -31910,43 +31910,43 @@
         <v>92.7</v>
       </c>
       <c r="O79" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="P79" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="Q79" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="S79" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="T79" t="n" s="10">
-        <v>87.4</v>
+        <v>87.6</v>
       </c>
       <c r="U79" t="n" s="10">
         <v>87.4</v>
       </c>
       <c r="V79" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="W79" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="X79" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="Y79" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="Z79" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="AA79" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="AB79" t="n" s="10">
         <v>82.4</v>
@@ -31955,34 +31955,34 @@
         <v>79.9</v>
       </c>
       <c r="AD79" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="AE79" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="AF79" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="AH79" t="n" s="10">
         <v>82.0</v>
       </c>
       <c r="AI79" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="AJ79" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="AK79" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="AL79" t="n" s="10">
-        <v>78.8</v>
+        <v>79.0</v>
       </c>
       <c r="AM79" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AN79" t="n" s="10">
         <v>77.7</v>
@@ -31991,19 +31991,19 @@
         <v>80.2</v>
       </c>
       <c r="AP79" t="n" s="10">
-        <v>75.0</v>
+        <v>74.8</v>
       </c>
       <c r="AQ79" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="AR79" t="n" s="10">
-        <v>72.9</v>
+        <v>73.0</v>
       </c>
       <c r="AS79" t="n" s="10">
-        <v>74.3</v>
+        <v>74.2</v>
       </c>
       <c r="AT79" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AU79" t="n" s="10">
         <v>72.3</v>
@@ -32012,13 +32012,13 @@
         <v>72.0</v>
       </c>
       <c r="AW79" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="AX79" t="n" s="10">
-        <v>70.2</v>
+        <v>70.1</v>
       </c>
       <c r="AY79" t="n" s="10">
-        <v>71.4</v>
+        <v>71.2</v>
       </c>
       <c r="AZ79" t="n" s="10">
         <v>71.5</v>
@@ -32027,52 +32027,52 @@
         <v>68.6</v>
       </c>
       <c r="BB79" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BC79" t="n" s="10">
-        <v>70.0</v>
+        <v>69.8</v>
       </c>
       <c r="BD79" t="n" s="10">
         <v>72.9</v>
       </c>
       <c r="BE79" t="n" s="10">
-        <v>72.6</v>
+        <v>72.4</v>
       </c>
       <c r="BF79" t="n" s="10">
-        <v>73.6</v>
+        <v>73.7</v>
       </c>
       <c r="BG79" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BH79" t="n" s="10">
         <v>75.5</v>
       </c>
       <c r="BI79" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="BJ79" t="n" s="10">
         <v>76.3</v>
       </c>
       <c r="BK79" t="n" s="10">
-        <v>78.1</v>
+        <v>78.0</v>
       </c>
       <c r="BL79" t="n" s="10">
         <v>74.5</v>
       </c>
       <c r="BM79" t="n" s="10">
-        <v>77.2</v>
+        <v>77.1</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="BO79" t="n" s="10">
-        <v>78.0</v>
+        <v>78.2</v>
       </c>
       <c r="BP79" t="n" s="10">
+        <v>78.6</v>
+      </c>
+      <c r="BQ79" t="n" s="10">
         <v>78.8</v>
-      </c>
-      <c r="BQ79" t="n" s="10">
-        <v>78.7</v>
       </c>
       <c r="BR79" t="n" s="10">
         <v>78.4</v>
@@ -32099,10 +32099,10 @@
         <v>82.5</v>
       </c>
       <c r="BZ79" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CA79" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CB79" t="n" s="10">
         <v>83.4</v>
@@ -32114,85 +32114,85 @@
         <v>82.8</v>
       </c>
       <c r="CE79" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="CF79" t="n" s="10">
-        <v>82.4</v>
+        <v>82.6</v>
       </c>
       <c r="CG79" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="CH79" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="CI79" t="n" s="10">
-        <v>86.9</v>
+        <v>87.1</v>
       </c>
       <c r="CJ79" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="CK79" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="CL79" t="n" s="10">
-        <v>86.0</v>
+        <v>86.4</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>85.1</v>
+        <v>84.9</v>
       </c>
       <c r="CN79" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CO79" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CP79" t="n" s="10">
         <v>85.7</v>
       </c>
       <c r="CQ79" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="CR79" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="CS79" t="n" s="10">
         <v>77.9</v>
       </c>
       <c r="CT79" t="n" s="10">
-        <v>80.0</v>
+        <v>80.2</v>
       </c>
       <c r="CU79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="CV79" t="n" s="10">
         <v>78.6</v>
       </c>
       <c r="CW79" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="CY79" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="CZ79" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="DA79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DB79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DC79" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="DD79" t="n" s="10">
         <v>79.0</v>
       </c>
       <c r="DE79" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DF79" t="n" s="10">
         <v>80.3</v>
@@ -32204,19 +32204,19 @@
         <v>79.4</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DK79" t="n" s="10">
+        <v>79.4</v>
+      </c>
+      <c r="DL79" t="n" s="10">
+        <v>78.7</v>
+      </c>
+      <c r="DM79" t="n" s="10">
         <v>79.5</v>
-      </c>
-      <c r="DL79" t="n" s="10">
-        <v>78.6</v>
-      </c>
-      <c r="DM79" t="n" s="10">
-        <v>79.7</v>
       </c>
       <c r="DN79" t="n" s="10">
         <v>78.9</v>
@@ -32231,10 +32231,10 @@
         <v>83.9</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="DT79" t="n" s="10">
         <v>82.8</v>
@@ -32243,34 +32243,34 @@
         <v>83.3</v>
       </c>
       <c r="DV79" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DW79" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>87.3</v>
+        <v>87.1</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="DZ79" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="EA79" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="EC79" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="ED79" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="EE79" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="80">
@@ -32296,7 +32296,7 @@
         <v>123.7</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>124.5</v>
+        <v>124.4</v>
       </c>
       <c r="J80" t="n" s="10">
         <v>117.8</v>
@@ -32323,7 +32323,7 @@
         <v>116.0</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>122.1</v>
+        <v>122.0</v>
       </c>
       <c r="S80" t="n" s="10">
         <v>115.5</v>
@@ -32419,10 +32419,10 @@
         <v>91.0</v>
       </c>
       <c r="AX80" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="AY80" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="AZ80" t="n" s="10">
         <v>89.0</v>
@@ -32446,7 +32446,7 @@
         <v>91.4</v>
       </c>
       <c r="BG80" t="n" s="10">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="BH80" t="n" s="10">
         <v>94.0</v>
@@ -32455,7 +32455,7 @@
         <v>92.8</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="BK80" t="n" s="10">
         <v>96.5</v>
@@ -32467,10 +32467,10 @@
         <v>94.7</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="BO80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="BP80" t="n" s="10">
         <v>96.1</v>
@@ -32509,19 +32509,19 @@
         <v>97.0</v>
       </c>
       <c r="CB80" t="n" s="10">
-        <v>96.8</v>
+        <v>96.7</v>
       </c>
       <c r="CC80" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="CD80" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="CE80" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="CF80" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="CG80" t="n" s="10">
         <v>114.1</v>
@@ -32539,10 +32539,10 @@
         <v>96.9</v>
       </c>
       <c r="CL80" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="CM80" t="n" s="10">
-        <v>95.9</v>
+        <v>96.0</v>
       </c>
       <c r="CN80" t="n" s="10">
         <v>93.3</v>
@@ -32563,7 +32563,7 @@
         <v>89.7</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="CU80" t="n" s="10">
         <v>86.5</v>
@@ -32575,7 +32575,7 @@
         <v>84.2</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="CY80" t="n" s="10">
         <v>86.9</v>
@@ -32629,13 +32629,13 @@
         <v>88.5</v>
       </c>
       <c r="DP80" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="DQ80" t="n" s="10">
         <v>91.6</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DS80" t="n" s="10">
         <v>85.1</v>
@@ -32656,19 +32656,19 @@
         <v>93.5</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DZ80" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="EB80" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="ED80" t="n" s="10">
         <v>96.8</v>
@@ -32691,7 +32691,7 @@
         <v>106.0</v>
       </c>
       <c r="E81" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
       <c r="F81" t="n" s="10">
         <v>94.9</v>
@@ -32763,7 +32763,7 @@
         <v>79.4</v>
       </c>
       <c r="AC81" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="AD81" t="n" s="10">
         <v>73.0</v>
@@ -32802,7 +32802,7 @@
         <v>80.7</v>
       </c>
       <c r="AP81" t="n" s="10">
-        <v>68.7</v>
+        <v>68.8</v>
       </c>
       <c r="AQ81" t="n" s="10">
         <v>72.1</v>
@@ -32838,7 +32838,7 @@
         <v>63.4</v>
       </c>
       <c r="BB81" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BC81" t="n" s="10">
         <v>65.6</v>
@@ -32856,7 +32856,7 @@
         <v>66.5</v>
       </c>
       <c r="BH81" t="n" s="10">
-        <v>72.9</v>
+        <v>73.0</v>
       </c>
       <c r="BI81" t="n" s="10">
         <v>70.5</v>
@@ -32880,7 +32880,7 @@
         <v>76.3</v>
       </c>
       <c r="BP81" t="n" s="10">
-        <v>74.6</v>
+        <v>74.7</v>
       </c>
       <c r="BQ81" t="n" s="10">
         <v>73.9</v>
@@ -32910,7 +32910,7 @@
         <v>77.7</v>
       </c>
       <c r="BZ81" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="CA81" t="n" s="10">
         <v>77.8</v>
@@ -32946,7 +32946,7 @@
         <v>81.7</v>
       </c>
       <c r="CL81" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="CM81" t="n" s="10">
         <v>84.4</v>
@@ -32970,7 +32970,7 @@
         <v>74.6</v>
       </c>
       <c r="CT81" t="n" s="10">
-        <v>77.5</v>
+        <v>77.4</v>
       </c>
       <c r="CU81" t="n" s="10">
         <v>73.8</v>
@@ -32979,10 +32979,10 @@
         <v>70.5</v>
       </c>
       <c r="CW81" t="n" s="10">
-        <v>69.1</v>
+        <v>69.0</v>
       </c>
       <c r="CX81" t="n" s="10">
-        <v>68.1</v>
+        <v>68.2</v>
       </c>
       <c r="CY81" t="n" s="10">
         <v>67.5</v>
@@ -33113,7 +33113,7 @@
         <v>122.4</v>
       </c>
       <c r="K82" t="n" s="10">
-        <v>125.9</v>
+        <v>126.0</v>
       </c>
       <c r="L82" t="n" s="10">
         <v>119.3</v>
@@ -33122,7 +33122,7 @@
         <v>121.6</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>118.6</v>
+        <v>118.7</v>
       </c>
       <c r="O82" t="n" s="10">
         <v>110.2</v>
@@ -33134,7 +33134,7 @@
         <v>115.4</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>137.8</v>
+        <v>137.7</v>
       </c>
       <c r="S82" t="n" s="10">
         <v>109.8</v>
@@ -33152,13 +33152,13 @@
         <v>104.4</v>
       </c>
       <c r="X82" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="Y82" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="Z82" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="AA82" t="n" s="10">
         <v>108.3</v>
@@ -33206,7 +33206,7 @@
         <v>101.7</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="AQ82" t="n" s="10">
         <v>90.6</v>
@@ -33230,7 +33230,7 @@
         <v>86.7</v>
       </c>
       <c r="AX82" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="AY82" t="n" s="10">
         <v>83.9</v>
@@ -33242,10 +33242,10 @@
         <v>78.1</v>
       </c>
       <c r="BB82" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="BC82" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="BD82" t="n" s="10">
         <v>86.0</v>
@@ -33278,16 +33278,16 @@
         <v>91.9</v>
       </c>
       <c r="BN82" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="BO82" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="BP82" t="n" s="10">
         <v>91.0</v>
       </c>
       <c r="BQ82" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="BR82" t="n" s="10">
         <v>90.7</v>
@@ -33314,7 +33314,7 @@
         <v>91.1</v>
       </c>
       <c r="BZ82" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="CA82" t="n" s="10">
         <v>90.6</v>
@@ -33332,7 +33332,7 @@
         <v>88.6</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="CG82" t="n" s="10">
         <v>96.0</v>
@@ -33341,7 +33341,7 @@
         <v>87.3</v>
       </c>
       <c r="CI82" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="CJ82" t="n" s="10">
         <v>97.2</v>
@@ -33350,7 +33350,7 @@
         <v>92.6</v>
       </c>
       <c r="CL82" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="CM82" t="n" s="10">
         <v>95.2</v>
@@ -33374,7 +33374,7 @@
         <v>82.2</v>
       </c>
       <c r="CT82" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CU82" t="n" s="10">
         <v>81.4</v>
@@ -33407,7 +33407,7 @@
         <v>77.9</v>
       </c>
       <c r="DE82" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DF82" t="n" s="10">
         <v>82.0</v>
@@ -33416,7 +33416,7 @@
         <v>83.2</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DI82" t="n" s="10">
         <v>82.3</v>
@@ -33428,16 +33428,16 @@
         <v>83.5</v>
       </c>
       <c r="DL82" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="DM82" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="DN82" t="n" s="10">
         <v>83.8</v>
       </c>
       <c r="DO82" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="DP82" t="n" s="10">
         <v>83.3</v>
@@ -33446,25 +33446,25 @@
         <v>84.2</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="DS82" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="DT82" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="DU82" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DV82" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="DW82" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="DX82" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="DY82" t="n" s="10">
         <v>89.9</v>
@@ -33476,7 +33476,7 @@
         <v>85.3</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="EC82" t="n" s="10">
         <v>89.4</v>
@@ -33502,19 +33502,19 @@
         <v>92.2</v>
       </c>
       <c r="E83" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="F83" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="J83" t="n" s="10">
         <v>83.2</v>
@@ -33523,7 +33523,7 @@
         <v>83.0</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="M83" t="n" s="10">
         <v>81.0</v>
@@ -33541,13 +33541,13 @@
         <v>76.5</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>74.3</v>
+        <v>74.1</v>
       </c>
       <c r="S83" t="n" s="10">
         <v>76.6</v>
       </c>
       <c r="T83" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="U83" t="n" s="10">
         <v>71.1</v>
@@ -33565,7 +33565,7 @@
         <v>69.9</v>
       </c>
       <c r="Z83" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="AA83" t="n" s="10">
         <v>75.1</v>
@@ -33577,16 +33577,16 @@
         <v>67.5</v>
       </c>
       <c r="AD83" t="n" s="10">
-        <v>70.4</v>
+        <v>70.3</v>
       </c>
       <c r="AE83" t="n" s="10">
         <v>68.5</v>
       </c>
       <c r="AF83" t="n" s="10">
-        <v>65.8</v>
+        <v>65.9</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>67.7</v>
+        <v>67.6</v>
       </c>
       <c r="AH83" t="n" s="10">
         <v>70.9</v>
@@ -33601,10 +33601,10 @@
         <v>70.9</v>
       </c>
       <c r="AL83" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="AM83" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="AN83" t="n" s="10">
         <v>64.3</v>
@@ -33613,13 +33613,13 @@
         <v>69.5</v>
       </c>
       <c r="AP83" t="n" s="10">
-        <v>63.9</v>
+        <v>64.0</v>
       </c>
       <c r="AQ83" t="n" s="10">
-        <v>64.4</v>
+        <v>64.3</v>
       </c>
       <c r="AR83" t="n" s="10">
-        <v>65.1</v>
+        <v>65.0</v>
       </c>
       <c r="AS83" t="n" s="10">
         <v>64.4</v>
@@ -33631,16 +33631,16 @@
         <v>61.7</v>
       </c>
       <c r="AV83" t="n" s="10">
-        <v>62.7</v>
+        <v>62.8</v>
       </c>
       <c r="AW83" t="n" s="10">
         <v>59.4</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>58.3</v>
+        <v>58.4</v>
       </c>
       <c r="AY83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="AZ83" t="n" s="10">
         <v>59.7</v>
@@ -33649,28 +33649,28 @@
         <v>57.1</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>60.0</v>
+        <v>59.9</v>
       </c>
       <c r="BC83" t="n" s="10">
-        <v>56.0</v>
+        <v>56.2</v>
       </c>
       <c r="BD83" t="n" s="10">
-        <v>59.0</v>
+        <v>58.9</v>
       </c>
       <c r="BE83" t="n" s="10">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
       <c r="BF83" t="n" s="10">
         <v>56.3</v>
       </c>
       <c r="BG83" t="n" s="10">
-        <v>57.9</v>
+        <v>58.0</v>
       </c>
       <c r="BH83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.8</v>
       </c>
       <c r="BI83" t="n" s="10">
-        <v>59.2</v>
+        <v>59.1</v>
       </c>
       <c r="BJ83" t="n" s="10">
         <v>59.7</v>
@@ -33685,16 +33685,16 @@
         <v>60.3</v>
       </c>
       <c r="BN83" t="n" s="10">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
       <c r="BO83" t="n" s="10">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
       <c r="BP83" t="n" s="10">
-        <v>60.5</v>
+        <v>60.6</v>
       </c>
       <c r="BQ83" t="n" s="10">
-        <v>62.2</v>
+        <v>62.1</v>
       </c>
       <c r="BR83" t="n" s="10">
         <v>64.3</v>
@@ -33706,25 +33706,25 @@
         <v>61.0</v>
       </c>
       <c r="BU83" t="n" s="10">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="BV83" t="n" s="10">
         <v>60.2</v>
       </c>
       <c r="BW83" t="n" s="10">
-        <v>59.7</v>
+        <v>59.6</v>
       </c>
       <c r="BX83" t="n" s="10">
         <v>59.2</v>
       </c>
       <c r="BY83" t="n" s="10">
-        <v>58.5</v>
+        <v>58.4</v>
       </c>
       <c r="BZ83" t="n" s="10">
-        <v>57.3</v>
+        <v>57.4</v>
       </c>
       <c r="CA83" t="n" s="10">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
       <c r="CB83" t="n" s="10">
         <v>58.6</v>
@@ -33733,37 +33733,37 @@
         <v>57.9</v>
       </c>
       <c r="CD83" t="n" s="10">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="CE83" t="n" s="10">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="CG83" t="n" s="10">
         <v>57.2</v>
       </c>
       <c r="CH83" t="n" s="10">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="CI83" t="n" s="10">
+        <v>57.8</v>
+      </c>
+      <c r="CJ83" t="n" s="10">
         <v>57.9</v>
-      </c>
-      <c r="CJ83" t="n" s="10">
-        <v>57.8</v>
       </c>
       <c r="CK83" t="n" s="10">
         <v>57.4</v>
       </c>
       <c r="CL83" t="n" s="10">
-        <v>58.7</v>
+        <v>58.5</v>
       </c>
       <c r="CM83" t="n" s="10">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="CN83" t="n" s="10">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="CO83" t="n" s="10">
         <v>54.6</v>
@@ -33781,7 +33781,7 @@
         <v>52.9</v>
       </c>
       <c r="CT83" t="n" s="10">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="CU83" t="n" s="10">
         <v>51.7</v>
@@ -33796,7 +33796,7 @@
         <v>50.7</v>
       </c>
       <c r="CY83" t="n" s="10">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="CZ83" t="n" s="10">
         <v>53.7</v>
@@ -33814,7 +33814,7 @@
         <v>53.4</v>
       </c>
       <c r="DE83" t="n" s="10">
-        <v>58.0</v>
+        <v>58.1</v>
       </c>
       <c r="DF83" t="n" s="10">
         <v>57.2</v>
@@ -33832,13 +33832,13 @@
         <v>58.5</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>58.6</v>
+        <v>58.7</v>
       </c>
       <c r="DN83" t="n" s="10">
         <v>60.2</v>
@@ -33853,46 +33853,46 @@
         <v>62.7</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>62.5</v>
+        <v>62.6</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>63.9</v>
+        <v>64.0</v>
       </c>
       <c r="DT83" t="n" s="10">
-        <v>66.8</v>
+        <v>66.9</v>
       </c>
       <c r="DU83" t="n" s="10">
         <v>69.0</v>
       </c>
       <c r="DV83" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="DW83" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>77.8</v>
+        <v>78.0</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>68.6</v>
+        <v>68.5</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="EA83" t="n" s="10">
         <v>73.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>70.4</v>
+        <v>70.5</v>
       </c>
       <c r="EC83" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="ED83" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="84">
@@ -33903,79 +33903,79 @@
         <v>34</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>113.6</v>
+        <v>112.7</v>
       </c>
       <c r="E84" t="n" s="10">
+        <v>110.1</v>
+      </c>
+      <c r="F84" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="F84" t="n" s="10">
+      <c r="G84" t="n" s="10">
+        <v>105.3</v>
+      </c>
+      <c r="H84" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="G84" t="n" s="10">
-        <v>106.2</v>
-      </c>
-      <c r="H84" t="n" s="10">
-        <v>109.9</v>
-      </c>
       <c r="I84" t="n" s="10">
-        <v>113.2</v>
+        <v>118.9</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>102.7</v>
+        <v>101.9</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>103.2</v>
+        <v>102.5</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>92.5</v>
+        <v>92.1</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>91.0</v>
+        <v>90.5</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>95.0</v>
+        <v>94.7</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>92.1</v>
+        <v>91.8</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="T84" t="n" s="10">
+        <v>92.8</v>
+      </c>
+      <c r="U84" t="n" s="10">
+        <v>91.7</v>
+      </c>
+      <c r="V84" t="n" s="10">
+        <v>88.7</v>
+      </c>
+      <c r="W84" t="n" s="10">
+        <v>90.3</v>
+      </c>
+      <c r="X84" t="n" s="10">
+        <v>88.3</v>
+      </c>
+      <c r="Y84" t="n" s="10">
+        <v>86.7</v>
+      </c>
+      <c r="Z84" t="n" s="10">
+        <v>94.2</v>
+      </c>
+      <c r="AA84" t="n" s="10">
         <v>93.2</v>
       </c>
-      <c r="U84" t="n" s="10">
-        <v>88.6</v>
-      </c>
-      <c r="V84" t="n" s="10">
-        <v>89.0</v>
-      </c>
-      <c r="W84" t="n" s="10">
-        <v>90.6</v>
-      </c>
-      <c r="X84" t="n" s="10">
-        <v>88.7</v>
-      </c>
-      <c r="Y84" t="n" s="10">
-        <v>87.0</v>
-      </c>
-      <c r="Z84" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="AA84" t="n" s="10">
-        <v>93.4</v>
-      </c>
       <c r="AB84" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="AC84" t="n" s="10">
         <v>84.0</v>
@@ -33987,7 +33987,7 @@
         <v>85.2</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="AG84" t="n" s="10">
         <v>84.4</v>
@@ -33996,7 +33996,7 @@
         <v>88.6</v>
       </c>
       <c r="AI84" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="AJ84" t="n" s="10">
         <v>86.0</v>
@@ -34005,7 +34005,7 @@
         <v>88.6</v>
       </c>
       <c r="AL84" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="AM84" t="n" s="10">
         <v>85.4</v>
@@ -34017,16 +34017,16 @@
         <v>86.4</v>
       </c>
       <c r="AP84" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="AQ84" t="n" s="10">
-        <v>80.1</v>
+        <v>80.0</v>
       </c>
       <c r="AR84" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="AS84" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="AT84" t="n" s="10">
         <v>76.4</v>
@@ -34044,7 +34044,7 @@
         <v>72.0</v>
       </c>
       <c r="AY84" t="n" s="10">
-        <v>69.9</v>
+        <v>70.0</v>
       </c>
       <c r="AZ84" t="n" s="10">
         <v>73.5</v>
@@ -34053,16 +34053,16 @@
         <v>70.3</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BC84" t="n" s="10">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="BD84" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="BE84" t="n" s="10">
-        <v>70.1</v>
+        <v>70.2</v>
       </c>
       <c r="BF84" t="n" s="10">
         <v>69.5</v>
@@ -34074,13 +34074,13 @@
         <v>70.3</v>
       </c>
       <c r="BI84" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="BJ84" t="n" s="10">
         <v>73.4</v>
       </c>
       <c r="BK84" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="BL84" t="n" s="10">
         <v>74.2</v>
@@ -34089,16 +34089,16 @@
         <v>73.8</v>
       </c>
       <c r="BN84" t="n" s="10">
-        <v>72.8</v>
+        <v>72.9</v>
       </c>
       <c r="BO84" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="BP84" t="n" s="10">
-        <v>73.9</v>
+        <v>74.0</v>
       </c>
       <c r="BQ84" t="n" s="10">
-        <v>75.6</v>
+        <v>75.5</v>
       </c>
       <c r="BR84" t="n" s="10">
         <v>78.0</v>
@@ -34131,7 +34131,7 @@
         <v>70.5</v>
       </c>
       <c r="CB84" t="n" s="10">
-        <v>68.0</v>
+        <v>67.9</v>
       </c>
       <c r="CC84" t="n" s="10">
         <v>66.9</v>
@@ -34143,7 +34143,7 @@
         <v>67.4</v>
       </c>
       <c r="CF84" t="n" s="10">
-        <v>64.9</v>
+        <v>64.8</v>
       </c>
       <c r="CG84" t="n" s="10">
         <v>66.0</v>
@@ -34152,7 +34152,7 @@
         <v>61.7</v>
       </c>
       <c r="CI84" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="CJ84" t="n" s="10">
         <v>66.1</v>
@@ -34161,22 +34161,22 @@
         <v>65.4</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>66.4</v>
+        <v>66.2</v>
       </c>
       <c r="CM84" t="n" s="10">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
       <c r="CN84" t="n" s="10">
         <v>61.4</v>
       </c>
       <c r="CO84" t="n" s="10">
-        <v>61.3</v>
+        <v>61.4</v>
       </c>
       <c r="CP84" t="n" s="10">
         <v>61.1</v>
       </c>
       <c r="CQ84" t="n" s="10">
-        <v>59.8</v>
+        <v>59.7</v>
       </c>
       <c r="CR84" t="n" s="10">
         <v>62.1</v>
@@ -34194,7 +34194,7 @@
         <v>59.2</v>
       </c>
       <c r="CW84" t="n" s="10">
-        <v>59.1</v>
+        <v>59.0</v>
       </c>
       <c r="CX84" t="n" s="10">
         <v>56.4</v>
@@ -34206,7 +34206,7 @@
         <v>60.1</v>
       </c>
       <c r="DA84" t="n" s="10">
-        <v>62.1</v>
+        <v>62.0</v>
       </c>
       <c r="DB84" t="n" s="10">
         <v>62.3</v>
@@ -34257,7 +34257,7 @@
         <v>68.9</v>
       </c>
       <c r="DR84" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="DS84" t="n" s="10">
         <v>70.0</v>
@@ -34275,22 +34275,22 @@
         <v>77.5</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="DY84" t="n" s="10">
-        <v>73.9</v>
+        <v>73.8</v>
       </c>
       <c r="DZ84" t="n" s="10">
-        <v>79.0</v>
+        <v>78.9</v>
       </c>
       <c r="EA84" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="EB84" t="n" s="10">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="EC84" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="ED84" t="n" s="10">
         <v>83.4</v>
@@ -34319,10 +34319,10 @@
         <v>110.0</v>
       </c>
       <c r="G85" t="n" s="10">
-        <v>113.4</v>
+        <v>113.3</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>111.1</v>
+        <v>111.2</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>113.0</v>
@@ -34337,13 +34337,13 @@
         <v>103.5</v>
       </c>
       <c r="M85" t="n" s="10">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="N85" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="O85" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="P85" t="n" s="10">
         <v>96.3</v>
@@ -34352,16 +34352,16 @@
         <v>102.5</v>
       </c>
       <c r="R85" t="n" s="10">
-        <v>134.9</v>
+        <v>134.8</v>
       </c>
       <c r="S85" t="n" s="10">
         <v>94.3</v>
       </c>
       <c r="T85" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="U85" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="V85" t="n" s="10">
         <v>94.2</v>
@@ -34388,7 +34388,7 @@
         <v>79.5</v>
       </c>
       <c r="AD85" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="AE85" t="n" s="10">
         <v>83.2</v>
@@ -34397,13 +34397,13 @@
         <v>82.7</v>
       </c>
       <c r="AG85" t="n" s="10">
-        <v>78.6</v>
+        <v>78.5</v>
       </c>
       <c r="AH85" t="n" s="10">
         <v>80.7</v>
       </c>
       <c r="AI85" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="AJ85" t="n" s="10">
         <v>79.3</v>
@@ -34415,7 +34415,7 @@
         <v>83.8</v>
       </c>
       <c r="AM85" t="n" s="10">
-        <v>71.6</v>
+        <v>71.5</v>
       </c>
       <c r="AN85" t="n" s="10">
         <v>84.6</v>
@@ -34424,13 +34424,13 @@
         <v>88.7</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="AQ85" t="n" s="10">
-        <v>77.7</v>
+        <v>77.6</v>
       </c>
       <c r="AR85" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="AS85" t="n" s="10">
         <v>75.6</v>
@@ -34442,7 +34442,7 @@
         <v>78.9</v>
       </c>
       <c r="AV85" t="n" s="10">
-        <v>71.1</v>
+        <v>71.2</v>
       </c>
       <c r="AW85" t="n" s="10">
         <v>77.5</v>
@@ -34460,16 +34460,16 @@
         <v>67.7</v>
       </c>
       <c r="BB85" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="BC85" t="n" s="10">
-        <v>71.8</v>
+        <v>71.9</v>
       </c>
       <c r="BD85" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="BE85" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="BF85" t="n" s="10">
         <v>76.0</v>
@@ -34478,7 +34478,7 @@
         <v>72.3</v>
       </c>
       <c r="BH85" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="BI85" t="n" s="10">
         <v>78.5</v>
@@ -34487,7 +34487,7 @@
         <v>83.8</v>
       </c>
       <c r="BK85" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="BL85" t="n" s="10">
         <v>79.2</v>
@@ -34496,10 +34496,10 @@
         <v>85.4</v>
       </c>
       <c r="BN85" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="BP85" t="n" s="10">
         <v>84.3</v>
@@ -34508,7 +34508,7 @@
         <v>82.3</v>
       </c>
       <c r="BR85" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="BS85" t="n" s="10">
         <v>91.7</v>
@@ -34529,7 +34529,7 @@
         <v>89.4</v>
       </c>
       <c r="BY85" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="BZ85" t="n" s="10">
         <v>97.7</v>
@@ -34538,7 +34538,7 @@
         <v>89.9</v>
       </c>
       <c r="CB85" t="n" s="10">
-        <v>97.1</v>
+        <v>97.0</v>
       </c>
       <c r="CC85" t="n" s="10">
         <v>92.8</v>
@@ -34550,13 +34550,13 @@
         <v>89.4</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="CG85" t="n" s="10">
         <v>101.6</v>
       </c>
       <c r="CH85" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CI85" t="n" s="10">
         <v>96.7</v>
@@ -34565,25 +34565,25 @@
         <v>104.4</v>
       </c>
       <c r="CK85" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="CL85" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="CM85" t="n" s="10">
-        <v>107.7</v>
+        <v>107.8</v>
       </c>
       <c r="CN85" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="CO85" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="CP85" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="CQ85" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CR85" t="n" s="10">
         <v>102.1</v>
@@ -34601,7 +34601,7 @@
         <v>82.6</v>
       </c>
       <c r="CW85" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="CX85" t="n" s="10">
         <v>80.2</v>
@@ -34613,10 +34613,10 @@
         <v>85.1</v>
       </c>
       <c r="DA85" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="DB85" t="n" s="10">
-        <v>80.4</v>
+        <v>80.5</v>
       </c>
       <c r="DC85" t="n" s="10">
         <v>83.6</v>
@@ -34625,7 +34625,7 @@
         <v>81.1</v>
       </c>
       <c r="DE85" t="n" s="10">
-        <v>80.9</v>
+        <v>81.0</v>
       </c>
       <c r="DF85" t="n" s="10">
         <v>85.4</v>
@@ -34646,10 +34646,10 @@
         <v>87.1</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>80.9</v>
+        <v>80.8</v>
       </c>
       <c r="DM85" t="n" s="10">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="DN85" t="n" s="10">
         <v>87.4</v>
@@ -34667,7 +34667,7 @@
         <v>82.8</v>
       </c>
       <c r="DS85" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="DT85" t="n" s="10">
         <v>89.7</v>
@@ -34682,16 +34682,16 @@
         <v>86.5</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="EA85" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="EB85" t="n" s="10">
         <v>93.6</v>
@@ -34703,7 +34703,7 @@
         <v>99.1</v>
       </c>
       <c r="EE85" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="86">
@@ -34714,7 +34714,7 @@
         <v>34</v>
       </c>
       <c r="D86" t="n" s="10">
-        <v>143.8</v>
+        <v>143.9</v>
       </c>
       <c r="E86" t="n" s="10">
         <v>131.7</v>
@@ -34735,7 +34735,7 @@
         <v>135.8</v>
       </c>
       <c r="K86" t="n" s="10">
-        <v>142.0</v>
+        <v>142.1</v>
       </c>
       <c r="L86" t="n" s="10">
         <v>130.4</v>
@@ -34753,10 +34753,10 @@
         <v>121.7</v>
       </c>
       <c r="Q86" t="n" s="10">
-        <v>129.5</v>
+        <v>129.4</v>
       </c>
       <c r="R86" t="n" s="10">
-        <v>170.0</v>
+        <v>169.9</v>
       </c>
       <c r="S86" t="n" s="10">
         <v>119.7</v>
@@ -34765,7 +34765,7 @@
         <v>118.4</v>
       </c>
       <c r="U86" t="n" s="10">
-        <v>120.6</v>
+        <v>120.7</v>
       </c>
       <c r="V86" t="n" s="10">
         <v>119.4</v>
@@ -34777,7 +34777,7 @@
         <v>117.7</v>
       </c>
       <c r="Y86" t="n" s="10">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="Z86" t="n" s="10">
         <v>105.1</v>
@@ -34792,7 +34792,7 @@
         <v>100.7</v>
       </c>
       <c r="AD86" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AE86" t="n" s="10">
         <v>105.2</v>
@@ -34801,13 +34801,13 @@
         <v>105.2</v>
       </c>
       <c r="AG86" t="n" s="10">
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="AH86" t="n" s="10">
         <v>102.7</v>
       </c>
       <c r="AI86" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="AJ86" t="n" s="10">
         <v>101.0</v>
@@ -34816,7 +34816,7 @@
         <v>102.0</v>
       </c>
       <c r="AL86" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="AM86" t="n" s="10">
         <v>90.8</v>
@@ -34828,7 +34828,7 @@
         <v>112.2</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>98.0</v>
@@ -34843,7 +34843,7 @@
         <v>94.8</v>
       </c>
       <c r="AU86" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="AV86" t="n" s="10">
         <v>88.4</v>
@@ -34870,16 +34870,16 @@
         <v>88.9</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="BE86" t="n" s="10">
         <v>97.6</v>
       </c>
       <c r="BF86" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="BG86" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="BH86" t="n" s="10">
         <v>104.2</v>
@@ -34891,7 +34891,7 @@
         <v>103.2</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="BL86" t="n" s="10">
         <v>97.1</v>
@@ -34954,7 +34954,7 @@
         <v>103.3</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="CG86" t="n" s="10">
         <v>116.8</v>
@@ -34972,10 +34972,10 @@
         <v>111.6</v>
       </c>
       <c r="CL86" t="n" s="10">
-        <v>110.7</v>
+        <v>110.6</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>121.4</v>
+        <v>121.5</v>
       </c>
       <c r="CN86" t="n" s="10">
         <v>105.0</v>
@@ -34984,7 +34984,7 @@
         <v>115.8</v>
       </c>
       <c r="CP86" t="n" s="10">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="CQ86" t="n" s="10">
         <v>105.8</v>
@@ -34996,7 +34996,7 @@
         <v>98.4</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="CU86" t="n" s="10">
         <v>98.0</v>
@@ -35023,7 +35023,7 @@
         <v>89.0</v>
       </c>
       <c r="DC86" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="DD86" t="n" s="10">
         <v>90.2</v>
@@ -35044,13 +35044,13 @@
         <v>95.4</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="DK86" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DM86" t="n" s="10">
         <v>95.9</v>
@@ -35068,7 +35068,7 @@
         <v>94.9</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="DS86" t="n" s="10">
         <v>88.4</v>
@@ -35086,7 +35086,7 @@
         <v>92.5</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="DY86" t="n" s="10">
         <v>101.0</v>
@@ -35098,7 +35098,7 @@
         <v>90.3</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="EC86" t="n" s="10">
         <v>95.7</v>
@@ -35124,7 +35124,7 @@
         <v>117.3</v>
       </c>
       <c r="E87" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="F87" t="n" s="10">
         <v>110.6</v>
@@ -35145,7 +35145,7 @@
         <v>116.0</v>
       </c>
       <c r="L87" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="M87" t="n" s="10">
         <v>103.8</v>
@@ -35163,7 +35163,7 @@
         <v>102.0</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>136.5</v>
+        <v>136.4</v>
       </c>
       <c r="S87" t="n" s="10">
         <v>91.4</v>
@@ -35235,7 +35235,7 @@
         <v>86.0</v>
       </c>
       <c r="AP87" t="n" s="10">
-        <v>66.9</v>
+        <v>67.0</v>
       </c>
       <c r="AQ87" t="n" s="10">
         <v>74.2</v>
@@ -35259,7 +35259,7 @@
         <v>74.7</v>
       </c>
       <c r="AX87" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="AY87" t="n" s="10">
         <v>72.9</v>
@@ -35277,7 +35277,7 @@
         <v>70.5</v>
       </c>
       <c r="BD87" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BE87" t="n" s="10">
         <v>77.1</v>
@@ -35292,7 +35292,7 @@
         <v>81.4</v>
       </c>
       <c r="BI87" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="BJ87" t="n" s="10">
         <v>82.8</v>
@@ -35310,7 +35310,7 @@
         <v>77.0</v>
       </c>
       <c r="BO87" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="BP87" t="n" s="10">
         <v>86.0</v>
@@ -35340,7 +35340,7 @@
         <v>89.9</v>
       </c>
       <c r="BY87" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="BZ87" t="n" s="10">
         <v>97.6</v>
@@ -35367,7 +35367,7 @@
         <v>103.3</v>
       </c>
       <c r="CH87" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CI87" t="n" s="10">
         <v>95.6</v>
@@ -35382,7 +35382,7 @@
         <v>96.2</v>
       </c>
       <c r="CM87" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="CN87" t="n" s="10">
         <v>94.9</v>
@@ -35436,10 +35436,10 @@
         <v>75.2</v>
       </c>
       <c r="DE87" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="DF87" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="DG87" t="n" s="10">
         <v>81.0</v>
@@ -35448,16 +35448,16 @@
         <v>76.5</v>
       </c>
       <c r="DI87" t="n" s="10">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="DJ87" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="DM87" t="n" s="10">
         <v>84.2</v>
@@ -35466,55 +35466,55 @@
         <v>84.1</v>
       </c>
       <c r="DO87" t="n" s="10">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>77.3</v>
+        <v>77.6</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>82.5</v>
+        <v>82.9</v>
       </c>
       <c r="DR87" t="n" s="10">
-        <v>80.0</v>
+        <v>80.5</v>
       </c>
       <c r="DS87" t="n" s="10">
-        <v>79.7</v>
+        <v>80.3</v>
       </c>
       <c r="DT87" t="n" s="10">
-        <v>89.1</v>
+        <v>89.7</v>
       </c>
       <c r="DU87" t="n" s="10">
+        <v>94.5</v>
+      </c>
+      <c r="DV87" t="n" s="10">
+        <v>81.9</v>
+      </c>
+      <c r="DW87" t="n" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="DX87" t="n" s="10">
         <v>93.9</v>
       </c>
-      <c r="DV87" t="n" s="10">
-        <v>88.1</v>
-      </c>
-      <c r="DW87" t="n" s="10">
-        <v>84.9</v>
-      </c>
-      <c r="DX87" t="n" s="10">
-        <v>93.4</v>
-      </c>
       <c r="DY87" t="n" s="10">
-        <v>91.2</v>
+        <v>91.7</v>
       </c>
       <c r="DZ87" t="n" s="10">
-        <v>86.4</v>
+        <v>87.0</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>85.4</v>
+        <v>86.2</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>94.3</v>
+        <v>95.2</v>
       </c>
       <c r="EC87" t="n" s="10">
-        <v>91.3</v>
+        <v>92.2</v>
       </c>
       <c r="ED87" t="n" s="10">
-        <v>97.4</v>
+        <v>98.5</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>92.6</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="88">
@@ -36055,7 +36055,7 @@
         <v>84.9</v>
       </c>
       <c r="AS89" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="AT89" t="n" s="10">
         <v>96.4</v>
@@ -36214,7 +36214,7 @@
         <v>101.8</v>
       </c>
       <c r="CT89" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="CU89" t="n" s="10">
         <v>100.7</v>
@@ -36304,7 +36304,7 @@
         <v>90.6</v>
       </c>
       <c r="DX89" t="n" s="10">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="DY89" t="n" s="10">
         <v>105.9</v>
@@ -36767,7 +36767,7 @@
         <v>92.1</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="M91" t="n" s="10">
         <v>87.5</v>
@@ -36779,13 +36779,13 @@
         <v>89.2</v>
       </c>
       <c r="P91" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="Q91" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="R91" t="n" s="10">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="S91" t="n" s="10">
         <v>94.0</v>
@@ -36824,28 +36824,28 @@
         <v>83.4</v>
       </c>
       <c r="AE91" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="AF91" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="AG91" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="AH91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="AI91" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="AJ91" t="n" s="10">
         <v>80.0</v>
       </c>
       <c r="AK91" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="AL91" t="n" s="10">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="AM91" t="n" s="10">
         <v>80.7</v>
@@ -36857,7 +36857,7 @@
         <v>79.6</v>
       </c>
       <c r="AP91" t="n" s="10">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="AQ91" t="n" s="10">
         <v>80.1</v>
@@ -36881,10 +36881,10 @@
         <v>76.1</v>
       </c>
       <c r="AX91" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="AY91" t="n" s="10">
-        <v>75.1</v>
+        <v>75.0</v>
       </c>
       <c r="AZ91" t="n" s="10">
         <v>76.5</v>
@@ -36893,22 +36893,22 @@
         <v>74.6</v>
       </c>
       <c r="BB91" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="BC91" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BD91" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BE91" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="BF91" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BG91" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BH91" t="n" s="10">
         <v>78.2</v>
@@ -36929,7 +36929,7 @@
         <v>79.5</v>
       </c>
       <c r="BN91" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="BO91" t="n" s="10">
         <v>80.3</v>
@@ -36938,10 +36938,10 @@
         <v>83.1</v>
       </c>
       <c r="BQ91" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="BR91" t="n" s="10">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="BS91" t="n" s="10">
         <v>80.2</v>
@@ -36983,7 +36983,7 @@
         <v>88.6</v>
       </c>
       <c r="CF91" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="CG91" t="n" s="10">
         <v>101.6</v>
@@ -37001,16 +37001,16 @@
         <v>90.1</v>
       </c>
       <c r="CL91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.8</v>
       </c>
       <c r="CM91" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="CN91" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="CO91" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="CP91" t="n" s="10">
         <v>95.4</v>
@@ -37025,7 +37025,7 @@
         <v>81.7</v>
       </c>
       <c r="CT91" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="CU91" t="n" s="10">
         <v>84.2</v>
@@ -37037,10 +37037,10 @@
         <v>85.2</v>
       </c>
       <c r="CX91" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="CY91" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="CZ91" t="n" s="10">
         <v>88.8</v>
@@ -37052,7 +37052,7 @@
         <v>88.6</v>
       </c>
       <c r="DC91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DD91" t="n" s="10">
         <v>89.7</v>
@@ -37067,7 +37067,7 @@
         <v>93.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DI91" t="n" s="10">
         <v>92.7</v>
@@ -37076,31 +37076,31 @@
         <v>90.6</v>
       </c>
       <c r="DK91" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="DL91" t="n" s="10">
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="DN91" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DQ91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="DR91" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>82.7</v>
+        <v>82.6</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>85.6</v>
@@ -37115,16 +37115,16 @@
         <v>88.8</v>
       </c>
       <c r="DX91" t="n" s="10">
-        <v>85.9</v>
+        <v>85.7</v>
       </c>
       <c r="DY91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DZ91" t="n" s="10">
         <v>94.5</v>
       </c>
       <c r="EA91" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="EB91" t="n" s="10">
         <v>90.7</v>
@@ -37240,7 +37240,7 @@
         <v>112.5</v>
       </c>
       <c r="AI92" t="n" s="10">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AJ92" t="n" s="10">
         <v>102.9</v>
@@ -37249,7 +37249,7 @@
         <v>103.0</v>
       </c>
       <c r="AL92" t="n" s="10">
-        <v>103.0</v>
+        <v>103.1</v>
       </c>
       <c r="AM92" t="n" s="10">
         <v>103.2</v>
@@ -37270,7 +37270,7 @@
         <v>97.2</v>
       </c>
       <c r="AS92" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="AT92" t="n" s="10">
         <v>91.3</v>
@@ -37312,7 +37312,7 @@
         <v>100.2</v>
       </c>
       <c r="BG92" t="n" s="10">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="BH92" t="n" s="10">
         <v>98.2</v>
@@ -37333,7 +37333,7 @@
         <v>98.0</v>
       </c>
       <c r="BN92" t="n" s="10">
-        <v>99.0</v>
+        <v>98.9</v>
       </c>
       <c r="BO92" t="n" s="10">
         <v>97.9</v>
@@ -37378,7 +37378,7 @@
         <v>99.5</v>
       </c>
       <c r="CC92" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="CD92" t="n" s="10">
         <v>94.8</v>
@@ -37387,7 +37387,7 @@
         <v>100.9</v>
       </c>
       <c r="CF92" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="CG92" t="n" s="10">
         <v>130.6</v>
@@ -37405,10 +37405,10 @@
         <v>101.4</v>
       </c>
       <c r="CL92" t="n" s="10">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CM92" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="CN92" t="n" s="10">
         <v>100.3</v>
@@ -37438,13 +37438,13 @@
         <v>96.3</v>
       </c>
       <c r="CW92" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="CX92" t="n" s="10">
         <v>92.1</v>
       </c>
       <c r="CY92" t="n" s="10">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CZ92" t="n" s="10">
         <v>97.6</v>
@@ -37471,7 +37471,7 @@
         <v>103.0</v>
       </c>
       <c r="DH92" t="n" s="10">
-        <v>96.9</v>
+        <v>97.0</v>
       </c>
       <c r="DI92" t="n" s="10">
         <v>102.3</v>
@@ -37483,7 +37483,7 @@
         <v>92.9</v>
       </c>
       <c r="DL92" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DM92" t="n" s="10">
         <v>92.4</v>
@@ -37501,7 +37501,7 @@
         <v>100.0</v>
       </c>
       <c r="DR92" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="DS92" t="n" s="10">
         <v>89.8</v>
@@ -37513,7 +37513,7 @@
         <v>90.7</v>
       </c>
       <c r="DV92" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="DW92" t="n" s="10">
         <v>95.3</v>
@@ -37528,7 +37528,7 @@
         <v>100.8</v>
       </c>
       <c r="EA92" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="EB92" t="n" s="10">
         <v>96.2</v>
@@ -37560,7 +37560,7 @@
         <v>81.4</v>
       </c>
       <c r="F93" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="G93" t="n" s="10">
         <v>86.0</v>
@@ -37569,7 +37569,7 @@
         <v>89.5</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="J93" t="n" s="10">
         <v>84.6</v>
@@ -37581,16 +37581,16 @@
         <v>84.6</v>
       </c>
       <c r="M93" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="N93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="P93" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="Q93" t="n" s="10">
         <v>88.6</v>
@@ -37605,7 +37605,7 @@
         <v>86.7</v>
       </c>
       <c r="U93" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="V93" t="n" s="10">
         <v>82.0</v>
@@ -37620,7 +37620,7 @@
         <v>84.6</v>
       </c>
       <c r="Z93" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="AA93" t="n" s="10">
         <v>83.0</v>
@@ -37668,7 +37668,7 @@
         <v>80.4</v>
       </c>
       <c r="AP93" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="AQ93" t="n" s="10">
         <v>79.8</v>
@@ -37707,13 +37707,13 @@
         <v>70.3</v>
       </c>
       <c r="BC93" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="BD93" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="BE93" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="BF93" t="n" s="10">
         <v>84.1</v>
@@ -37725,13 +37725,13 @@
         <v>80.9</v>
       </c>
       <c r="BI93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.5</v>
       </c>
       <c r="BJ93" t="n" s="10">
         <v>78.3</v>
       </c>
       <c r="BK93" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="BL93" t="n" s="10">
         <v>81.1</v>
@@ -37740,13 +37740,13 @@
         <v>82.3</v>
       </c>
       <c r="BN93" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="BO93" t="n" s="10">
+        <v>82.5</v>
+      </c>
+      <c r="BP93" t="n" s="10">
         <v>82.6</v>
-      </c>
-      <c r="BP93" t="n" s="10">
-        <v>82.5</v>
       </c>
       <c r="BQ93" t="n" s="10">
         <v>92.2</v>
@@ -37794,7 +37794,7 @@
         <v>95.4</v>
       </c>
       <c r="CF93" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="CG93" t="n" s="10">
         <v>105.8</v>
@@ -37812,13 +37812,13 @@
         <v>95.0</v>
       </c>
       <c r="CL93" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="CM93" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="CN93" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="CO93" t="n" s="10">
         <v>87.6</v>
@@ -37851,7 +37851,7 @@
         <v>95.3</v>
       </c>
       <c r="CY93" t="n" s="10">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="CZ93" t="n" s="10">
         <v>101.1</v>
@@ -37872,7 +37872,7 @@
         <v>99.1</v>
       </c>
       <c r="DF93" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="DG93" t="n" s="10">
         <v>100.9</v>
@@ -37887,7 +37887,7 @@
         <v>89.8</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="DL93" t="n" s="10">
         <v>88.6</v>
@@ -37896,7 +37896,7 @@
         <v>84.9</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DO93" t="n" s="10">
         <v>88.4</v>
@@ -37926,10 +37926,10 @@
         <v>88.8</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="DZ93" t="n" s="10">
         <v>90.5</v>
@@ -38042,7 +38042,7 @@
         <v>102.6</v>
       </c>
       <c r="AF94" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="AG94" t="n" s="10">
         <v>100.3</v>
@@ -38096,7 +38096,7 @@
         <v>99.7</v>
       </c>
       <c r="AX94" t="n" s="10">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AY94" t="n" s="10">
         <v>94.5</v>
@@ -38126,7 +38126,7 @@
         <v>111.6</v>
       </c>
       <c r="BH94" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="BI94" t="n" s="10">
         <v>102.2</v>
@@ -38240,7 +38240,7 @@
         <v>92.8</v>
       </c>
       <c r="CT94" t="n" s="10">
-        <v>104.5</v>
+        <v>104.4</v>
       </c>
       <c r="CU94" t="n" s="10">
         <v>95.8</v>
@@ -38294,7 +38294,7 @@
         <v>95.1</v>
       </c>
       <c r="DL94" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DM94" t="n" s="10">
         <v>94.6</v>
@@ -38318,7 +38318,7 @@
         <v>94.2</v>
       </c>
       <c r="DT94" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="DU94" t="n" s="10">
         <v>94.3</v>
@@ -38374,22 +38374,22 @@
         <v>88.9</v>
       </c>
       <c r="G95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="H95" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="I95" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="J95" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="K95" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="L95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.2</v>
       </c>
       <c r="M95" t="n" s="10">
         <v>88.1</v>
@@ -38407,19 +38407,19 @@
         <v>91.6</v>
       </c>
       <c r="R95" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="S95" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="T95" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="U95" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="V95" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="W95" t="n" s="10">
         <v>90.6</v>
@@ -38443,13 +38443,13 @@
         <v>88.0</v>
       </c>
       <c r="AD95" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="AE95" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="AF95" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="AG95" t="n" s="10">
         <v>87.5</v>
@@ -38470,7 +38470,7 @@
         <v>83.3</v>
       </c>
       <c r="AM95" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="AN95" t="n" s="10">
         <v>80.9</v>
@@ -38479,16 +38479,16 @@
         <v>79.1</v>
       </c>
       <c r="AP95" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="AQ95" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="AR95" t="n" s="10">
         <v>76.4</v>
       </c>
       <c r="AS95" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="AT95" t="n" s="10">
         <v>74.4</v>
@@ -38503,10 +38503,10 @@
         <v>75.4</v>
       </c>
       <c r="AX95" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="AY95" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="AZ95" t="n" s="10">
         <v>76.6</v>
@@ -38515,13 +38515,13 @@
         <v>74.9</v>
       </c>
       <c r="BB95" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BC95" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="BD95" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="BE95" t="n" s="10">
         <v>75.9</v>
@@ -38533,10 +38533,10 @@
         <v>85.9</v>
       </c>
       <c r="BH95" t="n" s="10">
-        <v>76.6</v>
+        <v>76.7</v>
       </c>
       <c r="BI95" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="BJ95" t="n" s="10">
         <v>79.6</v>
@@ -38545,13 +38545,13 @@
         <v>77.4</v>
       </c>
       <c r="BL95" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="BM95" t="n" s="10">
         <v>77.8</v>
       </c>
       <c r="BN95" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="BO95" t="n" s="10">
         <v>78.8</v>
@@ -38602,7 +38602,7 @@
         <v>84.2</v>
       </c>
       <c r="CE95" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="CF95" t="n" s="10">
         <v>88.4</v>
@@ -38611,7 +38611,7 @@
         <v>97.3</v>
       </c>
       <c r="CH95" t="n" s="10">
-        <v>116.1</v>
+        <v>116.2</v>
       </c>
       <c r="CI95" t="n" s="10">
         <v>90.2</v>
@@ -38623,10 +38623,10 @@
         <v>85.1</v>
       </c>
       <c r="CL95" t="n" s="10">
-        <v>87.1</v>
+        <v>86.9</v>
       </c>
       <c r="CM95" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="CN95" t="n" s="10">
         <v>90.2</v>
@@ -38635,7 +38635,7 @@
         <v>82.8</v>
       </c>
       <c r="CP95" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="CQ95" t="n" s="10">
         <v>86.9</v>
@@ -38656,13 +38656,13 @@
         <v>84.3</v>
       </c>
       <c r="CW95" t="n" s="10">
-        <v>80.6</v>
+        <v>80.5</v>
       </c>
       <c r="CX95" t="n" s="10">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="CY95" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="CZ95" t="n" s="10">
         <v>80.8</v>
@@ -38680,7 +38680,7 @@
         <v>83.4</v>
       </c>
       <c r="DE95" t="n" s="10">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="DF95" t="n" s="10">
         <v>84.1</v>
@@ -38689,22 +38689,22 @@
         <v>88.5</v>
       </c>
       <c r="DH95" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="DI95" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="DJ95" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="DL95" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DM95" t="n" s="10">
-        <v>83.6</v>
+        <v>83.7</v>
       </c>
       <c r="DN95" t="n" s="10">
         <v>77.4</v>
@@ -38716,13 +38716,13 @@
         <v>87.4</v>
       </c>
       <c r="DQ95" t="n" s="10">
-        <v>93.9</v>
+        <v>94.0</v>
       </c>
       <c r="DR95" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DS95" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="DT95" t="n" s="10">
         <v>83.0</v>
@@ -38740,25 +38740,25 @@
         <v>85.7</v>
       </c>
       <c r="DY95" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="DZ95" t="n" s="10">
-        <v>97.0</v>
+        <v>96.8</v>
       </c>
       <c r="EA95" t="n" s="10">
-        <v>91.1</v>
+        <v>90.9</v>
       </c>
       <c r="EB95" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="EC95" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="ED95" t="n" s="10">
-        <v>93.2</v>
+        <v>94.8</v>
       </c>
       <c r="EE95" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="96">
@@ -39105,7 +39105,7 @@
         <v>91.7</v>
       </c>
       <c r="DL96" t="n" s="10">
-        <v>94.8</v>
+        <v>94.9</v>
       </c>
       <c r="DM96" t="n" s="10">
         <v>91.1</v>
@@ -39179,13 +39179,13 @@
         <v>74.0</v>
       </c>
       <c r="E97" t="n" s="10">
-        <v>70.7</v>
+        <v>70.8</v>
       </c>
       <c r="F97" t="n" s="10">
         <v>74.8</v>
       </c>
       <c r="G97" t="n" s="10">
-        <v>69.6</v>
+        <v>69.7</v>
       </c>
       <c r="H97" t="n" s="10">
         <v>79.3</v>
@@ -39194,7 +39194,7 @@
         <v>80.4</v>
       </c>
       <c r="J97" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="K97" t="n" s="10">
         <v>74.6</v>
@@ -39209,13 +39209,13 @@
         <v>78.0</v>
       </c>
       <c r="O97" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="P97" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="Q97" t="n" s="10">
-        <v>84.9</v>
+        <v>85.0</v>
       </c>
       <c r="R97" t="n" s="10">
         <v>83.8</v>
@@ -39239,7 +39239,7 @@
         <v>81.1</v>
       </c>
       <c r="Y97" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="Z97" t="n" s="10">
         <v>80.6</v>
@@ -39260,163 +39260,163 @@
         <v>75.0</v>
       </c>
       <c r="AF97" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="AG97" t="n" s="10">
         <v>80.6</v>
       </c>
       <c r="AH97" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="AI97" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="AJ97" t="n" s="10">
-        <v>76.1</v>
+        <v>75.9</v>
       </c>
       <c r="AK97" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="AL97" t="n" s="10">
         <v>74.3</v>
       </c>
       <c r="AM97" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="AN97" t="n" s="10">
-        <v>73.4</v>
+        <v>73.6</v>
       </c>
       <c r="AO97" t="n" s="10">
-        <v>73.4</v>
+        <v>73.7</v>
       </c>
       <c r="AP97" t="n" s="10">
-        <v>67.9</v>
+        <v>68.3</v>
       </c>
       <c r="AQ97" t="n" s="10">
-        <v>66.9</v>
+        <v>67.5</v>
       </c>
       <c r="AR97" t="n" s="10">
-        <v>62.4</v>
+        <v>63.0</v>
       </c>
       <c r="AS97" t="n" s="10">
-        <v>64.9</v>
+        <v>65.6</v>
       </c>
       <c r="AT97" t="n" s="10">
+        <v>64.5</v>
+      </c>
+      <c r="AU97" t="n" s="10">
+        <v>60.8</v>
+      </c>
+      <c r="AV97" t="n" s="10">
+        <v>67.2</v>
+      </c>
+      <c r="AW97" t="n" s="10">
+        <v>64.8</v>
+      </c>
+      <c r="AX97" t="n" s="10">
         <v>63.8</v>
       </c>
-      <c r="AU97" t="n" s="10">
-        <v>68.0</v>
-      </c>
-      <c r="AV97" t="n" s="10">
-        <v>66.7</v>
-      </c>
-      <c r="AW97" t="n" s="10">
-        <v>64.3</v>
-      </c>
-      <c r="AX97" t="n" s="10">
-        <v>63.2</v>
-      </c>
       <c r="AY97" t="n" s="10">
-        <v>68.9</v>
+        <v>69.6</v>
       </c>
       <c r="AZ97" t="n" s="10">
+        <v>67.2</v>
+      </c>
+      <c r="BA97" t="n" s="10">
+        <v>63.8</v>
+      </c>
+      <c r="BB97" t="n" s="10">
+        <v>65.2</v>
+      </c>
+      <c r="BC97" t="n" s="10">
+        <v>67.1</v>
+      </c>
+      <c r="BD97" t="n" s="10">
+        <v>65.8</v>
+      </c>
+      <c r="BE97" t="n" s="10">
+        <v>67.4</v>
+      </c>
+      <c r="BF97" t="n" s="10">
         <v>66.4</v>
       </c>
-      <c r="BA97" t="n" s="10">
-        <v>62.9</v>
-      </c>
-      <c r="BB97" t="n" s="10">
-        <v>64.1</v>
-      </c>
-      <c r="BC97" t="n" s="10">
-        <v>65.9</v>
-      </c>
-      <c r="BD97" t="n" s="10">
-        <v>64.4</v>
-      </c>
-      <c r="BE97" t="n" s="10">
-        <v>66.0</v>
-      </c>
-      <c r="BF97" t="n" s="10">
-        <v>64.9</v>
-      </c>
       <c r="BG97" t="n" s="10">
-        <v>98.1</v>
+        <v>84.1</v>
       </c>
       <c r="BH97" t="n" s="10">
-        <v>66.2</v>
+        <v>67.7</v>
       </c>
       <c r="BI97" t="n" s="10">
-        <v>70.0</v>
+        <v>71.4</v>
       </c>
       <c r="BJ97" t="n" s="10">
+        <v>71.1</v>
+      </c>
+      <c r="BK97" t="n" s="10">
+        <v>68.3</v>
+      </c>
+      <c r="BL97" t="n" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="BM97" t="n" s="10">
         <v>69.8</v>
       </c>
-      <c r="BK97" t="n" s="10">
-        <v>67.1</v>
-      </c>
-      <c r="BL97" t="n" s="10">
-        <v>67.7</v>
-      </c>
-      <c r="BM97" t="n" s="10">
-        <v>68.9</v>
-      </c>
       <c r="BN97" t="n" s="10">
-        <v>70.9</v>
+        <v>71.7</v>
       </c>
       <c r="BO97" t="n" s="10">
-        <v>72.5</v>
+        <v>73.3</v>
       </c>
       <c r="BP97" t="n" s="10">
-        <v>77.8</v>
+        <v>78.4</v>
       </c>
       <c r="BQ97" t="n" s="10">
-        <v>73.6</v>
+        <v>74.2</v>
       </c>
       <c r="BR97" t="n" s="10">
+        <v>79.0</v>
+      </c>
+      <c r="BS97" t="n" s="10">
+        <v>69.2</v>
+      </c>
+      <c r="BT97" t="n" s="10">
+        <v>78.6</v>
+      </c>
+      <c r="BU97" t="n" s="10">
         <v>78.4</v>
       </c>
-      <c r="BS97" t="n" s="10">
-        <v>76.4</v>
-      </c>
-      <c r="BT97" t="n" s="10">
-        <v>77.9</v>
-      </c>
-      <c r="BU97" t="n" s="10">
-        <v>77.7</v>
-      </c>
       <c r="BV97" t="n" s="10">
-        <v>75.0</v>
+        <v>75.7</v>
       </c>
       <c r="BW97" t="n" s="10">
-        <v>79.4</v>
+        <v>80.0</v>
       </c>
       <c r="BX97" t="n" s="10">
-        <v>77.8</v>
+        <v>78.3</v>
       </c>
       <c r="BY97" t="n" s="10">
-        <v>84.5</v>
+        <v>84.9</v>
       </c>
       <c r="BZ97" t="n" s="10">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="CA97" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="CB97" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="CC97" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="CD97" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="CE97" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="CF97" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="CG97" t="n" s="10">
         <v>75.2</v>
@@ -39434,7 +39434,7 @@
         <v>78.8</v>
       </c>
       <c r="CL97" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="CM97" t="n" s="10">
         <v>76.6</v>
@@ -39446,7 +39446,7 @@
         <v>73.2</v>
       </c>
       <c r="CP97" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="CQ97" t="n" s="10">
         <v>81.1</v>
@@ -39491,7 +39491,7 @@
         <v>79.2</v>
       </c>
       <c r="DE97" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="DF97" t="n" s="10">
         <v>80.7</v>
@@ -39512,10 +39512,10 @@
         <v>78.9</v>
       </c>
       <c r="DL97" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="DM97" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="DN97" t="n" s="10">
         <v>83.8</v>
@@ -39527,7 +39527,7 @@
         <v>85.5</v>
       </c>
       <c r="DQ97" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="DR97" t="n" s="10">
         <v>83.4</v>
@@ -39548,7 +39548,7 @@
         <v>96.7</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="DY97" t="n" s="10">
         <v>87.7</v>
@@ -39560,7 +39560,7 @@
         <v>95.0</v>
       </c>
       <c r="EB97" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="EC97" t="n" s="10">
         <v>88.7</v>
@@ -39999,7 +39999,7 @@
         <v>112.5</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>118.1</v>
+        <v>118.0</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>116.6</v>
@@ -40089,7 +40089,7 @@
         <v>92.6</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AM99" t="n" s="10">
         <v>97.7</v>
@@ -40248,7 +40248,7 @@
         <v>95.8</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="CN99" t="n" s="10">
         <v>100.4</v>
@@ -40329,7 +40329,7 @@
         <v>82.0</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>69.2</v>
+        <v>69.1</v>
       </c>
       <c r="DO99" t="n" s="10">
         <v>86.6</v>
@@ -40806,7 +40806,7 @@
         <v>96.6</v>
       </c>
       <c r="E102" t="n" s="10">
-        <v>96.3</v>
+        <v>96.4</v>
       </c>
       <c r="F102" t="n" s="10">
         <v>96.0</v>
@@ -40827,13 +40827,13 @@
         <v>94.5</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="M102" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="O102" t="n" s="10">
         <v>92.2</v>
@@ -40842,13 +40842,13 @@
         <v>91.6</v>
       </c>
       <c r="Q102" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="R102" t="n" s="10">
         <v>90.6</v>
       </c>
       <c r="S102" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="T102" t="n" s="10">
         <v>89.3</v>
@@ -40875,7 +40875,7 @@
         <v>83.3</v>
       </c>
       <c r="AB102" t="n" s="10">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="AC102" t="n" s="10">
         <v>81.4</v>
@@ -40884,13 +40884,13 @@
         <v>80.7</v>
       </c>
       <c r="AE102" t="n" s="10">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="AF102" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="AG102" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AH102" t="n" s="10">
         <v>79.3</v>
@@ -40899,7 +40899,7 @@
         <v>78.9</v>
       </c>
       <c r="AJ102" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="AK102" t="n" s="10">
         <v>78.1</v>
@@ -40932,25 +40932,25 @@
         <v>73.0</v>
       </c>
       <c r="AU102" t="n" s="10">
-        <v>72.4</v>
+        <v>72.3</v>
       </c>
       <c r="AV102" t="n" s="10">
         <v>71.9</v>
       </c>
       <c r="AW102" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="AX102" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AY102" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AZ102" t="n" s="10">
         <v>71.1</v>
       </c>
       <c r="BA102" t="n" s="10">
-        <v>71.3</v>
+        <v>71.2</v>
       </c>
       <c r="BB102" t="n" s="10">
         <v>71.6</v>
@@ -40974,13 +40974,13 @@
         <v>74.6</v>
       </c>
       <c r="BI102" t="n" s="10">
-        <v>75.2</v>
+        <v>75.1</v>
       </c>
       <c r="BJ102" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="BK102" t="n" s="10">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="BL102" t="n" s="10">
         <v>76.6</v>
@@ -40989,7 +40989,7 @@
         <v>76.8</v>
       </c>
       <c r="BN102" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="BO102" t="n" s="10">
         <v>77.3</v>
@@ -41001,7 +41001,7 @@
         <v>77.8</v>
       </c>
       <c r="BR102" t="n" s="10">
-        <v>78.1</v>
+        <v>78.2</v>
       </c>
       <c r="BS102" t="n" s="10">
         <v>78.6</v>
@@ -41010,10 +41010,10 @@
         <v>78.9</v>
       </c>
       <c r="BU102" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="BV102" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="BW102" t="n" s="10">
         <v>80.3</v>
@@ -41037,10 +41037,10 @@
         <v>83.8</v>
       </c>
       <c r="CD102" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CE102" t="n" s="10">
-        <v>84.8</v>
+        <v>84.9</v>
       </c>
       <c r="CF102" t="n" s="10">
         <v>85.4</v>
@@ -41052,7 +41052,7 @@
         <v>86.2</v>
       </c>
       <c r="CI102" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="CJ102" t="n" s="10">
         <v>86.5</v>
@@ -41097,13 +41097,13 @@
         <v>78.7</v>
       </c>
       <c r="CX102" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="CY102" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="CZ102" t="n" s="10">
-        <v>78.6</v>
+        <v>78.7</v>
       </c>
       <c r="DA102" t="n" s="10">
         <v>78.9</v>
@@ -41133,7 +41133,7 @@
         <v>80.8</v>
       </c>
       <c r="DJ102" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DK102" t="n" s="10">
         <v>80.3</v>
@@ -41142,49 +41142,49 @@
         <v>80.1</v>
       </c>
       <c r="DM102" t="n" s="10">
+        <v>80.0</v>
+      </c>
+      <c r="DN102" t="n" s="10">
         <v>80.1</v>
-      </c>
-      <c r="DN102" t="n" s="10">
-        <v>80.2</v>
       </c>
       <c r="DO102" t="n" s="10">
         <v>80.4</v>
       </c>
       <c r="DP102" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="DQ102" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>81.6</v>
+        <v>81.5</v>
       </c>
       <c r="DS102" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="DT102" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="DU102" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DV102" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="DW102" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="DX102" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DY102" t="n" s="10">
         <v>85.8</v>
       </c>
       <c r="DZ102" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="EA102" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="EB102" t="n" s="10">
         <v>87.9</v>
@@ -41193,7 +41193,7 @@
         <v>88.7</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>90.0</v>
@@ -41258,7 +41258,7 @@
         <v>113.1</v>
       </c>
       <c r="U103" t="n" s="10">
-        <v>112.3</v>
+        <v>112.2</v>
       </c>
       <c r="V103" t="n" s="10">
         <v>111.4</v>
@@ -41345,7 +41345,7 @@
         <v>89.4</v>
       </c>
       <c r="AX103" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="AY103" t="n" s="10">
         <v>88.6</v>
@@ -41381,7 +41381,7 @@
         <v>93.2</v>
       </c>
       <c r="BJ103" t="n" s="10">
-        <v>93.8</v>
+        <v>93.9</v>
       </c>
       <c r="BK103" t="n" s="10">
         <v>94.3</v>
@@ -41573,7 +41573,7 @@
         <v>89.8</v>
       </c>
       <c r="DV103" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="DW103" t="n" s="10">
         <v>90.6</v>
@@ -41597,7 +41597,7 @@
         <v>94.0</v>
       </c>
       <c r="ED103" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="EE103" t="n" s="10">
         <v>94.9</v>
@@ -41764,7 +41764,7 @@
         <v>67.6</v>
       </c>
       <c r="BB104" t="n" s="10">
-        <v>67.8</v>
+        <v>67.9</v>
       </c>
       <c r="BC104" t="n" s="10">
         <v>68.1</v>
@@ -41929,7 +41929,7 @@
         <v>70.7</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>71.3</v>
+        <v>71.4</v>
       </c>
       <c r="DF104" t="n" s="10">
         <v>72.2</v>
@@ -41974,7 +41974,7 @@
         <v>78.2</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>79.1</v>
+        <v>79.2</v>
       </c>
       <c r="DU104" t="n" s="10">
         <v>79.9</v>
@@ -41983,7 +41983,7 @@
         <v>80.6</v>
       </c>
       <c r="DW104" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="DX104" t="n" s="10">
         <v>82.3</v>
@@ -42105,7 +42105,7 @@
         <v>96.5</v>
       </c>
       <c r="AG105" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AH105" t="n" s="10">
         <v>96.0</v>
@@ -42159,7 +42159,7 @@
         <v>84.0</v>
       </c>
       <c r="AY105" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="AZ105" t="n" s="10">
         <v>83.4</v>
@@ -42192,7 +42192,7 @@
         <v>87.9</v>
       </c>
       <c r="BJ105" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="BK105" t="n" s="10">
         <v>89.4</v>
@@ -42372,7 +42372,7 @@
         <v>83.9</v>
       </c>
       <c r="DR105" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="DS105" t="n" s="10">
         <v>84.9</v>
@@ -42384,7 +42384,7 @@
         <v>86.3</v>
       </c>
       <c r="DV105" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="DW105" t="n" s="10">
         <v>87.5</v>
@@ -42411,7 +42411,7 @@
         <v>92.1</v>
       </c>
       <c r="EE105" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="106">
@@ -42431,7 +42431,7 @@
         <v>90.9</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="G106" t="n" s="10">
         <v>88.2</v>
@@ -42446,10 +42446,10 @@
         <v>84.5</v>
       </c>
       <c r="K106" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="L106" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>80.3</v>
@@ -42461,7 +42461,7 @@
         <v>77.2</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>76.1</v>
+        <v>76.0</v>
       </c>
       <c r="Q106" t="n" s="10">
         <v>75.1</v>
@@ -42500,7 +42500,7 @@
         <v>70.3</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>69.9</v>
+        <v>69.8</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>69.7</v>
@@ -42521,13 +42521,13 @@
         <v>69.0</v>
       </c>
       <c r="AJ106" t="n" s="10">
-        <v>68.7</v>
+        <v>68.6</v>
       </c>
       <c r="AK106" t="n" s="10">
         <v>68.4</v>
       </c>
       <c r="AL106" t="n" s="10">
-        <v>68.1</v>
+        <v>68.0</v>
       </c>
       <c r="AM106" t="n" s="10">
         <v>67.6</v>
@@ -42548,7 +42548,7 @@
         <v>64.2</v>
       </c>
       <c r="AS106" t="n" s="10">
-        <v>63.3</v>
+        <v>63.4</v>
       </c>
       <c r="AT106" t="n" s="10">
         <v>62.4</v>
@@ -42572,16 +42572,16 @@
         <v>58.5</v>
       </c>
       <c r="BA106" t="n" s="10">
-        <v>58.1</v>
+        <v>58.2</v>
       </c>
       <c r="BB106" t="n" s="10">
         <v>57.8</v>
       </c>
       <c r="BC106" t="n" s="10">
+        <v>57.7</v>
+      </c>
+      <c r="BD106" t="n" s="10">
         <v>57.6</v>
-      </c>
-      <c r="BD106" t="n" s="10">
-        <v>57.5</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>57.5</v>
@@ -42605,7 +42605,7 @@
         <v>59.7</v>
       </c>
       <c r="BL106" t="n" s="10">
-        <v>60.1</v>
+        <v>60.2</v>
       </c>
       <c r="BM106" t="n" s="10">
         <v>60.5</v>
@@ -42635,7 +42635,7 @@
         <v>60.6</v>
       </c>
       <c r="BV106" t="n" s="10">
-        <v>60.3</v>
+        <v>60.2</v>
       </c>
       <c r="BW106" t="n" s="10">
         <v>59.9</v>
@@ -42659,19 +42659,19 @@
         <v>57.9</v>
       </c>
       <c r="CD106" t="n" s="10">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="CE106" t="n" s="10">
         <v>57.4</v>
       </c>
       <c r="CF106" t="n" s="10">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="CG106" t="n" s="10">
         <v>56.7</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>56.5</v>
+        <v>56.4</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>56.3</v>
@@ -42698,7 +42698,7 @@
         <v>54.5</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>54.3</v>
+        <v>54.2</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>54.0</v>
@@ -42779,10 +42779,10 @@
         <v>64.0</v>
       </c>
       <c r="DR106" t="n" s="10">
-        <v>65.1</v>
+        <v>65.2</v>
       </c>
       <c r="DS106" t="n" s="10">
-        <v>66.3</v>
+        <v>66.4</v>
       </c>
       <c r="DT106" t="n" s="10">
         <v>67.5</v>
@@ -42791,7 +42791,7 @@
         <v>68.6</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>69.6</v>
+        <v>69.7</v>
       </c>
       <c r="DW106" t="n" s="10">
         <v>70.8</v>
@@ -42809,7 +42809,7 @@
         <v>74.0</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>75.7</v>
@@ -42829,73 +42829,73 @@
         <v>34</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>113.6</v>
+        <v>113.1</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>111.9</v>
+        <v>111.2</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>110.3</v>
+        <v>109.4</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>108.8</v>
+        <v>107.7</v>
       </c>
       <c r="H107" t="n" s="10">
-        <v>107.6</v>
+        <v>106.1</v>
       </c>
       <c r="I107" t="n" s="10">
-        <v>106.1</v>
+        <v>104.6</v>
       </c>
       <c r="J107" t="n" s="10">
-        <v>104.5</v>
+        <v>103.0</v>
       </c>
       <c r="K107" t="n" s="10">
-        <v>102.9</v>
+        <v>101.6</v>
       </c>
       <c r="L107" t="n" s="10">
-        <v>101.3</v>
+        <v>100.2</v>
       </c>
       <c r="M107" t="n" s="10">
-        <v>99.4</v>
+        <v>98.5</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>97.4</v>
+        <v>96.7</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>94.4</v>
+        <v>94.0</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>93.3</v>
+        <v>93.1</v>
       </c>
       <c r="R107" t="n" s="10">
         <v>92.5</v>
       </c>
       <c r="S107" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="T107" t="n" s="10">
-        <v>91.7</v>
+        <v>91.9</v>
       </c>
       <c r="U107" t="n" s="10">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="V107" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="W107" t="n" s="10">
         <v>90.8</v>
       </c>
       <c r="X107" t="n" s="10">
-        <v>90.3</v>
+        <v>90.2</v>
       </c>
       <c r="Y107" t="n" s="10">
         <v>89.7</v>
       </c>
       <c r="Z107" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="AA107" t="n" s="10">
         <v>88.4</v>
@@ -42916,7 +42916,7 @@
         <v>86.5</v>
       </c>
       <c r="AG107" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="AH107" t="n" s="10">
         <v>86.4</v>
@@ -42952,7 +42952,7 @@
         <v>79.5</v>
       </c>
       <c r="AS107" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="AT107" t="n" s="10">
         <v>77.1</v>
@@ -42961,7 +42961,7 @@
         <v>76.0</v>
       </c>
       <c r="AV107" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AW107" t="n" s="10">
         <v>74.1</v>
@@ -42976,7 +42976,7 @@
         <v>72.0</v>
       </c>
       <c r="BA107" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="BB107" t="n" s="10">
         <v>71.2</v>
@@ -42994,7 +42994,7 @@
         <v>71.1</v>
       </c>
       <c r="BG107" t="n" s="10">
-        <v>71.4</v>
+        <v>71.5</v>
       </c>
       <c r="BH107" t="n" s="10">
         <v>71.9</v>
@@ -43036,10 +43036,10 @@
         <v>73.1</v>
       </c>
       <c r="BU107" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="BV107" t="n" s="10">
-        <v>71.8</v>
+        <v>71.7</v>
       </c>
       <c r="BW107" t="n" s="10">
         <v>71.0</v>
@@ -43072,7 +43072,7 @@
         <v>65.9</v>
       </c>
       <c r="CG107" t="n" s="10">
-        <v>65.3</v>
+        <v>65.2</v>
       </c>
       <c r="CH107" t="n" s="10">
         <v>64.8</v>
@@ -43129,7 +43129,7 @@
         <v>60.3</v>
       </c>
       <c r="CZ107" t="n" s="10">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
       <c r="DA107" t="n" s="10">
         <v>60.9</v>
@@ -43177,10 +43177,10 @@
         <v>68.1</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="DR107" t="n" s="10">
         <v>71.4</v>
@@ -43216,13 +43216,13 @@
         <v>80.1</v>
       </c>
       <c r="EC107" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="ED107" t="n" s="10">
         <v>81.6</v>
       </c>
       <c r="EE107" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="108">
@@ -43257,13 +43257,13 @@
         <v>109.4</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>108.3</v>
+        <v>108.2</v>
       </c>
       <c r="L108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="N108" t="n" s="10">
         <v>104.2</v>
@@ -43317,7 +43317,7 @@
         <v>82.7</v>
       </c>
       <c r="AE108" t="n" s="10">
-        <v>82.1</v>
+        <v>82.0</v>
       </c>
       <c r="AF108" t="n" s="10">
         <v>81.6</v>
@@ -43341,7 +43341,7 @@
         <v>79.8</v>
       </c>
       <c r="AM108" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="AN108" t="n" s="10">
         <v>79.2</v>
@@ -43389,13 +43389,13 @@
         <v>74.8</v>
       </c>
       <c r="BC108" t="n" s="10">
-        <v>75.3</v>
+        <v>75.4</v>
       </c>
       <c r="BD108" t="n" s="10">
         <v>75.8</v>
       </c>
       <c r="BE108" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="BF108" t="n" s="10">
         <v>77.2</v>
@@ -43422,7 +43422,7 @@
         <v>82.8</v>
       </c>
       <c r="BN108" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="BO108" t="n" s="10">
         <v>83.7</v>
@@ -43449,7 +43449,7 @@
         <v>88.7</v>
       </c>
       <c r="BW108" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="BX108" t="n" s="10">
         <v>90.6</v>
@@ -43512,7 +43512,7 @@
         <v>96.0</v>
       </c>
       <c r="CR108" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="CS108" t="n" s="10">
         <v>91.9</v>
@@ -43527,10 +43527,10 @@
         <v>85.3</v>
       </c>
       <c r="CW108" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="CX108" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="CY108" t="n" s="10">
         <v>81.3</v>
@@ -43584,7 +43584,7 @@
         <v>85.2</v>
       </c>
       <c r="DP108" t="n" s="10">
-        <v>85.3</v>
+        <v>85.4</v>
       </c>
       <c r="DQ108" t="n" s="10">
         <v>85.6</v>
@@ -43593,7 +43593,7 @@
         <v>86.0</v>
       </c>
       <c r="DS108" t="n" s="10">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="DT108" t="n" s="10">
         <v>87.2</v>
@@ -43602,13 +43602,13 @@
         <v>87.8</v>
       </c>
       <c r="DV108" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DW108" t="n" s="10">
         <v>88.8</v>
       </c>
       <c r="DX108" t="n" s="10">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="DY108" t="n" s="10">
         <v>90.7</v>
@@ -43649,7 +43649,7 @@
         <v>139.3</v>
       </c>
       <c r="G109" t="n" s="10">
-        <v>139.5</v>
+        <v>139.4</v>
       </c>
       <c r="H109" t="n" s="10">
         <v>139.3</v>
@@ -43721,7 +43721,7 @@
         <v>104.8</v>
       </c>
       <c r="AE109" t="n" s="10">
-        <v>104.0</v>
+        <v>103.9</v>
       </c>
       <c r="AF109" t="n" s="10">
         <v>103.4</v>
@@ -43775,7 +43775,7 @@
         <v>92.8</v>
       </c>
       <c r="AW109" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="AX109" t="n" s="10">
         <v>91.4</v>
@@ -43799,7 +43799,7 @@
         <v>93.7</v>
       </c>
       <c r="BE109" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="BF109" t="n" s="10">
         <v>95.3</v>
@@ -43823,7 +43823,7 @@
         <v>101.0</v>
       </c>
       <c r="BM109" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="BN109" t="n" s="10">
         <v>101.8</v>
@@ -43895,7 +43895,7 @@
         <v>112.0</v>
       </c>
       <c r="CK109" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="CL109" t="n" s="10">
         <v>112.2</v>
@@ -43988,7 +43988,7 @@
         <v>93.3</v>
       </c>
       <c r="DP109" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="DQ109" t="n" s="10">
         <v>93.3</v>
@@ -44006,7 +44006,7 @@
         <v>94.4</v>
       </c>
       <c r="DV109" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="DW109" t="n" s="10">
         <v>95.0</v>
@@ -44047,7 +44047,7 @@
         <v>34</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="E110" t="n" s="10">
         <v>111.7</v>
@@ -44194,10 +44194,10 @@
         <v>71.1</v>
       </c>
       <c r="BA110" t="n" s="10">
-        <v>71.6</v>
+        <v>71.7</v>
       </c>
       <c r="BB110" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BC110" t="n" s="10">
         <v>73.2</v>
@@ -44227,7 +44227,7 @@
         <v>79.7</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="BM110" t="n" s="10">
         <v>81.0</v>
@@ -44389,7 +44389,7 @@
         <v>80.7</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="DO110" t="n" s="10">
         <v>81.7</v>
@@ -44410,37 +44410,37 @@
         <v>85.8</v>
       </c>
       <c r="DU110" t="n" s="10">
-        <v>86.9</v>
+        <v>86.6</v>
       </c>
       <c r="DV110" t="n" s="10">
-        <v>87.6</v>
+        <v>87.1</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>88.3</v>
+        <v>87.9</v>
       </c>
       <c r="DX110" t="n" s="10">
-        <v>89.2</v>
+        <v>88.9</v>
       </c>
       <c r="DY110" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="DZ110" t="n" s="10">
-        <v>90.3</v>
+        <v>90.6</v>
       </c>
       <c r="EA110" t="n" s="10">
-        <v>90.9</v>
+        <v>91.6</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>91.4</v>
+        <v>92.5</v>
       </c>
       <c r="EC110" t="n" s="10">
-        <v>92.0</v>
+        <v>93.5</v>
       </c>
       <c r="ED110" t="n" s="10">
-        <v>92.4</v>
+        <v>94.3</v>
       </c>
       <c r="EE110" t="n" s="10">
-        <v>92.9</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="111">
@@ -44909,7 +44909,7 @@
         <v>102.0</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="V112" t="n" s="10">
         <v>100.6</v>
@@ -44939,7 +44939,7 @@
         <v>89.1</v>
       </c>
       <c r="AE112" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="AF112" t="n" s="10">
         <v>88.7</v>
@@ -45693,7 +45693,7 @@
         <v>89.9</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="M114" t="n" s="10">
         <v>90.0</v>
@@ -45714,7 +45714,7 @@
         <v>90.7</v>
       </c>
       <c r="S114" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="T114" t="n" s="10">
         <v>90.6</v>
@@ -45723,7 +45723,7 @@
         <v>90.4</v>
       </c>
       <c r="V114" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="W114" t="n" s="10">
         <v>89.8</v>
@@ -45795,7 +45795,7 @@
         <v>76.9</v>
       </c>
       <c r="AT114" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="AU114" t="n" s="10">
         <v>75.6</v>
@@ -45837,7 +45837,7 @@
         <v>78.7</v>
       </c>
       <c r="BH114" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="BI114" t="n" s="10">
         <v>79.5</v>
@@ -45894,7 +45894,7 @@
         <v>86.2</v>
       </c>
       <c r="CA114" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="CB114" t="n" s="10">
         <v>88.1</v>
@@ -45906,13 +45906,13 @@
         <v>89.9</v>
       </c>
       <c r="CE114" t="n" s="10">
-        <v>90.8</v>
+        <v>90.9</v>
       </c>
       <c r="CF114" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CG114" t="n" s="10">
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="CH114" t="n" s="10">
         <v>92.9</v>
@@ -45966,7 +45966,7 @@
         <v>87.9</v>
       </c>
       <c r="CY114" t="n" s="10">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="CZ114" t="n" s="10">
         <v>88.9</v>
@@ -46023,31 +46023,31 @@
         <v>86.2</v>
       </c>
       <c r="DR114" t="n" s="10">
+        <v>86.2</v>
+      </c>
+      <c r="DS114" t="n" s="10">
         <v>86.3</v>
       </c>
-      <c r="DS114" t="n" s="10">
-        <v>86.4</v>
-      </c>
       <c r="DT114" t="n" s="10">
-        <v>86.6</v>
+        <v>86.5</v>
       </c>
       <c r="DU114" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="DV114" t="n" s="10">
-        <v>87.4</v>
+        <v>87.3</v>
       </c>
       <c r="DW114" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="DX114" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DY114" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="DZ114" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="EA114" t="n" s="10">
         <v>90.0</v>
@@ -46100,7 +46100,7 @@
         <v>114.3</v>
       </c>
       <c r="M115" t="n" s="10">
-        <v>114.3</v>
+        <v>114.4</v>
       </c>
       <c r="N115" t="n" s="10">
         <v>114.6</v>
@@ -46154,7 +46154,7 @@
         <v>108.8</v>
       </c>
       <c r="AE115" t="n" s="10">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="AF115" t="n" s="10">
         <v>107.5</v>
@@ -46202,7 +46202,7 @@
         <v>96.6</v>
       </c>
       <c r="AU115" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AV115" t="n" s="10">
         <v>95.2</v>
@@ -46513,7 +46513,7 @@
         <v>85.8</v>
       </c>
       <c r="O116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="P116" t="n" s="10">
         <v>85.6</v>
@@ -46624,7 +46624,7 @@
         <v>74.6</v>
       </c>
       <c r="AZ116" t="n" s="10">
-        <v>74.8</v>
+        <v>74.9</v>
       </c>
       <c r="BA116" t="n" s="10">
         <v>75.3</v>
@@ -46633,16 +46633,16 @@
         <v>75.9</v>
       </c>
       <c r="BC116" t="n" s="10">
-        <v>76.8</v>
+        <v>76.9</v>
       </c>
       <c r="BD116" t="n" s="10">
         <v>77.7</v>
       </c>
       <c r="BE116" t="n" s="10">
-        <v>78.4</v>
+        <v>78.5</v>
       </c>
       <c r="BF116" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="BG116" t="n" s="10">
         <v>80.0</v>
@@ -46672,7 +46672,7 @@
         <v>83.5</v>
       </c>
       <c r="BP116" t="n" s="10">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="BQ116" t="n" s="10">
         <v>84.1</v>
@@ -46834,7 +46834,7 @@
         <v>87.4</v>
       </c>
       <c r="DR116" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DS116" t="n" s="10">
         <v>87.6</v>
@@ -46855,7 +46855,7 @@
         <v>87.4</v>
       </c>
       <c r="DY116" t="n" s="10">
-        <v>87.5</v>
+        <v>87.6</v>
       </c>
       <c r="DZ116" t="n" s="10">
         <v>88.0</v>
@@ -46908,10 +46908,10 @@
         <v>110.3</v>
       </c>
       <c r="L117" t="n" s="10">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="M117" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="N117" t="n" s="10">
         <v>110.1</v>
@@ -46968,7 +46968,7 @@
         <v>104.6</v>
       </c>
       <c r="AF117" t="n" s="10">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="AG117" t="n" s="10">
         <v>103.3</v>
@@ -47043,7 +47043,7 @@
         <v>100.4</v>
       </c>
       <c r="BE117" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="BF117" t="n" s="10">
         <v>102.3</v>
@@ -47333,7 +47333,7 @@
         <v>93.5</v>
       </c>
       <c r="R118" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="S118" t="n" s="10">
         <v>93.8</v>
@@ -47360,7 +47360,7 @@
         <v>89.6</v>
       </c>
       <c r="AA118" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="AB118" t="n" s="10">
         <v>88.1</v>
@@ -47369,7 +47369,7 @@
         <v>87.5</v>
       </c>
       <c r="AD118" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="AE118" t="n" s="10">
         <v>86.5</v>
@@ -47381,7 +47381,7 @@
         <v>85.6</v>
       </c>
       <c r="AH118" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="AI118" t="n" s="10">
         <v>84.1</v>
@@ -47408,7 +47408,7 @@
         <v>78.9</v>
       </c>
       <c r="AQ118" t="n" s="10">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="AR118" t="n" s="10">
         <v>77.6</v>
@@ -47417,16 +47417,16 @@
         <v>77.0</v>
       </c>
       <c r="AT118" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="AU118" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="AV118" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="AW118" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AX118" t="n" s="10">
         <v>75.0</v>
@@ -47435,7 +47435,7 @@
         <v>75.1</v>
       </c>
       <c r="AZ118" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BA118" t="n" s="10">
         <v>75.5</v>
@@ -47447,7 +47447,7 @@
         <v>76.1</v>
       </c>
       <c r="BD118" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="BE118" t="n" s="10">
         <v>77.0</v>
@@ -47516,7 +47516,7 @@
         <v>84.7</v>
       </c>
       <c r="CA118" t="n" s="10">
-        <v>85.4</v>
+        <v>85.3</v>
       </c>
       <c r="CB118" t="n" s="10">
         <v>86.0</v>
@@ -47525,7 +47525,7 @@
         <v>86.7</v>
       </c>
       <c r="CD118" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CE118" t="n" s="10">
         <v>87.7</v>
@@ -47543,7 +47543,7 @@
         <v>88.3</v>
       </c>
       <c r="CJ118" t="n" s="10">
-        <v>88.1</v>
+        <v>88.0</v>
       </c>
       <c r="CK118" t="n" s="10">
         <v>87.7</v>
@@ -47555,7 +47555,7 @@
         <v>86.7</v>
       </c>
       <c r="CN118" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="CO118" t="n" s="10">
         <v>85.2</v>
@@ -47585,7 +47585,7 @@
         <v>82.7</v>
       </c>
       <c r="CX118" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="CY118" t="n" s="10">
         <v>82.9</v>
@@ -47618,10 +47618,10 @@
         <v>86.6</v>
       </c>
       <c r="DI118" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DK118" t="n" s="10">
         <v>85.8</v>
@@ -47642,13 +47642,13 @@
         <v>85.2</v>
       </c>
       <c r="DQ118" t="n" s="10">
-        <v>85.4</v>
+        <v>85.5</v>
       </c>
       <c r="DR118" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="DS118" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="DT118" t="n" s="10">
         <v>85.9</v>
@@ -47675,16 +47675,16 @@
         <v>90.7</v>
       </c>
       <c r="EB118" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="EC118" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="ED118" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="EE118" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="119">
@@ -47719,7 +47719,7 @@
         <v>116.5</v>
       </c>
       <c r="L119" t="n" s="10">
-        <v>116.5</v>
+        <v>116.6</v>
       </c>
       <c r="M119" t="n" s="10">
         <v>116.8</v>
@@ -48138,7 +48138,7 @@
         <v>78.9</v>
       </c>
       <c r="P120" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="Q120" t="n" s="10">
         <v>80.9</v>
@@ -48147,10 +48147,10 @@
         <v>81.7</v>
       </c>
       <c r="S120" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="T120" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="U120" t="n" s="10">
         <v>82.0</v>
@@ -48228,85 +48228,85 @@
         <v>66.2</v>
       </c>
       <c r="AT120" t="n" s="10">
+        <v>65.5</v>
+      </c>
+      <c r="AU120" t="n" s="10">
+        <v>65.1</v>
+      </c>
+      <c r="AV120" t="n" s="10">
+        <v>64.8</v>
+      </c>
+      <c r="AW120" t="n" s="10">
+        <v>64.6</v>
+      </c>
+      <c r="AX120" t="n" s="10">
+        <v>64.8</v>
+      </c>
+      <c r="AY120" t="n" s="10">
+        <v>65.3</v>
+      </c>
+      <c r="AZ120" t="n" s="10">
         <v>65.8</v>
       </c>
-      <c r="AU120" t="n" s="10">
-        <v>65.6</v>
-      </c>
-      <c r="AV120" t="n" s="10">
-        <v>65.3</v>
-      </c>
-      <c r="AW120" t="n" s="10">
-        <v>65.0</v>
-      </c>
-      <c r="AX120" t="n" s="10">
-        <v>64.9</v>
-      </c>
-      <c r="AY120" t="n" s="10">
-        <v>65.0</v>
-      </c>
-      <c r="AZ120" t="n" s="10">
-        <v>65.0</v>
-      </c>
       <c r="BA120" t="n" s="10">
-        <v>65.0</v>
+        <v>66.3</v>
       </c>
       <c r="BB120" t="n" s="10">
-        <v>65.1</v>
+        <v>66.9</v>
       </c>
       <c r="BC120" t="n" s="10">
-        <v>65.2</v>
+        <v>67.5</v>
       </c>
       <c r="BD120" t="n" s="10">
-        <v>65.3</v>
+        <v>68.0</v>
       </c>
       <c r="BE120" t="n" s="10">
-        <v>65.4</v>
+        <v>68.4</v>
       </c>
       <c r="BF120" t="n" s="10">
-        <v>65.7</v>
+        <v>69.1</v>
       </c>
       <c r="BG120" t="n" s="10">
-        <v>66.2</v>
+        <v>69.8</v>
       </c>
       <c r="BH120" t="n" s="10">
-        <v>66.8</v>
+        <v>70.2</v>
       </c>
       <c r="BI120" t="n" s="10">
-        <v>67.6</v>
+        <v>70.6</v>
       </c>
       <c r="BJ120" t="n" s="10">
-        <v>68.4</v>
+        <v>71.1</v>
       </c>
       <c r="BK120" t="n" s="10">
-        <v>69.2</v>
+        <v>71.4</v>
       </c>
       <c r="BL120" t="n" s="10">
-        <v>70.0</v>
+        <v>71.7</v>
       </c>
       <c r="BM120" t="n" s="10">
-        <v>70.8</v>
+        <v>72.1</v>
       </c>
       <c r="BN120" t="n" s="10">
-        <v>71.7</v>
+        <v>72.5</v>
       </c>
       <c r="BO120" t="n" s="10">
-        <v>72.6</v>
+        <v>73.0</v>
       </c>
       <c r="BP120" t="n" s="10">
-        <v>73.6</v>
+        <v>73.5</v>
       </c>
       <c r="BQ120" t="n" s="10">
-        <v>74.6</v>
+        <v>74.3</v>
       </c>
       <c r="BR120" t="n" s="10">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="BS120" t="n" s="10">
-        <v>76.7</v>
+        <v>76.2</v>
       </c>
       <c r="BT120" t="n" s="10">
-        <v>77.6</v>
+        <v>77.3</v>
       </c>
       <c r="BU120" t="n" s="10">
         <v>78.4</v>
@@ -48315,10 +48315,10 @@
         <v>79.0</v>
       </c>
       <c r="BW120" t="n" s="10">
-        <v>79.3</v>
+        <v>79.4</v>
       </c>
       <c r="BX120" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BY120" t="n" s="10">
         <v>79.9</v>
@@ -48474,7 +48474,7 @@
         <v>91.5</v>
       </c>
       <c r="DX120" t="n" s="10">
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="DY120" t="n" s="10">
         <v>92.3</v>
@@ -48492,7 +48492,7 @@
         <v>93.1</v>
       </c>
       <c r="ED120" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="EE120" t="n" s="10">
         <v>92.9</v>
@@ -49276,7 +49276,7 @@
         <v>82.3</v>
       </c>
       <c r="DU122" t="n" s="10">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="DV122" t="n" s="10">
         <v>82.5</v>
@@ -49303,7 +49303,7 @@
         <v>90.1</v>
       </c>
       <c r="ED122" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="EE122" t="n" s="10">
         <v>92.5</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:36:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:14:27&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 2001.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:14:19</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:27:20</t>
   </si>
 </sst>
 </file>
@@ -31883,10 +31883,10 @@
         <v>95.3</v>
       </c>
       <c r="F79" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="G79" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="H79" t="n" s="10">
         <v>98.4</v>
@@ -31919,7 +31919,7 @@
         <v>91.8</v>
       </c>
       <c r="R79" t="n" s="10">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="S79" t="n" s="10">
         <v>90.9</v>
@@ -31940,7 +31940,7 @@
         <v>88.4</v>
       </c>
       <c r="Y79" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="Z79" t="n" s="10">
         <v>84.4</v>
@@ -31961,10 +31961,10 @@
         <v>79.6</v>
       </c>
       <c r="AF79" t="n" s="10">
-        <v>80.0</v>
+        <v>79.9</v>
       </c>
       <c r="AG79" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AH79" t="n" s="10">
         <v>82.0</v>
@@ -32015,7 +32015,7 @@
         <v>72.8</v>
       </c>
       <c r="AX79" t="n" s="10">
-        <v>70.1</v>
+        <v>70.0</v>
       </c>
       <c r="AY79" t="n" s="10">
         <v>71.2</v>
@@ -32027,7 +32027,7 @@
         <v>68.6</v>
       </c>
       <c r="BB79" t="n" s="10">
-        <v>72.6</v>
+        <v>72.7</v>
       </c>
       <c r="BC79" t="n" s="10">
         <v>69.8</v>
@@ -32045,7 +32045,7 @@
         <v>75.5</v>
       </c>
       <c r="BH79" t="n" s="10">
-        <v>75.5</v>
+        <v>75.4</v>
       </c>
       <c r="BI79" t="n" s="10">
         <v>74.9</v>
@@ -32057,13 +32057,13 @@
         <v>78.0</v>
       </c>
       <c r="BL79" t="n" s="10">
-        <v>74.5</v>
+        <v>74.4</v>
       </c>
       <c r="BM79" t="n" s="10">
         <v>77.1</v>
       </c>
       <c r="BN79" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="BO79" t="n" s="10">
         <v>78.2</v>
@@ -32099,7 +32099,7 @@
         <v>82.5</v>
       </c>
       <c r="BZ79" t="n" s="10">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="CA79" t="n" s="10">
         <v>83.5</v>
@@ -32138,7 +32138,7 @@
         <v>86.4</v>
       </c>
       <c r="CM79" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="CN79" t="n" s="10">
         <v>83.5</v>
@@ -32171,7 +32171,7 @@
         <v>76.5</v>
       </c>
       <c r="CX79" t="n" s="10">
-        <v>75.7</v>
+        <v>75.6</v>
       </c>
       <c r="CY79" t="n" s="10">
         <v>79.3</v>
@@ -32180,7 +32180,7 @@
         <v>79.9</v>
       </c>
       <c r="DA79" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="DB79" t="n" s="10">
         <v>78.7</v>
@@ -32201,7 +32201,7 @@
         <v>83.4</v>
       </c>
       <c r="DH79" t="n" s="10">
-        <v>79.4</v>
+        <v>79.5</v>
       </c>
       <c r="DI79" t="n" s="10">
         <v>82.7</v>
@@ -32213,7 +32213,7 @@
         <v>79.4</v>
       </c>
       <c r="DL79" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="DM79" t="n" s="10">
         <v>79.5</v>
@@ -32249,7 +32249,7 @@
         <v>84.2</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DY79" t="n" s="10">
         <v>85.6</v>
@@ -32284,19 +32284,19 @@
         <v>121.4</v>
       </c>
       <c r="E80" t="n" s="10">
-        <v>119.4</v>
+        <v>119.5</v>
       </c>
       <c r="F80" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="G80" t="n" s="10">
-        <v>119.7</v>
+        <v>119.8</v>
       </c>
       <c r="H80" t="n" s="10">
-        <v>123.7</v>
+        <v>123.6</v>
       </c>
       <c r="I80" t="n" s="10">
-        <v>124.4</v>
+        <v>124.5</v>
       </c>
       <c r="J80" t="n" s="10">
         <v>117.8</v>
@@ -32305,7 +32305,7 @@
         <v>122.2</v>
       </c>
       <c r="L80" t="n" s="10">
-        <v>115.4</v>
+        <v>115.5</v>
       </c>
       <c r="M80" t="n" s="10">
         <v>117.3</v>
@@ -32314,22 +32314,22 @@
         <v>117.2</v>
       </c>
       <c r="O80" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="P80" t="n" s="10">
         <v>114.7</v>
       </c>
       <c r="Q80" t="n" s="10">
-        <v>116.0</v>
+        <v>116.1</v>
       </c>
       <c r="R80" t="n" s="10">
-        <v>122.0</v>
+        <v>122.2</v>
       </c>
       <c r="S80" t="n" s="10">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="T80" t="n" s="10">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="U80" t="n" s="10">
         <v>110.9</v>
@@ -32341,13 +32341,13 @@
         <v>108.9</v>
       </c>
       <c r="X80" t="n" s="10">
-        <v>111.9</v>
+        <v>112.0</v>
       </c>
       <c r="Y80" t="n" s="10">
         <v>107.5</v>
       </c>
       <c r="Z80" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AA80" t="n" s="10">
         <v>109.5</v>
@@ -32356,25 +32356,25 @@
         <v>104.5</v>
       </c>
       <c r="AC80" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AD80" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="AE80" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AF80" t="n" s="10">
-        <v>102.0</v>
+        <v>101.9</v>
       </c>
       <c r="AG80" t="n" s="10">
-        <v>100.0</v>
+        <v>100.2</v>
       </c>
       <c r="AH80" t="n" s="10">
         <v>104.4</v>
       </c>
       <c r="AI80" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AJ80" t="n" s="10">
         <v>98.7</v>
@@ -32383,10 +32383,10 @@
         <v>99.6</v>
       </c>
       <c r="AL80" t="n" s="10">
-        <v>100.0</v>
+        <v>100.1</v>
       </c>
       <c r="AM80" t="n" s="10">
-        <v>95.3</v>
+        <v>95.4</v>
       </c>
       <c r="AN80" t="n" s="10">
         <v>98.4</v>
@@ -32395,7 +32395,7 @@
         <v>101.6</v>
       </c>
       <c r="AP80" t="n" s="10">
-        <v>95.4</v>
+        <v>95.2</v>
       </c>
       <c r="AQ80" t="n" s="10">
         <v>96.0</v>
@@ -32419,10 +32419,10 @@
         <v>91.0</v>
       </c>
       <c r="AX80" t="n" s="10">
-        <v>87.8</v>
+        <v>87.6</v>
       </c>
       <c r="AY80" t="n" s="10">
-        <v>89.2</v>
+        <v>89.0</v>
       </c>
       <c r="AZ80" t="n" s="10">
         <v>89.0</v>
@@ -32431,160 +32431,160 @@
         <v>85.3</v>
       </c>
       <c r="BB80" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="BC80" t="n" s="10">
-        <v>87.0</v>
+        <v>86.8</v>
       </c>
       <c r="BD80" t="n" s="10">
         <v>90.7</v>
       </c>
       <c r="BE80" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="BF80" t="n" s="10">
         <v>91.4</v>
       </c>
       <c r="BG80" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BH80" t="n" s="10">
-        <v>94.0</v>
+        <v>93.9</v>
       </c>
       <c r="BI80" t="n" s="10">
         <v>92.8</v>
       </c>
       <c r="BJ80" t="n" s="10">
-        <v>94.6</v>
+        <v>94.4</v>
       </c>
       <c r="BK80" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="BL80" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="BM80" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="BN80" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="BO80" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="BP80" t="n" s="10">
+        <v>96.2</v>
+      </c>
+      <c r="BQ80" t="n" s="10">
+        <v>96.0</v>
+      </c>
+      <c r="BR80" t="n" s="10">
+        <v>95.4</v>
+      </c>
+      <c r="BS80" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="BT80" t="n" s="10">
         <v>95.2</v>
       </c>
-      <c r="BP80" t="n" s="10">
+      <c r="BU80" t="n" s="10">
+        <v>90.5</v>
+      </c>
+      <c r="BV80" t="n" s="10">
+        <v>94.8</v>
+      </c>
+      <c r="BW80" t="n" s="10">
+        <v>93.7</v>
+      </c>
+      <c r="BX80" t="n" s="10">
+        <v>96.7</v>
+      </c>
+      <c r="BY80" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="BZ80" t="n" s="10">
+        <v>98.9</v>
+      </c>
+      <c r="CA80" t="n" s="10">
+        <v>97.6</v>
+      </c>
+      <c r="CB80" t="n" s="10">
+        <v>97.3</v>
+      </c>
+      <c r="CC80" t="n" s="10">
+        <v>95.6</v>
+      </c>
+      <c r="CD80" t="n" s="10">
         <v>96.1</v>
       </c>
-      <c r="BQ80" t="n" s="10">
-        <v>95.6</v>
-      </c>
-      <c r="BR80" t="n" s="10">
+      <c r="CE80" t="n" s="10">
+        <v>95.8</v>
+      </c>
+      <c r="CF80" t="n" s="10">
+        <v>95.9</v>
+      </c>
+      <c r="CG80" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="CH80" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="CI80" t="n" s="10">
+        <v>100.0</v>
+      </c>
+      <c r="CJ80" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="CK80" t="n" s="10">
+        <v>97.5</v>
+      </c>
+      <c r="CL80" t="n" s="10">
+        <v>97.9</v>
+      </c>
+      <c r="CM80" t="n" s="10">
+        <v>96.3</v>
+      </c>
+      <c r="CN80" t="n" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="CO80" t="n" s="10">
         <v>95.0</v>
       </c>
-      <c r="BS80" t="n" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="BT80" t="n" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="BU80" t="n" s="10">
-        <v>94.4</v>
-      </c>
-      <c r="BV80" t="n" s="10">
-        <v>94.5</v>
-      </c>
-      <c r="BW80" t="n" s="10">
-        <v>93.4</v>
-      </c>
-      <c r="BX80" t="n" s="10">
-        <v>96.3</v>
-      </c>
-      <c r="BY80" t="n" s="10">
-        <v>96.9</v>
-      </c>
-      <c r="BZ80" t="n" s="10">
-        <v>98.5</v>
-      </c>
-      <c r="CA80" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="CB80" t="n" s="10">
-        <v>96.7</v>
-      </c>
-      <c r="CC80" t="n" s="10">
-        <v>94.8</v>
-      </c>
-      <c r="CD80" t="n" s="10">
-        <v>95.4</v>
-      </c>
-      <c r="CE80" t="n" s="10">
-        <v>95.1</v>
-      </c>
-      <c r="CF80" t="n" s="10">
-        <v>94.9</v>
-      </c>
-      <c r="CG80" t="n" s="10">
-        <v>114.1</v>
-      </c>
-      <c r="CH80" t="n" s="10">
-        <v>99.2</v>
-      </c>
-      <c r="CI80" t="n" s="10">
-        <v>99.1</v>
-      </c>
-      <c r="CJ80" t="n" s="10">
-        <v>101.0</v>
-      </c>
-      <c r="CK80" t="n" s="10">
-        <v>96.9</v>
-      </c>
-      <c r="CL80" t="n" s="10">
-        <v>97.0</v>
-      </c>
-      <c r="CM80" t="n" s="10">
+      <c r="CP80" t="n" s="10">
         <v>96.0</v>
       </c>
-      <c r="CN80" t="n" s="10">
-        <v>93.3</v>
-      </c>
-      <c r="CO80" t="n" s="10">
-        <v>94.7</v>
-      </c>
-      <c r="CP80" t="n" s="10">
-        <v>95.7</v>
-      </c>
       <c r="CQ80" t="n" s="10">
-        <v>90.7</v>
+        <v>91.0</v>
       </c>
       <c r="CR80" t="n" s="10">
-        <v>93.0</v>
+        <v>93.2</v>
       </c>
       <c r="CS80" t="n" s="10">
-        <v>89.7</v>
+        <v>85.8</v>
       </c>
       <c r="CT80" t="n" s="10">
-        <v>88.1</v>
+        <v>88.7</v>
       </c>
       <c r="CU80" t="n" s="10">
-        <v>86.5</v>
+        <v>86.9</v>
       </c>
       <c r="CV80" t="n" s="10">
-        <v>86.5</v>
+        <v>86.8</v>
       </c>
       <c r="CW80" t="n" s="10">
-        <v>84.2</v>
+        <v>84.6</v>
       </c>
       <c r="CX80" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="CY80" t="n" s="10">
-        <v>86.9</v>
+        <v>87.2</v>
       </c>
       <c r="CZ80" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="DA80" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="DB80" t="n" s="10">
         <v>87.0</v>
@@ -32593,10 +32593,10 @@
         <v>90.2</v>
       </c>
       <c r="DD80" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="DE80" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DF80" t="n" s="10">
         <v>89.0</v>
@@ -32605,76 +32605,76 @@
         <v>92.3</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="DI80" t="n" s="10">
         <v>91.6</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>88.0</v>
+        <v>87.9</v>
       </c>
       <c r="DL80" t="n" s="10">
+        <v>86.7</v>
+      </c>
+      <c r="DM80" t="n" s="10">
+        <v>87.5</v>
+      </c>
+      <c r="DN80" t="n" s="10">
         <v>86.6</v>
       </c>
-      <c r="DM80" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="DN80" t="n" s="10">
-        <v>86.7</v>
-      </c>
       <c r="DO80" t="n" s="10">
-        <v>88.5</v>
+        <v>88.4</v>
       </c>
       <c r="DP80" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DQ80" t="n" s="10">
         <v>91.6</v>
       </c>
       <c r="DR80" t="n" s="10">
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>85.1</v>
+        <v>85.0</v>
       </c>
       <c r="DT80" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DU80" t="n" s="10">
         <v>89.8</v>
       </c>
       <c r="DV80" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="DW80" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="EC80" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="ED80" t="n" s="10">
         <v>96.8</v>
       </c>
       <c r="EE80" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="81">
@@ -32691,7 +32691,7 @@
         <v>106.0</v>
       </c>
       <c r="E81" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="F81" t="n" s="10">
         <v>94.9</v>
@@ -32721,7 +32721,7 @@
         <v>95.2</v>
       </c>
       <c r="O81" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="P81" t="n" s="10">
         <v>89.4</v>
@@ -32730,7 +32730,7 @@
         <v>92.9</v>
       </c>
       <c r="R81" t="n" s="10">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="S81" t="n" s="10">
         <v>88.2</v>
@@ -32763,16 +32763,16 @@
         <v>79.4</v>
       </c>
       <c r="AC81" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="AD81" t="n" s="10">
-        <v>73.0</v>
+        <v>73.1</v>
       </c>
       <c r="AE81" t="n" s="10">
         <v>77.6</v>
       </c>
       <c r="AF81" t="n" s="10">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="AG81" t="n" s="10">
         <v>74.4</v>
@@ -32793,7 +32793,7 @@
         <v>77.5</v>
       </c>
       <c r="AM81" t="n" s="10">
-        <v>70.2</v>
+        <v>70.3</v>
       </c>
       <c r="AN81" t="n" s="10">
         <v>76.1</v>
@@ -32802,7 +32802,7 @@
         <v>80.7</v>
       </c>
       <c r="AP81" t="n" s="10">
-        <v>68.8</v>
+        <v>68.7</v>
       </c>
       <c r="AQ81" t="n" s="10">
         <v>72.1</v>
@@ -32811,7 +32811,7 @@
         <v>69.7</v>
       </c>
       <c r="AS81" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="AT81" t="n" s="10">
         <v>70.3</v>
@@ -32838,7 +32838,7 @@
         <v>63.4</v>
       </c>
       <c r="BB81" t="n" s="10">
-        <v>72.5</v>
+        <v>72.6</v>
       </c>
       <c r="BC81" t="n" s="10">
         <v>65.6</v>
@@ -32856,7 +32856,7 @@
         <v>66.5</v>
       </c>
       <c r="BH81" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="BI81" t="n" s="10">
         <v>70.5</v>
@@ -32877,10 +32877,10 @@
         <v>70.5</v>
       </c>
       <c r="BO81" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="BP81" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="BQ81" t="n" s="10">
         <v>73.9</v>
@@ -32910,7 +32910,7 @@
         <v>77.7</v>
       </c>
       <c r="BZ81" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="CA81" t="n" s="10">
         <v>77.8</v>
@@ -32928,7 +32928,7 @@
         <v>76.6</v>
       </c>
       <c r="CF81" t="n" s="10">
-        <v>74.9</v>
+        <v>75.0</v>
       </c>
       <c r="CG81" t="n" s="10">
         <v>83.4</v>
@@ -32946,13 +32946,13 @@
         <v>81.7</v>
       </c>
       <c r="CL81" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="CM81" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="CN81" t="n" s="10">
-        <v>77.8</v>
+        <v>77.9</v>
       </c>
       <c r="CO81" t="n" s="10">
         <v>83.7</v>
@@ -32970,7 +32970,7 @@
         <v>74.6</v>
       </c>
       <c r="CT81" t="n" s="10">
-        <v>77.4</v>
+        <v>77.5</v>
       </c>
       <c r="CU81" t="n" s="10">
         <v>73.8</v>
@@ -32979,10 +32979,10 @@
         <v>70.5</v>
       </c>
       <c r="CW81" t="n" s="10">
-        <v>69.0</v>
+        <v>69.1</v>
       </c>
       <c r="CX81" t="n" s="10">
-        <v>68.2</v>
+        <v>68.1</v>
       </c>
       <c r="CY81" t="n" s="10">
         <v>67.5</v>
@@ -33101,7 +33101,7 @@
         <v>125.9</v>
       </c>
       <c r="G82" t="n" s="10">
-        <v>127.5</v>
+        <v>127.6</v>
       </c>
       <c r="H82" t="n" s="10">
         <v>127.6</v>
@@ -33113,19 +33113,19 @@
         <v>122.4</v>
       </c>
       <c r="K82" t="n" s="10">
-        <v>126.0</v>
+        <v>125.9</v>
       </c>
       <c r="L82" t="n" s="10">
-        <v>119.3</v>
+        <v>119.4</v>
       </c>
       <c r="M82" t="n" s="10">
         <v>121.6</v>
       </c>
       <c r="N82" t="n" s="10">
-        <v>118.7</v>
+        <v>118.6</v>
       </c>
       <c r="O82" t="n" s="10">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
       <c r="P82" t="n" s="10">
         <v>111.2</v>
@@ -33134,16 +33134,16 @@
         <v>115.4</v>
       </c>
       <c r="R82" t="n" s="10">
-        <v>137.7</v>
+        <v>138.0</v>
       </c>
       <c r="S82" t="n" s="10">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="T82" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="U82" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="V82" t="n" s="10">
         <v>107.0</v>
@@ -33152,13 +33152,13 @@
         <v>104.4</v>
       </c>
       <c r="X82" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="Y82" t="n" s="10">
         <v>99.3</v>
       </c>
       <c r="Z82" t="n" s="10">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AA82" t="n" s="10">
         <v>108.3</v>
@@ -33170,7 +33170,7 @@
         <v>93.9</v>
       </c>
       <c r="AD82" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="AE82" t="n" s="10">
         <v>97.1</v>
@@ -33179,22 +33179,22 @@
         <v>95.8</v>
       </c>
       <c r="AG82" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="AH82" t="n" s="10">
         <v>96.9</v>
       </c>
       <c r="AI82" t="n" s="10">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AJ82" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
       <c r="AK82" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="AL82" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="AM82" t="n" s="10">
         <v>88.6</v>
@@ -33206,13 +33206,13 @@
         <v>101.7</v>
       </c>
       <c r="AP82" t="n" s="10">
-        <v>86.8</v>
+        <v>86.6</v>
       </c>
       <c r="AQ82" t="n" s="10">
         <v>90.6</v>
       </c>
       <c r="AR82" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="AS82" t="n" s="10">
         <v>88.4</v>
@@ -33227,13 +33227,13 @@
         <v>83.7</v>
       </c>
       <c r="AW82" t="n" s="10">
-        <v>86.7</v>
+        <v>86.6</v>
       </c>
       <c r="AX82" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="AY82" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="AZ82" t="n" s="10">
         <v>82.9</v>
@@ -33242,16 +33242,16 @@
         <v>78.1</v>
       </c>
       <c r="BB82" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="BC82" t="n" s="10">
-        <v>80.8</v>
+        <v>80.6</v>
       </c>
       <c r="BD82" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="BE82" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="BF82" t="n" s="10">
         <v>83.7</v>
@@ -33263,7 +33263,7 @@
         <v>90.3</v>
       </c>
       <c r="BI82" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="BJ82" t="n" s="10">
         <v>91.0</v>
@@ -33272,25 +33272,25 @@
         <v>92.9</v>
       </c>
       <c r="BL82" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="BM82" t="n" s="10">
         <v>91.9</v>
       </c>
       <c r="BN82" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="BO82" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="BP82" t="n" s="10">
-        <v>91.0</v>
+        <v>90.9</v>
       </c>
       <c r="BQ82" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="BR82" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="BS82" t="n" s="10">
         <v>94.8</v>
@@ -33305,7 +33305,7 @@
         <v>92.2</v>
       </c>
       <c r="BW82" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="BX82" t="n" s="10">
         <v>91.0</v>
@@ -33314,10 +33314,10 @@
         <v>91.1</v>
       </c>
       <c r="BZ82" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="CA82" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="CB82" t="n" s="10">
         <v>94.2</v>
@@ -33329,19 +33329,19 @@
         <v>95.7</v>
       </c>
       <c r="CE82" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="CF82" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="CG82" t="n" s="10">
         <v>96.0</v>
       </c>
       <c r="CH82" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CI82" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="CJ82" t="n" s="10">
         <v>97.2</v>
@@ -33350,22 +33350,22 @@
         <v>92.6</v>
       </c>
       <c r="CL82" t="n" s="10">
-        <v>92.6</v>
+        <v>92.8</v>
       </c>
       <c r="CM82" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="CN82" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="CO82" t="n" s="10">
-        <v>93.5</v>
+        <v>93.4</v>
       </c>
       <c r="CP82" t="n" s="10">
         <v>86.1</v>
       </c>
       <c r="CQ82" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="CR82" t="n" s="10">
         <v>91.6</v>
@@ -33374,7 +33374,7 @@
         <v>82.2</v>
       </c>
       <c r="CT82" t="n" s="10">
-        <v>85.8</v>
+        <v>86.0</v>
       </c>
       <c r="CU82" t="n" s="10">
         <v>81.4</v>
@@ -33383,19 +33383,19 @@
         <v>77.8</v>
       </c>
       <c r="CW82" t="n" s="10">
-        <v>76.4</v>
+        <v>76.5</v>
       </c>
       <c r="CX82" t="n" s="10">
-        <v>75.0</v>
+        <v>74.9</v>
       </c>
       <c r="CY82" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="CZ82" t="n" s="10">
         <v>80.3</v>
       </c>
       <c r="DA82" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="DB82" t="n" s="10">
         <v>78.0</v>
@@ -33407,7 +33407,7 @@
         <v>77.9</v>
       </c>
       <c r="DE82" t="n" s="10">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="DF82" t="n" s="10">
         <v>82.0</v>
@@ -33416,7 +33416,7 @@
         <v>83.2</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="DI82" t="n" s="10">
         <v>82.3</v>
@@ -33428,55 +33428,55 @@
         <v>83.5</v>
       </c>
       <c r="DL82" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="DM82" t="n" s="10">
-        <v>83.2</v>
+        <v>83.1</v>
       </c>
       <c r="DN82" t="n" s="10">
         <v>83.8</v>
       </c>
       <c r="DO82" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="DP82" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="DQ82" t="n" s="10">
         <v>84.2</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>81.2</v>
+        <v>81.1</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DT82" t="n" s="10">
-        <v>87.2</v>
+        <v>87.1</v>
       </c>
       <c r="DU82" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DV82" t="n" s="10">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="DW82" t="n" s="10">
         <v>86.4</v>
       </c>
       <c r="DX82" t="n" s="10">
-        <v>94.2</v>
+        <v>94.0</v>
       </c>
       <c r="DY82" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="DZ82" t="n" s="10">
-        <v>89.1</v>
+        <v>89.2</v>
       </c>
       <c r="EA82" t="n" s="10">
         <v>85.3</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>89.3</v>
+        <v>89.2</v>
       </c>
       <c r="EC82" t="n" s="10">
         <v>89.4</v>
@@ -33485,7 +33485,7 @@
         <v>95.8</v>
       </c>
       <c r="EE82" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="83">
@@ -33502,28 +33502,28 @@
         <v>92.2</v>
       </c>
       <c r="E83" t="n" s="10">
-        <v>90.0</v>
+        <v>90.1</v>
       </c>
       <c r="F83" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="G83" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="H83" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="I83" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="J83" t="n" s="10">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K83" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="L83" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="M83" t="n" s="10">
         <v>81.0</v>
@@ -33532,7 +33532,7 @@
         <v>74.6</v>
       </c>
       <c r="O83" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="P83" t="n" s="10">
         <v>77.2</v>
@@ -33541,16 +33541,16 @@
         <v>76.5</v>
       </c>
       <c r="R83" t="n" s="10">
-        <v>74.1</v>
+        <v>74.3</v>
       </c>
       <c r="S83" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="T83" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="U83" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="V83" t="n" s="10">
         <v>71.5</v>
@@ -33565,7 +33565,7 @@
         <v>69.9</v>
       </c>
       <c r="Z83" t="n" s="10">
-        <v>75.9</v>
+        <v>76.0</v>
       </c>
       <c r="AA83" t="n" s="10">
         <v>75.1</v>
@@ -33577,22 +33577,22 @@
         <v>67.5</v>
       </c>
       <c r="AD83" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="AE83" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="AF83" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="AG83" t="n" s="10">
-        <v>67.6</v>
+        <v>67.8</v>
       </c>
       <c r="AH83" t="n" s="10">
         <v>70.9</v>
       </c>
       <c r="AI83" t="n" s="10">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="AJ83" t="n" s="10">
         <v>68.7</v>
@@ -33601,10 +33601,10 @@
         <v>70.9</v>
       </c>
       <c r="AL83" t="n" s="10">
+        <v>68.7</v>
+      </c>
+      <c r="AM83" t="n" s="10">
         <v>68.6</v>
-      </c>
-      <c r="AM83" t="n" s="10">
-        <v>68.5</v>
       </c>
       <c r="AN83" t="n" s="10">
         <v>64.3</v>
@@ -33613,64 +33613,64 @@
         <v>69.5</v>
       </c>
       <c r="AP83" t="n" s="10">
-        <v>64.0</v>
+        <v>63.8</v>
       </c>
       <c r="AQ83" t="n" s="10">
+        <v>64.4</v>
+      </c>
+      <c r="AR83" t="n" s="10">
+        <v>65.1</v>
+      </c>
+      <c r="AS83" t="n" s="10">
         <v>64.3</v>
-      </c>
-      <c r="AR83" t="n" s="10">
-        <v>65.0</v>
-      </c>
-      <c r="AS83" t="n" s="10">
-        <v>64.4</v>
       </c>
       <c r="AT83" t="n" s="10">
         <v>62.0</v>
       </c>
       <c r="AU83" t="n" s="10">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
       <c r="AV83" t="n" s="10">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="AW83" t="n" s="10">
         <v>59.4</v>
       </c>
       <c r="AX83" t="n" s="10">
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="AY83" t="n" s="10">
-        <v>56.8</v>
+        <v>56.6</v>
       </c>
       <c r="AZ83" t="n" s="10">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="BA83" t="n" s="10">
         <v>57.1</v>
       </c>
       <c r="BB83" t="n" s="10">
-        <v>59.9</v>
+        <v>60.1</v>
       </c>
       <c r="BC83" t="n" s="10">
-        <v>56.2</v>
+        <v>56.0</v>
       </c>
       <c r="BD83" t="n" s="10">
-        <v>58.9</v>
+        <v>59.0</v>
       </c>
       <c r="BE83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
       <c r="BF83" t="n" s="10">
         <v>56.3</v>
       </c>
       <c r="BG83" t="n" s="10">
-        <v>58.0</v>
+        <v>57.9</v>
       </c>
       <c r="BH83" t="n" s="10">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="BI83" t="n" s="10">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="BJ83" t="n" s="10">
         <v>59.7</v>
@@ -33685,16 +33685,16 @@
         <v>60.3</v>
       </c>
       <c r="BN83" t="n" s="10">
-        <v>59.5</v>
+        <v>59.3</v>
       </c>
       <c r="BO83" t="n" s="10">
-        <v>62.5</v>
+        <v>62.7</v>
       </c>
       <c r="BP83" t="n" s="10">
-        <v>60.6</v>
+        <v>60.4</v>
       </c>
       <c r="BQ83" t="n" s="10">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="BR83" t="n" s="10">
         <v>64.3</v>
@@ -33706,82 +33706,82 @@
         <v>61.0</v>
       </c>
       <c r="BU83" t="n" s="10">
-        <v>59.7</v>
+        <v>59.8</v>
       </c>
       <c r="BV83" t="n" s="10">
         <v>60.2</v>
       </c>
       <c r="BW83" t="n" s="10">
-        <v>59.6</v>
+        <v>59.7</v>
       </c>
       <c r="BX83" t="n" s="10">
         <v>59.2</v>
       </c>
       <c r="BY83" t="n" s="10">
-        <v>58.4</v>
+        <v>58.5</v>
       </c>
       <c r="BZ83" t="n" s="10">
-        <v>57.4</v>
+        <v>57.3</v>
       </c>
       <c r="CA83" t="n" s="10">
-        <v>60.6</v>
+        <v>60.7</v>
       </c>
       <c r="CB83" t="n" s="10">
         <v>58.6</v>
       </c>
       <c r="CC83" t="n" s="10">
-        <v>57.9</v>
+        <v>58.0</v>
       </c>
       <c r="CD83" t="n" s="10">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="CE83" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="CF83" t="n" s="10">
-        <v>56.2</v>
+        <v>56.3</v>
       </c>
       <c r="CG83" t="n" s="10">
         <v>57.2</v>
       </c>
       <c r="CH83" t="n" s="10">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="CI83" t="n" s="10">
+        <v>58.0</v>
+      </c>
+      <c r="CJ83" t="n" s="10">
         <v>57.8</v>
-      </c>
-      <c r="CJ83" t="n" s="10">
-        <v>57.9</v>
       </c>
       <c r="CK83" t="n" s="10">
         <v>57.4</v>
       </c>
       <c r="CL83" t="n" s="10">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="CM83" t="n" s="10">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="CN83" t="n" s="10">
+        <v>54.6</v>
+      </c>
+      <c r="CO83" t="n" s="10">
         <v>54.5</v>
-      </c>
-      <c r="CO83" t="n" s="10">
-        <v>54.6</v>
       </c>
       <c r="CP83" t="n" s="10">
         <v>54.4</v>
       </c>
       <c r="CQ83" t="n" s="10">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="CR83" t="n" s="10">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="CS83" t="n" s="10">
         <v>52.9</v>
       </c>
       <c r="CT83" t="n" s="10">
-        <v>56.7</v>
+        <v>56.9</v>
       </c>
       <c r="CU83" t="n" s="10">
         <v>51.7</v>
@@ -33793,16 +33793,16 @@
         <v>53.0</v>
       </c>
       <c r="CX83" t="n" s="10">
-        <v>50.7</v>
+        <v>50.6</v>
       </c>
       <c r="CY83" t="n" s="10">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
       <c r="CZ83" t="n" s="10">
         <v>53.7</v>
       </c>
       <c r="DA83" t="n" s="10">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="DB83" t="n" s="10">
         <v>55.7</v>
@@ -33814,7 +33814,7 @@
         <v>53.4</v>
       </c>
       <c r="DE83" t="n" s="10">
-        <v>58.1</v>
+        <v>58.0</v>
       </c>
       <c r="DF83" t="n" s="10">
         <v>57.2</v>
@@ -33823,7 +33823,7 @@
         <v>58.0</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>56.0</v>
+        <v>56.1</v>
       </c>
       <c r="DI83" t="n" s="10">
         <v>57.1</v>
@@ -33832,13 +33832,13 @@
         <v>58.5</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="DL83" t="n" s="10">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="DM83" t="n" s="10">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="DN83" t="n" s="10">
         <v>60.2</v>
@@ -33853,46 +33853,46 @@
         <v>62.7</v>
       </c>
       <c r="DR83" t="n" s="10">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>64.0</v>
+        <v>63.9</v>
       </c>
       <c r="DT83" t="n" s="10">
-        <v>66.9</v>
+        <v>66.8</v>
       </c>
       <c r="DU83" t="n" s="10">
         <v>69.0</v>
       </c>
       <c r="DV83" t="n" s="10">
-        <v>71.5</v>
+        <v>71.4</v>
       </c>
       <c r="DW83" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="DX83" t="n" s="10">
-        <v>78.0</v>
+        <v>77.8</v>
       </c>
       <c r="DY83" t="n" s="10">
-        <v>68.5</v>
+        <v>68.6</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>73.4</v>
+        <v>73.5</v>
       </c>
       <c r="EA83" t="n" s="10">
         <v>73.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>70.5</v>
+        <v>70.3</v>
       </c>
       <c r="EC83" t="n" s="10">
-        <v>74.8</v>
+        <v>75.0</v>
       </c>
       <c r="ED83" t="n" s="10">
         <v>78.2</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
     </row>
     <row r="84">
@@ -33903,94 +33903,94 @@
         <v>34</v>
       </c>
       <c r="D84" t="n" s="10">
-        <v>112.7</v>
+        <v>113.2</v>
       </c>
       <c r="E84" t="n" s="10">
-        <v>110.1</v>
+        <v>110.6</v>
       </c>
       <c r="F84" t="n" s="10">
-        <v>110.9</v>
+        <v>111.7</v>
       </c>
       <c r="G84" t="n" s="10">
-        <v>105.3</v>
+        <v>105.8</v>
       </c>
       <c r="H84" t="n" s="10">
-        <v>108.9</v>
+        <v>109.5</v>
       </c>
       <c r="I84" t="n" s="10">
-        <v>118.9</v>
+        <v>112.9</v>
       </c>
       <c r="J84" t="n" s="10">
-        <v>102.1</v>
+        <v>102.6</v>
       </c>
       <c r="K84" t="n" s="10">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="L84" t="n" s="10">
-        <v>102.5</v>
+        <v>103.0</v>
       </c>
       <c r="M84" t="n" s="10">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="N84" t="n" s="10">
-        <v>92.1</v>
+        <v>92.5</v>
       </c>
       <c r="O84" t="n" s="10">
-        <v>90.5</v>
+        <v>90.9</v>
       </c>
       <c r="P84" t="n" s="10">
-        <v>95.5</v>
+        <v>95.8</v>
       </c>
       <c r="Q84" t="n" s="10">
-        <v>94.7</v>
+        <v>95.1</v>
       </c>
       <c r="R84" t="n" s="10">
-        <v>91.8</v>
+        <v>92.0</v>
       </c>
       <c r="S84" t="n" s="10">
-        <v>95.3</v>
+        <v>95.6</v>
       </c>
       <c r="T84" t="n" s="10">
-        <v>92.8</v>
+        <v>93.0</v>
       </c>
       <c r="U84" t="n" s="10">
-        <v>91.7</v>
+        <v>88.6</v>
       </c>
       <c r="V84" t="n" s="10">
-        <v>88.7</v>
+        <v>89.0</v>
       </c>
       <c r="W84" t="n" s="10">
-        <v>90.3</v>
+        <v>90.6</v>
       </c>
       <c r="X84" t="n" s="10">
-        <v>88.3</v>
+        <v>88.6</v>
       </c>
       <c r="Y84" t="n" s="10">
-        <v>86.7</v>
+        <v>87.0</v>
       </c>
       <c r="Z84" t="n" s="10">
-        <v>94.2</v>
+        <v>94.4</v>
       </c>
       <c r="AA84" t="n" s="10">
-        <v>93.2</v>
+        <v>93.4</v>
       </c>
       <c r="AB84" t="n" s="10">
-        <v>87.9</v>
+        <v>88.0</v>
       </c>
       <c r="AC84" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="AD84" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="AE84" t="n" s="10">
-        <v>85.2</v>
+        <v>85.1</v>
       </c>
       <c r="AF84" t="n" s="10">
-        <v>82.5</v>
+        <v>82.4</v>
       </c>
       <c r="AG84" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="AH84" t="n" s="10">
         <v>88.6</v>
@@ -34041,10 +34041,10 @@
         <v>73.0</v>
       </c>
       <c r="AX84" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="AY84" t="n" s="10">
-        <v>70.0</v>
+        <v>70.1</v>
       </c>
       <c r="AZ84" t="n" s="10">
         <v>73.5</v>
@@ -34053,10 +34053,10 @@
         <v>70.3</v>
       </c>
       <c r="BB84" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
       <c r="BC84" t="n" s="10">
-        <v>69.3</v>
+        <v>69.4</v>
       </c>
       <c r="BD84" t="n" s="10">
         <v>72.7</v>
@@ -34092,7 +34092,7 @@
         <v>72.9</v>
       </c>
       <c r="BO84" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="BP84" t="n" s="10">
         <v>74.0</v>
@@ -34125,10 +34125,10 @@
         <v>68.6</v>
       </c>
       <c r="BZ84" t="n" s="10">
-        <v>67.1</v>
+        <v>67.2</v>
       </c>
       <c r="CA84" t="n" s="10">
-        <v>70.5</v>
+        <v>70.4</v>
       </c>
       <c r="CB84" t="n" s="10">
         <v>67.9</v>
@@ -34140,7 +34140,7 @@
         <v>64.4</v>
       </c>
       <c r="CE84" t="n" s="10">
-        <v>67.4</v>
+        <v>67.5</v>
       </c>
       <c r="CF84" t="n" s="10">
         <v>64.8</v>
@@ -34161,7 +34161,7 @@
         <v>65.4</v>
       </c>
       <c r="CL84" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="CM84" t="n" s="10">
         <v>57.6</v>
@@ -34179,13 +34179,13 @@
         <v>59.7</v>
       </c>
       <c r="CR84" t="n" s="10">
-        <v>62.1</v>
+        <v>62.2</v>
       </c>
       <c r="CS84" t="n" s="10">
         <v>58.7</v>
       </c>
       <c r="CT84" t="n" s="10">
-        <v>63.3</v>
+        <v>63.2</v>
       </c>
       <c r="CU84" t="n" s="10">
         <v>57.6</v>
@@ -34197,10 +34197,10 @@
         <v>59.0</v>
       </c>
       <c r="CX84" t="n" s="10">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="CY84" t="n" s="10">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="CZ84" t="n" s="10">
         <v>60.1</v>
@@ -34227,7 +34227,7 @@
         <v>64.7</v>
       </c>
       <c r="DH84" t="n" s="10">
-        <v>62.2</v>
+        <v>62.1</v>
       </c>
       <c r="DI84" t="n" s="10">
         <v>63.6</v>
@@ -34242,7 +34242,7 @@
         <v>63.3</v>
       </c>
       <c r="DM84" t="n" s="10">
-        <v>64.9</v>
+        <v>65.0</v>
       </c>
       <c r="DN84" t="n" s="10">
         <v>66.5</v>
@@ -34254,13 +34254,13 @@
         <v>74.1</v>
       </c>
       <c r="DQ84" t="n" s="10">
-        <v>68.9</v>
+        <v>69.0</v>
       </c>
       <c r="DR84" t="n" s="10">
         <v>68.6</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>70.0</v>
+        <v>70.1</v>
       </c>
       <c r="DT84" t="n" s="10">
         <v>72.9</v>
@@ -34269,13 +34269,13 @@
         <v>74.9</v>
       </c>
       <c r="DV84" t="n" s="10">
-        <v>77.5</v>
+        <v>77.6</v>
       </c>
       <c r="DW84" t="n" s="10">
         <v>77.5</v>
       </c>
       <c r="DX84" t="n" s="10">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="DY84" t="n" s="10">
         <v>73.8</v>
@@ -34296,7 +34296,7 @@
         <v>83.4</v>
       </c>
       <c r="EE84" t="n" s="10">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="85">
@@ -34322,7 +34322,7 @@
         <v>113.3</v>
       </c>
       <c r="H85" t="n" s="10">
-        <v>111.2</v>
+        <v>111.1</v>
       </c>
       <c r="I85" t="n" s="10">
         <v>113.0</v>
@@ -34352,7 +34352,7 @@
         <v>102.5</v>
       </c>
       <c r="R85" t="n" s="10">
-        <v>134.8</v>
+        <v>134.9</v>
       </c>
       <c r="S85" t="n" s="10">
         <v>94.3</v>
@@ -34388,7 +34388,7 @@
         <v>79.5</v>
       </c>
       <c r="AD85" t="n" s="10">
-        <v>83.4</v>
+        <v>83.5</v>
       </c>
       <c r="AE85" t="n" s="10">
         <v>83.2</v>
@@ -34403,7 +34403,7 @@
         <v>80.7</v>
       </c>
       <c r="AI85" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="AJ85" t="n" s="10">
         <v>79.3</v>
@@ -34415,7 +34415,7 @@
         <v>83.8</v>
       </c>
       <c r="AM85" t="n" s="10">
-        <v>71.5</v>
+        <v>71.6</v>
       </c>
       <c r="AN85" t="n" s="10">
         <v>84.6</v>
@@ -34424,7 +34424,7 @@
         <v>88.7</v>
       </c>
       <c r="AP85" t="n" s="10">
-        <v>72.1</v>
+        <v>72.0</v>
       </c>
       <c r="AQ85" t="n" s="10">
         <v>77.6</v>
@@ -34442,7 +34442,7 @@
         <v>78.9</v>
       </c>
       <c r="AV85" t="n" s="10">
-        <v>71.2</v>
+        <v>71.1</v>
       </c>
       <c r="AW85" t="n" s="10">
         <v>77.5</v>
@@ -34466,7 +34466,7 @@
         <v>71.9</v>
       </c>
       <c r="BD85" t="n" s="10">
-        <v>77.0</v>
+        <v>77.1</v>
       </c>
       <c r="BE85" t="n" s="10">
         <v>78.8</v>
@@ -34499,7 +34499,7 @@
         <v>78.0</v>
       </c>
       <c r="BO85" t="n" s="10">
-        <v>86.1</v>
+        <v>86.2</v>
       </c>
       <c r="BP85" t="n" s="10">
         <v>84.3</v>
@@ -34529,7 +34529,7 @@
         <v>89.4</v>
       </c>
       <c r="BY85" t="n" s="10">
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="BZ85" t="n" s="10">
         <v>97.7</v>
@@ -34538,7 +34538,7 @@
         <v>89.9</v>
       </c>
       <c r="CB85" t="n" s="10">
-        <v>97.0</v>
+        <v>97.1</v>
       </c>
       <c r="CC85" t="n" s="10">
         <v>92.8</v>
@@ -34550,7 +34550,7 @@
         <v>89.4</v>
       </c>
       <c r="CF85" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="CG85" t="n" s="10">
         <v>101.6</v>
@@ -34568,13 +34568,13 @@
         <v>98.6</v>
       </c>
       <c r="CL85" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="CM85" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="CN85" t="n" s="10">
-        <v>94.1</v>
+        <v>94.2</v>
       </c>
       <c r="CO85" t="n" s="10">
         <v>104.0</v>
@@ -34583,7 +34583,7 @@
         <v>93.2</v>
       </c>
       <c r="CQ85" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CR85" t="n" s="10">
         <v>102.1</v>
@@ -34613,10 +34613,10 @@
         <v>85.1</v>
       </c>
       <c r="DA85" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="DB85" t="n" s="10">
-        <v>80.5</v>
+        <v>80.4</v>
       </c>
       <c r="DC85" t="n" s="10">
         <v>83.6</v>
@@ -34625,7 +34625,7 @@
         <v>81.1</v>
       </c>
       <c r="DE85" t="n" s="10">
-        <v>81.0</v>
+        <v>80.9</v>
       </c>
       <c r="DF85" t="n" s="10">
         <v>85.4</v>
@@ -34646,10 +34646,10 @@
         <v>87.1</v>
       </c>
       <c r="DL85" t="n" s="10">
-        <v>80.8</v>
+        <v>80.9</v>
       </c>
       <c r="DM85" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DN85" t="n" s="10">
         <v>87.4</v>
@@ -34682,13 +34682,13 @@
         <v>86.5</v>
       </c>
       <c r="DX85" t="n" s="10">
-        <v>95.1</v>
+        <v>95.0</v>
       </c>
       <c r="DY85" t="n" s="10">
         <v>94.8</v>
       </c>
       <c r="DZ85" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="EA85" t="n" s="10">
         <v>85.2</v>
@@ -34703,7 +34703,7 @@
         <v>99.1</v>
       </c>
       <c r="EE85" t="n" s="10">
-        <v>94.9</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="86">
@@ -34714,7 +34714,7 @@
         <v>34</v>
       </c>
       <c r="D86" t="n" s="10">
-        <v>143.9</v>
+        <v>143.8</v>
       </c>
       <c r="E86" t="n" s="10">
         <v>131.7</v>
@@ -34732,10 +34732,10 @@
         <v>142.1</v>
       </c>
       <c r="J86" t="n" s="10">
-        <v>135.8</v>
+        <v>135.9</v>
       </c>
       <c r="K86" t="n" s="10">
-        <v>142.1</v>
+        <v>142.0</v>
       </c>
       <c r="L86" t="n" s="10">
         <v>130.4</v>
@@ -34753,10 +34753,10 @@
         <v>121.7</v>
       </c>
       <c r="Q86" t="n" s="10">
-        <v>129.4</v>
+        <v>129.5</v>
       </c>
       <c r="R86" t="n" s="10">
-        <v>169.9</v>
+        <v>170.1</v>
       </c>
       <c r="S86" t="n" s="10">
         <v>119.7</v>
@@ -34765,19 +34765,19 @@
         <v>118.4</v>
       </c>
       <c r="U86" t="n" s="10">
-        <v>120.7</v>
+        <v>120.6</v>
       </c>
       <c r="V86" t="n" s="10">
         <v>119.4</v>
       </c>
       <c r="W86" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="X86" t="n" s="10">
         <v>117.7</v>
       </c>
       <c r="Y86" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="Z86" t="n" s="10">
         <v>105.1</v>
@@ -34792,22 +34792,22 @@
         <v>100.7</v>
       </c>
       <c r="AD86" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AE86" t="n" s="10">
         <v>105.2</v>
       </c>
       <c r="AF86" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AG86" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="AH86" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AI86" t="n" s="10">
-        <v>101.9</v>
+        <v>102.0</v>
       </c>
       <c r="AJ86" t="n" s="10">
         <v>101.0</v>
@@ -34816,7 +34816,7 @@
         <v>102.0</v>
       </c>
       <c r="AL86" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="AM86" t="n" s="10">
         <v>90.8</v>
@@ -34828,7 +34828,7 @@
         <v>112.2</v>
       </c>
       <c r="AP86" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="AQ86" t="n" s="10">
         <v>98.0</v>
@@ -34843,10 +34843,10 @@
         <v>94.8</v>
       </c>
       <c r="AU86" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
       <c r="AV86" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="AW86" t="n" s="10">
         <v>96.2</v>
@@ -34855,34 +34855,34 @@
         <v>87.4</v>
       </c>
       <c r="AY86" t="n" s="10">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="AZ86" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BA86" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BB86" t="n" s="10">
         <v>100.0</v>
       </c>
       <c r="BC86" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="BD86" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="BE86" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="BF86" t="n" s="10">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="BG86" t="n" s="10">
-        <v>89.7</v>
+        <v>89.6</v>
       </c>
       <c r="BH86" t="n" s="10">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="BI86" t="n" s="10">
         <v>96.6</v>
@@ -34891,7 +34891,7 @@
         <v>103.2</v>
       </c>
       <c r="BK86" t="n" s="10">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="BL86" t="n" s="10">
         <v>97.1</v>
@@ -34900,10 +34900,10 @@
         <v>104.5</v>
       </c>
       <c r="BN86" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="BO86" t="n" s="10">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="BP86" t="n" s="10">
         <v>102.9</v>
@@ -34912,7 +34912,7 @@
         <v>99.7</v>
       </c>
       <c r="BR86" t="n" s="10">
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="BS86" t="n" s="10">
         <v>110.1</v>
@@ -34954,7 +34954,7 @@
         <v>103.3</v>
       </c>
       <c r="CF86" t="n" s="10">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="CG86" t="n" s="10">
         <v>116.8</v>
@@ -34969,34 +34969,34 @@
         <v>118.9</v>
       </c>
       <c r="CK86" t="n" s="10">
-        <v>111.6</v>
+        <v>111.5</v>
       </c>
       <c r="CL86" t="n" s="10">
-        <v>110.6</v>
+        <v>110.8</v>
       </c>
       <c r="CM86" t="n" s="10">
-        <v>121.5</v>
+        <v>121.4</v>
       </c>
       <c r="CN86" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="CO86" t="n" s="10">
-        <v>115.8</v>
+        <v>115.7</v>
       </c>
       <c r="CP86" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="CQ86" t="n" s="10">
         <v>105.8</v>
       </c>
       <c r="CR86" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="CS86" t="n" s="10">
         <v>98.4</v>
       </c>
       <c r="CT86" t="n" s="10">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="CU86" t="n" s="10">
         <v>98.0</v>
@@ -35017,13 +35017,13 @@
         <v>94.3</v>
       </c>
       <c r="DA86" t="n" s="10">
-        <v>82.5</v>
+        <v>82.6</v>
       </c>
       <c r="DB86" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="DC86" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="DD86" t="n" s="10">
         <v>90.2</v>
@@ -35038,28 +35038,28 @@
         <v>95.8</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>91.8</v>
+        <v>91.9</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>95.4</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="DK86" t="n" s="10">
         <v>96.5</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="DM86" t="n" s="10">
-        <v>95.9</v>
+        <v>95.8</v>
       </c>
       <c r="DN86" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="DO86" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="DP86" t="n" s="10">
         <v>89.6</v>
@@ -35068,10 +35068,10 @@
         <v>94.9</v>
       </c>
       <c r="DR86" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="DT86" t="n" s="10">
         <v>97.0</v>
@@ -35086,7 +35086,7 @@
         <v>92.5</v>
       </c>
       <c r="DX86" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="DY86" t="n" s="10">
         <v>101.0</v>
@@ -35098,7 +35098,7 @@
         <v>90.3</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="EC86" t="n" s="10">
         <v>95.7</v>
@@ -35124,16 +35124,16 @@
         <v>117.3</v>
       </c>
       <c r="E87" t="n" s="10">
-        <v>105.0</v>
+        <v>105.1</v>
       </c>
       <c r="F87" t="n" s="10">
         <v>110.6</v>
       </c>
       <c r="G87" t="n" s="10">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="H87" t="n" s="10">
-        <v>111.3</v>
+        <v>111.2</v>
       </c>
       <c r="I87" t="n" s="10">
         <v>108.7</v>
@@ -35142,10 +35142,10 @@
         <v>108.0</v>
       </c>
       <c r="K87" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="L87" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="M87" t="n" s="10">
         <v>103.8</v>
@@ -35154,7 +35154,7 @@
         <v>108.6</v>
       </c>
       <c r="O87" t="n" s="10">
-        <v>99.5</v>
+        <v>99.6</v>
       </c>
       <c r="P87" t="n" s="10">
         <v>94.4</v>
@@ -35163,13 +35163,13 @@
         <v>102.0</v>
       </c>
       <c r="R87" t="n" s="10">
-        <v>136.4</v>
+        <v>136.6</v>
       </c>
       <c r="S87" t="n" s="10">
-        <v>91.4</v>
+        <v>91.3</v>
       </c>
       <c r="T87" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="U87" t="n" s="10">
         <v>94.6</v>
@@ -35190,7 +35190,7 @@
         <v>79.7</v>
       </c>
       <c r="AA87" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="AB87" t="n" s="10">
         <v>82.6</v>
@@ -35199,7 +35199,7 @@
         <v>77.2</v>
       </c>
       <c r="AD87" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="AE87" t="n" s="10">
         <v>81.6</v>
@@ -35208,13 +35208,13 @@
         <v>79.8</v>
       </c>
       <c r="AG87" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="AH87" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="AI87" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AJ87" t="n" s="10">
         <v>76.3</v>
@@ -35223,19 +35223,19 @@
         <v>76.8</v>
       </c>
       <c r="AL87" t="n" s="10">
-        <v>82.3</v>
+        <v>82.4</v>
       </c>
       <c r="AM87" t="n" s="10">
         <v>67.3</v>
       </c>
       <c r="AN87" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="AO87" t="n" s="10">
         <v>86.0</v>
       </c>
       <c r="AP87" t="n" s="10">
-        <v>67.0</v>
+        <v>66.8</v>
       </c>
       <c r="AQ87" t="n" s="10">
         <v>74.2</v>
@@ -35244,7 +35244,7 @@
         <v>69.7</v>
       </c>
       <c r="AS87" t="n" s="10">
-        <v>72.5</v>
+        <v>72.4</v>
       </c>
       <c r="AT87" t="n" s="10">
         <v>70.5</v>
@@ -35259,10 +35259,10 @@
         <v>74.7</v>
       </c>
       <c r="AX87" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="AY87" t="n" s="10">
-        <v>72.9</v>
+        <v>72.7</v>
       </c>
       <c r="AZ87" t="n" s="10">
         <v>68.5</v>
@@ -35271,52 +35271,52 @@
         <v>65.3</v>
       </c>
       <c r="BB87" t="n" s="10">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="BC87" t="n" s="10">
-        <v>70.5</v>
+        <v>70.3</v>
       </c>
       <c r="BD87" t="n" s="10">
-        <v>73.5</v>
+        <v>73.6</v>
       </c>
       <c r="BE87" t="n" s="10">
-        <v>77.1</v>
+        <v>77.0</v>
       </c>
       <c r="BF87" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="BG87" t="n" s="10">
-        <v>69.0</v>
+        <v>68.9</v>
       </c>
       <c r="BH87" t="n" s="10">
         <v>81.4</v>
       </c>
       <c r="BI87" t="n" s="10">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="BJ87" t="n" s="10">
         <v>82.8</v>
       </c>
       <c r="BK87" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="BL87" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="BM87" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="BN87" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="BO87" t="n" s="10">
-        <v>83.5</v>
+        <v>83.7</v>
       </c>
       <c r="BP87" t="n" s="10">
-        <v>86.0</v>
+        <v>85.9</v>
       </c>
       <c r="BQ87" t="n" s="10">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="BR87" t="n" s="10">
         <v>78.8</v>
@@ -35340,13 +35340,13 @@
         <v>89.9</v>
       </c>
       <c r="BY87" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="BZ87" t="n" s="10">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="CA87" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="CB87" t="n" s="10">
         <v>96.6</v>
@@ -35358,52 +35358,52 @@
         <v>105.2</v>
       </c>
       <c r="CE87" t="n" s="10">
+        <v>87.4</v>
+      </c>
+      <c r="CF87" t="n" s="10">
         <v>87.5</v>
-      </c>
-      <c r="CF87" t="n" s="10">
-        <v>87.4</v>
       </c>
       <c r="CG87" t="n" s="10">
         <v>103.3</v>
       </c>
       <c r="CH87" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="CI87" t="n" s="10">
-        <v>95.6</v>
+        <v>95.7</v>
       </c>
       <c r="CJ87" t="n" s="10">
         <v>106.1</v>
       </c>
       <c r="CK87" t="n" s="10">
-        <v>98.7</v>
+        <v>98.6</v>
       </c>
       <c r="CL87" t="n" s="10">
-        <v>96.2</v>
+        <v>96.4</v>
       </c>
       <c r="CM87" t="n" s="10">
-        <v>109.9</v>
+        <v>109.7</v>
       </c>
       <c r="CN87" t="n" s="10">
         <v>94.9</v>
       </c>
       <c r="CO87" t="n" s="10">
-        <v>105.9</v>
+        <v>105.8</v>
       </c>
       <c r="CP87" t="n" s="10">
         <v>91.7</v>
       </c>
       <c r="CQ87" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="CR87" t="n" s="10">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="CS87" t="n" s="10">
         <v>86.6</v>
       </c>
       <c r="CT87" t="n" s="10">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="CU87" t="n" s="10">
         <v>86.1</v>
@@ -35415,7 +35415,7 @@
         <v>76.7</v>
       </c>
       <c r="CX87" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="CY87" t="n" s="10">
         <v>70.8</v>
@@ -35427,7 +35427,7 @@
         <v>68.1</v>
       </c>
       <c r="DB87" t="n" s="10">
-        <v>76.0</v>
+        <v>75.9</v>
       </c>
       <c r="DC87" t="n" s="10">
         <v>78.7</v>
@@ -35436,49 +35436,49 @@
         <v>75.2</v>
       </c>
       <c r="DE87" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="DF87" t="n" s="10">
-        <v>79.7</v>
+        <v>79.6</v>
       </c>
       <c r="DG87" t="n" s="10">
         <v>81.0</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="DI87" t="n" s="10">
         <v>78.7</v>
       </c>
       <c r="DJ87" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DL87" t="n" s="10">
-        <v>76.3</v>
+        <v>76.4</v>
       </c>
       <c r="DM87" t="n" s="10">
-        <v>84.2</v>
+        <v>84.0</v>
       </c>
       <c r="DN87" t="n" s="10">
         <v>84.1</v>
       </c>
       <c r="DO87" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="DP87" t="n" s="10">
-        <v>77.6</v>
+        <v>77.5</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>82.9</v>
+        <v>82.8</v>
       </c>
       <c r="DR87" t="n" s="10">
         <v>80.5</v>
       </c>
       <c r="DS87" t="n" s="10">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="DT87" t="n" s="10">
         <v>89.7</v>
@@ -35493,28 +35493,28 @@
         <v>85.5</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>93.9</v>
+        <v>93.7</v>
       </c>
       <c r="DY87" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="DZ87" t="n" s="10">
-        <v>87.0</v>
+        <v>87.1</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="EB87" t="n" s="10">
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="EC87" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="ED87" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="88">
@@ -35935,7 +35935,7 @@
         <v>99.7</v>
       </c>
       <c r="E89" t="n" s="10">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="F89" t="n" s="10">
         <v>94.1</v>
@@ -35965,7 +35965,7 @@
         <v>103.0</v>
       </c>
       <c r="O89" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="P89" t="n" s="10">
         <v>101.1</v>
@@ -35980,7 +35980,7 @@
         <v>103.9</v>
       </c>
       <c r="T89" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="U89" t="n" s="10">
         <v>107.5</v>
@@ -36007,7 +36007,7 @@
         <v>92.8</v>
       </c>
       <c r="AC89" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="AD89" t="n" s="10">
         <v>81.3</v>
@@ -36019,10 +36019,10 @@
         <v>94.4</v>
       </c>
       <c r="AG89" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AH89" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="AI89" t="n" s="10">
         <v>89.2</v>
@@ -36031,7 +36031,7 @@
         <v>90.9</v>
       </c>
       <c r="AK89" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="AL89" t="n" s="10">
         <v>88.8</v>
@@ -36046,7 +36046,7 @@
         <v>98.6</v>
       </c>
       <c r="AP89" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="AQ89" t="n" s="10">
         <v>90.4</v>
@@ -36073,25 +36073,25 @@
         <v>85.6</v>
       </c>
       <c r="AY89" t="n" s="10">
-        <v>85.6</v>
+        <v>85.5</v>
       </c>
       <c r="AZ89" t="n" s="10">
         <v>86.8</v>
       </c>
       <c r="BA89" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BB89" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="BC89" t="n" s="10">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="BD89" t="n" s="10">
         <v>89.9</v>
       </c>
       <c r="BE89" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="BF89" t="n" s="10">
         <v>76.3</v>
@@ -36103,13 +36103,13 @@
         <v>94.7</v>
       </c>
       <c r="BI89" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="BJ89" t="n" s="10">
         <v>87.5</v>
       </c>
       <c r="BK89" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="BL89" t="n" s="10">
         <v>87.8</v>
@@ -36127,10 +36127,10 @@
         <v>78.5</v>
       </c>
       <c r="BQ89" t="n" s="10">
-        <v>93.4</v>
+        <v>93.5</v>
       </c>
       <c r="BR89" t="n" s="10">
-        <v>94.0</v>
+        <v>94.1</v>
       </c>
       <c r="BS89" t="n" s="10">
         <v>83.4</v>
@@ -36157,7 +36157,7 @@
         <v>98.3</v>
       </c>
       <c r="CA89" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="CB89" t="n" s="10">
         <v>98.7</v>
@@ -36172,7 +36172,7 @@
         <v>96.6</v>
       </c>
       <c r="CF89" t="n" s="10">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="CG89" t="n" s="10">
         <v>95.4</v>
@@ -36181,22 +36181,22 @@
         <v>95.5</v>
       </c>
       <c r="CI89" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CJ89" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="CK89" t="n" s="10">
         <v>98.5</v>
       </c>
       <c r="CL89" t="n" s="10">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="CM89" t="n" s="10">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="CN89" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
       <c r="CO89" t="n" s="10">
         <v>97.0</v>
@@ -36226,16 +36226,16 @@
         <v>93.7</v>
       </c>
       <c r="CX89" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="CY89" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CZ89" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="DA89" t="n" s="10">
-        <v>98.5</v>
+        <v>98.6</v>
       </c>
       <c r="DB89" t="n" s="10">
         <v>97.1</v>
@@ -36247,7 +36247,7 @@
         <v>103.2</v>
       </c>
       <c r="DE89" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DF89" t="n" s="10">
         <v>106.7</v>
@@ -36271,7 +36271,7 @@
         <v>97.3</v>
       </c>
       <c r="DM89" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="DN89" t="n" s="10">
         <v>99.6</v>
@@ -36307,7 +36307,7 @@
         <v>100.2</v>
       </c>
       <c r="DY89" t="n" s="10">
-        <v>105.9</v>
+        <v>106.0</v>
       </c>
       <c r="DZ89" t="n" s="10">
         <v>102.5</v>
@@ -36316,13 +36316,13 @@
         <v>81.4</v>
       </c>
       <c r="EB89" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="EC89" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="ED89" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="EE89" t="n" s="10">
         <v>98.9</v>
@@ -36767,7 +36767,7 @@
         <v>92.1</v>
       </c>
       <c r="L91" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="M91" t="n" s="10">
         <v>87.5</v>
@@ -36779,13 +36779,13 @@
         <v>89.2</v>
       </c>
       <c r="P91" t="n" s="10">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="Q91" t="n" s="10">
         <v>90.5</v>
       </c>
       <c r="R91" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="S91" t="n" s="10">
         <v>94.0</v>
@@ -36824,16 +36824,16 @@
         <v>83.4</v>
       </c>
       <c r="AE91" t="n" s="10">
-        <v>81.9</v>
+        <v>81.8</v>
       </c>
       <c r="AF91" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="AG91" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="AH91" t="n" s="10">
-        <v>87.6</v>
+        <v>87.7</v>
       </c>
       <c r="AI91" t="n" s="10">
         <v>81.4</v>
@@ -36845,7 +36845,7 @@
         <v>80.2</v>
       </c>
       <c r="AL91" t="n" s="10">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="AM91" t="n" s="10">
         <v>80.7</v>
@@ -36881,10 +36881,10 @@
         <v>76.1</v>
       </c>
       <c r="AX91" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="AY91" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AZ91" t="n" s="10">
         <v>76.5</v>
@@ -36893,22 +36893,22 @@
         <v>74.6</v>
       </c>
       <c r="BB91" t="n" s="10">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="BC91" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="BD91" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BE91" t="n" s="10">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="BF91" t="n" s="10">
         <v>80.2</v>
       </c>
       <c r="BG91" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="BH91" t="n" s="10">
         <v>78.2</v>
@@ -36929,7 +36929,7 @@
         <v>79.5</v>
       </c>
       <c r="BN91" t="n" s="10">
-        <v>79.9</v>
+        <v>80.0</v>
       </c>
       <c r="BO91" t="n" s="10">
         <v>80.3</v>
@@ -36941,7 +36941,7 @@
         <v>84.5</v>
       </c>
       <c r="BR91" t="n" s="10">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="BS91" t="n" s="10">
         <v>80.2</v>
@@ -36983,7 +36983,7 @@
         <v>88.6</v>
       </c>
       <c r="CF91" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="CG91" t="n" s="10">
         <v>101.6</v>
@@ -37001,16 +37001,16 @@
         <v>90.1</v>
       </c>
       <c r="CL91" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CM91" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CN91" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="CO91" t="n" s="10">
-        <v>85.9</v>
+        <v>86.0</v>
       </c>
       <c r="CP91" t="n" s="10">
         <v>95.4</v>
@@ -37025,7 +37025,7 @@
         <v>81.7</v>
       </c>
       <c r="CT91" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="CU91" t="n" s="10">
         <v>84.2</v>
@@ -37037,10 +37037,10 @@
         <v>85.2</v>
       </c>
       <c r="CX91" t="n" s="10">
-        <v>84.3</v>
+        <v>84.4</v>
       </c>
       <c r="CY91" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="CZ91" t="n" s="10">
         <v>88.8</v>
@@ -37067,7 +37067,7 @@
         <v>93.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DI91" t="n" s="10">
         <v>92.7</v>
@@ -37076,31 +37076,31 @@
         <v>90.6</v>
       </c>
       <c r="DK91" t="n" s="10">
-        <v>84.1</v>
+        <v>84.2</v>
       </c>
       <c r="DL91" t="n" s="10">
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="DN91" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>87.6</v>
       </c>
       <c r="DQ91" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="DR91" t="n" s="10">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>85.6</v>
@@ -37115,7 +37115,7 @@
         <v>88.8</v>
       </c>
       <c r="DX91" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="DY91" t="n" s="10">
         <v>87.8</v>
@@ -37124,7 +37124,7 @@
         <v>94.5</v>
       </c>
       <c r="EA91" t="n" s="10">
-        <v>90.1</v>
+        <v>90.2</v>
       </c>
       <c r="EB91" t="n" s="10">
         <v>90.7</v>
@@ -37234,7 +37234,7 @@
         <v>108.2</v>
       </c>
       <c r="AG92" t="n" s="10">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="AH92" t="n" s="10">
         <v>112.5</v>
@@ -37261,13 +37261,13 @@
         <v>101.7</v>
       </c>
       <c r="AP92" t="n" s="10">
-        <v>105.1</v>
+        <v>105.0</v>
       </c>
       <c r="AQ92" t="n" s="10">
         <v>102.3</v>
       </c>
       <c r="AR92" t="n" s="10">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AS92" t="n" s="10">
         <v>98.8</v>
@@ -37288,7 +37288,7 @@
         <v>95.1</v>
       </c>
       <c r="AY92" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AZ92" t="n" s="10">
         <v>95.9</v>
@@ -37297,7 +37297,7 @@
         <v>93.5</v>
       </c>
       <c r="BB92" t="n" s="10">
-        <v>90.3</v>
+        <v>90.4</v>
       </c>
       <c r="BC92" t="n" s="10">
         <v>93.6</v>
@@ -37336,10 +37336,10 @@
         <v>98.9</v>
       </c>
       <c r="BO92" t="n" s="10">
-        <v>97.9</v>
+        <v>98.0</v>
       </c>
       <c r="BP92" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="BQ92" t="n" s="10">
         <v>102.3</v>
@@ -37360,7 +37360,7 @@
         <v>101.4</v>
       </c>
       <c r="BW92" t="n" s="10">
-        <v>97.6</v>
+        <v>97.7</v>
       </c>
       <c r="BX92" t="n" s="10">
         <v>102.4</v>
@@ -37369,7 +37369,7 @@
         <v>103.5</v>
       </c>
       <c r="BZ92" t="n" s="10">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="CA92" t="n" s="10">
         <v>104.5</v>
@@ -37390,10 +37390,10 @@
         <v>104.5</v>
       </c>
       <c r="CG92" t="n" s="10">
-        <v>130.6</v>
+        <v>130.5</v>
       </c>
       <c r="CH92" t="n" s="10">
-        <v>121.1</v>
+        <v>121.0</v>
       </c>
       <c r="CI92" t="n" s="10">
         <v>107.0</v>
@@ -37420,7 +37420,7 @@
         <v>106.6</v>
       </c>
       <c r="CQ92" t="n" s="10">
-        <v>93.0</v>
+        <v>93.1</v>
       </c>
       <c r="CR92" t="n" s="10">
         <v>94.3</v>
@@ -37465,7 +37465,7 @@
         <v>98.6</v>
       </c>
       <c r="DF92" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DG92" t="n" s="10">
         <v>103.0</v>
@@ -37486,7 +37486,7 @@
         <v>96.2</v>
       </c>
       <c r="DM92" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DN92" t="n" s="10">
         <v>89.8</v>
@@ -37504,7 +37504,7 @@
         <v>95.1</v>
       </c>
       <c r="DS92" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DT92" t="n" s="10">
         <v>92.6</v>
@@ -37519,7 +37519,7 @@
         <v>95.3</v>
       </c>
       <c r="DX92" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DY92" t="n" s="10">
         <v>93.7</v>
@@ -37531,7 +37531,7 @@
         <v>95.9</v>
       </c>
       <c r="EB92" t="n" s="10">
-        <v>96.2</v>
+        <v>96.1</v>
       </c>
       <c r="EC92" t="n" s="10">
         <v>92.3</v>
@@ -37557,55 +37557,55 @@
         <v>79.9</v>
       </c>
       <c r="E93" t="n" s="10">
-        <v>81.4</v>
+        <v>81.5</v>
       </c>
       <c r="F93" t="n" s="10">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="G93" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="H93" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="I93" t="n" s="10">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="J93" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="K93" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="L93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="M93" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="N93" t="n" s="10">
         <v>82.6</v>
       </c>
       <c r="O93" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="P93" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="Q93" t="n" s="10">
         <v>88.6</v>
       </c>
       <c r="R93" t="n" s="10">
-        <v>83.3</v>
+        <v>83.4</v>
       </c>
       <c r="S93" t="n" s="10">
         <v>85.8</v>
       </c>
       <c r="T93" t="n" s="10">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="U93" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="V93" t="n" s="10">
         <v>82.0</v>
@@ -37620,10 +37620,10 @@
         <v>84.6</v>
       </c>
       <c r="Z93" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="AA93" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="AB93" t="n" s="10">
         <v>86.0</v>
@@ -37632,16 +37632,16 @@
         <v>81.5</v>
       </c>
       <c r="AD93" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="AE93" t="n" s="10">
         <v>79.6</v>
       </c>
       <c r="AF93" t="n" s="10">
-        <v>77.0</v>
+        <v>76.9</v>
       </c>
       <c r="AG93" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AH93" t="n" s="10">
         <v>88.0</v>
@@ -37650,25 +37650,25 @@
         <v>77.5</v>
       </c>
       <c r="AJ93" t="n" s="10">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="AK93" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="AL93" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="AM93" t="n" s="10">
         <v>79.2</v>
       </c>
       <c r="AN93" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="AO93" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="AP93" t="n" s="10">
-        <v>84.9</v>
+        <v>84.7</v>
       </c>
       <c r="AQ93" t="n" s="10">
         <v>79.8</v>
@@ -37689,31 +37689,31 @@
         <v>77.7</v>
       </c>
       <c r="AW93" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="AX93" t="n" s="10">
-        <v>76.7</v>
+        <v>76.6</v>
       </c>
       <c r="AY93" t="n" s="10">
-        <v>73.0</v>
+        <v>72.9</v>
       </c>
       <c r="AZ93" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="BA93" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BB93" t="n" s="10">
-        <v>70.3</v>
+        <v>70.4</v>
       </c>
       <c r="BC93" t="n" s="10">
-        <v>75.1</v>
+        <v>74.9</v>
       </c>
       <c r="BD93" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="BE93" t="n" s="10">
-        <v>74.2</v>
+        <v>74.1</v>
       </c>
       <c r="BF93" t="n" s="10">
         <v>84.1</v>
@@ -37725,34 +37725,34 @@
         <v>80.9</v>
       </c>
       <c r="BI93" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="BJ93" t="n" s="10">
         <v>78.3</v>
       </c>
       <c r="BK93" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="BL93" t="n" s="10">
-        <v>81.1</v>
+        <v>81.0</v>
       </c>
       <c r="BM93" t="n" s="10">
         <v>82.3</v>
       </c>
       <c r="BN93" t="n" s="10">
-        <v>83.1</v>
+        <v>83.0</v>
       </c>
       <c r="BO93" t="n" s="10">
+        <v>82.7</v>
+      </c>
+      <c r="BP93" t="n" s="10">
         <v>82.5</v>
-      </c>
-      <c r="BP93" t="n" s="10">
-        <v>82.6</v>
       </c>
       <c r="BQ93" t="n" s="10">
         <v>92.2</v>
       </c>
       <c r="BR93" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="BS93" t="n" s="10">
         <v>82.3</v>
@@ -37776,25 +37776,25 @@
         <v>87.8</v>
       </c>
       <c r="BZ93" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="CA93" t="n" s="10">
-        <v>91.0</v>
+        <v>91.1</v>
       </c>
       <c r="CB93" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="CC93" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="CD93" t="n" s="10">
         <v>88.9</v>
       </c>
       <c r="CE93" t="n" s="10">
-        <v>95.4</v>
+        <v>95.3</v>
       </c>
       <c r="CF93" t="n" s="10">
-        <v>93.7</v>
+        <v>93.9</v>
       </c>
       <c r="CG93" t="n" s="10">
         <v>105.8</v>
@@ -37803,31 +37803,31 @@
         <v>88.5</v>
       </c>
       <c r="CI93" t="n" s="10">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="CJ93" t="n" s="10">
-        <v>95.5</v>
+        <v>95.4</v>
       </c>
       <c r="CK93" t="n" s="10">
         <v>95.0</v>
       </c>
       <c r="CL93" t="n" s="10">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="CM93" t="n" s="10">
-        <v>86.9</v>
+        <v>86.8</v>
       </c>
       <c r="CN93" t="n" s="10">
-        <v>85.8</v>
+        <v>85.9</v>
       </c>
       <c r="CO93" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="CP93" t="n" s="10">
         <v>137.4</v>
       </c>
       <c r="CQ93" t="n" s="10">
-        <v>82.1</v>
+        <v>82.2</v>
       </c>
       <c r="CR93" t="n" s="10">
         <v>85.8</v>
@@ -37836,7 +37836,7 @@
         <v>82.2</v>
       </c>
       <c r="CT93" t="n" s="10">
-        <v>92.3</v>
+        <v>92.4</v>
       </c>
       <c r="CU93" t="n" s="10">
         <v>84.8</v>
@@ -37848,16 +37848,16 @@
         <v>90.7</v>
       </c>
       <c r="CX93" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="CY93" t="n" s="10">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="CZ93" t="n" s="10">
         <v>101.1</v>
       </c>
       <c r="DA93" t="n" s="10">
-        <v>107.0</v>
+        <v>107.1</v>
       </c>
       <c r="DB93" t="n" s="10">
         <v>99.3</v>
@@ -37869,10 +37869,10 @@
         <v>99.5</v>
       </c>
       <c r="DE93" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="DF93" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DG93" t="n" s="10">
         <v>100.9</v>
@@ -37884,19 +37884,19 @@
         <v>95.8</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="DM93" t="n" s="10">
-        <v>84.9</v>
+        <v>84.8</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DO93" t="n" s="10">
         <v>88.4</v>
@@ -37908,10 +37908,10 @@
         <v>87.9</v>
       </c>
       <c r="DR93" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="DS93" t="n" s="10">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="DT93" t="n" s="10">
         <v>90.0</v>
@@ -37926,19 +37926,19 @@
         <v>88.8</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>86.2</v>
+        <v>86.0</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>85.1</v>
+        <v>85.2</v>
       </c>
       <c r="DZ93" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="EA93" t="n" s="10">
         <v>89.0</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>95.0</v>
+        <v>94.9</v>
       </c>
       <c r="EC93" t="n" s="10">
         <v>86.9</v>
@@ -37947,7 +37947,7 @@
         <v>89.8</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>92.2</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="94">
@@ -37967,10 +37967,10 @@
         <v>108.2</v>
       </c>
       <c r="G94" t="n" s="10">
-        <v>109.9</v>
+        <v>110.0</v>
       </c>
       <c r="H94" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="I94" t="n" s="10">
         <v>111.7</v>
@@ -37982,10 +37982,10 @@
         <v>114.0</v>
       </c>
       <c r="L94" t="n" s="10">
-        <v>108.3</v>
+        <v>108.4</v>
       </c>
       <c r="M94" t="n" s="10">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="N94" t="n" s="10">
         <v>106.3</v>
@@ -37997,16 +37997,16 @@
         <v>110.8</v>
       </c>
       <c r="Q94" t="n" s="10">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="R94" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="S94" t="n" s="10">
-        <v>110.5</v>
+        <v>110.4</v>
       </c>
       <c r="T94" t="n" s="10">
-        <v>110.9</v>
+        <v>111.0</v>
       </c>
       <c r="U94" t="n" s="10">
         <v>111.7</v>
@@ -38015,7 +38015,7 @@
         <v>105.4</v>
       </c>
       <c r="W94" t="n" s="10">
-        <v>109.7</v>
+        <v>109.8</v>
       </c>
       <c r="X94" t="n" s="10">
         <v>113.0</v>
@@ -38024,7 +38024,7 @@
         <v>109.0</v>
       </c>
       <c r="Z94" t="n" s="10">
-        <v>115.2</v>
+        <v>115.3</v>
       </c>
       <c r="AA94" t="n" s="10">
         <v>107.0</v>
@@ -38036,31 +38036,31 @@
         <v>105.1</v>
       </c>
       <c r="AD94" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AE94" t="n" s="10">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AF94" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="AG94" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AH94" t="n" s="10">
         <v>113.6</v>
       </c>
       <c r="AI94" t="n" s="10">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AJ94" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AK94" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="AL94" t="n" s="10">
-        <v>98.1</v>
+        <v>98.2</v>
       </c>
       <c r="AM94" t="n" s="10">
         <v>102.2</v>
@@ -38072,7 +38072,7 @@
         <v>103.8</v>
       </c>
       <c r="AP94" t="n" s="10">
-        <v>109.9</v>
+        <v>109.8</v>
       </c>
       <c r="AQ94" t="n" s="10">
         <v>103.0</v>
@@ -38096,10 +38096,10 @@
         <v>99.7</v>
       </c>
       <c r="AX94" t="n" s="10">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AY94" t="n" s="10">
-        <v>94.5</v>
+        <v>94.4</v>
       </c>
       <c r="AZ94" t="n" s="10">
         <v>98.0</v>
@@ -38108,16 +38108,16 @@
         <v>95.6</v>
       </c>
       <c r="BB94" t="n" s="10">
-        <v>90.4</v>
+        <v>90.5</v>
       </c>
       <c r="BC94" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="BD94" t="n" s="10">
         <v>102.8</v>
       </c>
       <c r="BE94" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BF94" t="n" s="10">
         <v>108.5</v>
@@ -38126,7 +38126,7 @@
         <v>111.6</v>
       </c>
       <c r="BH94" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="BI94" t="n" s="10">
         <v>102.2</v>
@@ -38135,28 +38135,28 @@
         <v>100.2</v>
       </c>
       <c r="BK94" t="n" s="10">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="BL94" t="n" s="10">
-        <v>103.0</v>
+        <v>102.9</v>
       </c>
       <c r="BM94" t="n" s="10">
         <v>103.9</v>
       </c>
       <c r="BN94" t="n" s="10">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="BO94" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="BP94" t="n" s="10">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="BQ94" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="BR94" t="n" s="10">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="BS94" t="n" s="10">
         <v>101.6</v>
@@ -38195,34 +38195,34 @@
         <v>108.6</v>
       </c>
       <c r="CE94" t="n" s="10">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="CF94" t="n" s="10">
-        <v>111.7</v>
+        <v>111.8</v>
       </c>
       <c r="CG94" t="n" s="10">
-        <v>125.9</v>
+        <v>125.8</v>
       </c>
       <c r="CH94" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="CI94" t="n" s="10">
-        <v>116.2</v>
+        <v>116.3</v>
       </c>
       <c r="CJ94" t="n" s="10">
         <v>112.0</v>
       </c>
       <c r="CK94" t="n" s="10">
-        <v>110.9</v>
+        <v>110.8</v>
       </c>
       <c r="CL94" t="n" s="10">
-        <v>111.4</v>
+        <v>111.6</v>
       </c>
       <c r="CM94" t="n" s="10">
-        <v>101.1</v>
+        <v>101.0</v>
       </c>
       <c r="CN94" t="n" s="10">
-        <v>99.0</v>
+        <v>99.1</v>
       </c>
       <c r="CO94" t="n" s="10">
         <v>101.0</v>
@@ -38234,16 +38234,16 @@
         <v>93.1</v>
       </c>
       <c r="CR94" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="CS94" t="n" s="10">
         <v>92.8</v>
       </c>
       <c r="CT94" t="n" s="10">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="CU94" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="CV94" t="n" s="10">
         <v>103.5</v>
@@ -38255,13 +38255,13 @@
         <v>106.6</v>
       </c>
       <c r="CY94" t="n" s="10">
-        <v>116.0</v>
+        <v>116.1</v>
       </c>
       <c r="CZ94" t="n" s="10">
         <v>113.3</v>
       </c>
       <c r="DA94" t="n" s="10">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="DB94" t="n" s="10">
         <v>111.9</v>
@@ -38273,7 +38273,7 @@
         <v>111.4</v>
       </c>
       <c r="DE94" t="n" s="10">
-        <v>110.8</v>
+        <v>110.7</v>
       </c>
       <c r="DF94" t="n" s="10">
         <v>104.3</v>
@@ -38294,10 +38294,10 @@
         <v>95.1</v>
       </c>
       <c r="DL94" t="n" s="10">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="DM94" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DN94" t="n" s="10">
         <v>100.0</v>
@@ -38312,13 +38312,13 @@
         <v>97.6</v>
       </c>
       <c r="DR94" t="n" s="10">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="DS94" t="n" s="10">
         <v>94.2</v>
       </c>
       <c r="DT94" t="n" s="10">
-        <v>99.1</v>
+        <v>99.0</v>
       </c>
       <c r="DU94" t="n" s="10">
         <v>94.3</v>
@@ -38330,19 +38330,19 @@
         <v>97.6</v>
       </c>
       <c r="DX94" t="n" s="10">
-        <v>94.4</v>
+        <v>94.3</v>
       </c>
       <c r="DY94" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="DZ94" t="n" s="10">
-        <v>98.6</v>
+        <v>98.7</v>
       </c>
       <c r="EA94" t="n" s="10">
         <v>96.3</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="EC94" t="n" s="10">
         <v>93.7</v>
@@ -38351,7 +38351,7 @@
         <v>96.3</v>
       </c>
       <c r="EE94" t="n" s="10">
-        <v>98.6</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="95">
@@ -38416,7 +38416,7 @@
         <v>89.3</v>
       </c>
       <c r="U95" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="V95" t="n" s="10">
         <v>92.3</v>
@@ -38443,7 +38443,7 @@
         <v>88.0</v>
       </c>
       <c r="AD95" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="AE95" t="n" s="10">
         <v>83.1</v>
@@ -38482,7 +38482,7 @@
         <v>80.0</v>
       </c>
       <c r="AQ95" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="AR95" t="n" s="10">
         <v>76.4</v>
@@ -38551,7 +38551,7 @@
         <v>77.8</v>
       </c>
       <c r="BN95" t="n" s="10">
-        <v>78.2</v>
+        <v>78.1</v>
       </c>
       <c r="BO95" t="n" s="10">
         <v>78.8</v>
@@ -38623,7 +38623,7 @@
         <v>85.1</v>
       </c>
       <c r="CL95" t="n" s="10">
-        <v>86.9</v>
+        <v>87.0</v>
       </c>
       <c r="CM95" t="n" s="10">
         <v>82.2</v>
@@ -38755,7 +38755,7 @@
         <v>87.0</v>
       </c>
       <c r="ED95" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="EE95" t="n" s="10">
         <v>95.3</v>
@@ -38778,7 +38778,7 @@
         <v>112.1</v>
       </c>
       <c r="G96" t="n" s="10">
-        <v>111.0</v>
+        <v>111.1</v>
       </c>
       <c r="H96" t="n" s="10">
         <v>121.2</v>
@@ -38817,7 +38817,7 @@
         <v>125.6</v>
       </c>
       <c r="T96" t="n" s="10">
-        <v>113.0</v>
+        <v>113.1</v>
       </c>
       <c r="U96" t="n" s="10">
         <v>114.1</v>
@@ -38841,7 +38841,7 @@
         <v>112.3</v>
       </c>
       <c r="AB96" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="AC96" t="n" s="10">
         <v>112.0</v>
@@ -38907,7 +38907,7 @@
         <v>93.8</v>
       </c>
       <c r="AX96" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="AY96" t="n" s="10">
         <v>94.8</v>
@@ -38961,7 +38961,7 @@
         <v>95.4</v>
       </c>
       <c r="BP96" t="n" s="10">
-        <v>101.0</v>
+        <v>100.9</v>
       </c>
       <c r="BQ96" t="n" s="10">
         <v>96.1</v>
@@ -38979,7 +38979,7 @@
         <v>88.9</v>
       </c>
       <c r="BV96" t="n" s="10">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="BW96" t="n" s="10">
         <v>96.9</v>
@@ -39000,7 +39000,7 @@
         <v>94.3</v>
       </c>
       <c r="CC96" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="CD96" t="n" s="10">
         <v>97.3</v>
@@ -39027,10 +39027,10 @@
         <v>96.2</v>
       </c>
       <c r="CL96" t="n" s="10">
-        <v>97.5</v>
+        <v>97.6</v>
       </c>
       <c r="CM96" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="CN96" t="n" s="10">
         <v>100.2</v>
@@ -39057,7 +39057,7 @@
         <v>89.6</v>
       </c>
       <c r="CV96" t="n" s="10">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="CW96" t="n" s="10">
         <v>87.7</v>
@@ -39126,7 +39126,7 @@
         <v>91.8</v>
       </c>
       <c r="DS96" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="DT96" t="n" s="10">
         <v>88.8</v>
@@ -39156,7 +39156,7 @@
         <v>92.6</v>
       </c>
       <c r="EC96" t="n" s="10">
-        <v>90.9</v>
+        <v>91.0</v>
       </c>
       <c r="ED96" t="n" s="10">
         <v>99.1</v>
@@ -39188,7 +39188,7 @@
         <v>69.7</v>
       </c>
       <c r="H97" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="I97" t="n" s="10">
         <v>80.4</v>
@@ -39200,7 +39200,7 @@
         <v>74.6</v>
       </c>
       <c r="L97" t="n" s="10">
-        <v>74.5</v>
+        <v>74.6</v>
       </c>
       <c r="M97" t="n" s="10">
         <v>74.8</v>
@@ -39218,13 +39218,13 @@
         <v>85.0</v>
       </c>
       <c r="R97" t="n" s="10">
-        <v>83.8</v>
+        <v>83.9</v>
       </c>
       <c r="S97" t="n" s="10">
-        <v>89.6</v>
+        <v>89.5</v>
       </c>
       <c r="T97" t="n" s="10">
-        <v>76.2</v>
+        <v>76.3</v>
       </c>
       <c r="U97" t="n" s="10">
         <v>78.0</v>
@@ -39257,19 +39257,19 @@
         <v>76.8</v>
       </c>
       <c r="AE97" t="n" s="10">
-        <v>75.0</v>
+        <v>75.1</v>
       </c>
       <c r="AF97" t="n" s="10">
         <v>85.1</v>
       </c>
       <c r="AG97" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="AH97" t="n" s="10">
         <v>79.8</v>
       </c>
       <c r="AI97" t="n" s="10">
-        <v>72.7</v>
+        <v>72.8</v>
       </c>
       <c r="AJ97" t="n" s="10">
         <v>75.9</v>
@@ -39278,7 +39278,7 @@
         <v>71.6</v>
       </c>
       <c r="AL97" t="n" s="10">
-        <v>74.3</v>
+        <v>74.4</v>
       </c>
       <c r="AM97" t="n" s="10">
         <v>69.2</v>
@@ -39296,7 +39296,7 @@
         <v>67.5</v>
       </c>
       <c r="AR97" t="n" s="10">
-        <v>63.0</v>
+        <v>63.1</v>
       </c>
       <c r="AS97" t="n" s="10">
         <v>65.6</v>
@@ -39317,7 +39317,7 @@
         <v>63.8</v>
       </c>
       <c r="AY97" t="n" s="10">
-        <v>69.6</v>
+        <v>69.5</v>
       </c>
       <c r="AZ97" t="n" s="10">
         <v>67.2</v>
@@ -39326,16 +39326,16 @@
         <v>63.8</v>
       </c>
       <c r="BB97" t="n" s="10">
-        <v>65.2</v>
+        <v>65.3</v>
       </c>
       <c r="BC97" t="n" s="10">
-        <v>67.1</v>
+        <v>67.0</v>
       </c>
       <c r="BD97" t="n" s="10">
         <v>65.8</v>
       </c>
       <c r="BE97" t="n" s="10">
-        <v>67.4</v>
+        <v>67.3</v>
       </c>
       <c r="BF97" t="n" s="10">
         <v>66.4</v>
@@ -39353,7 +39353,7 @@
         <v>71.1</v>
       </c>
       <c r="BK97" t="n" s="10">
-        <v>68.3</v>
+        <v>68.2</v>
       </c>
       <c r="BL97" t="n" s="10">
         <v>68.8</v>
@@ -39368,13 +39368,13 @@
         <v>73.3</v>
       </c>
       <c r="BP97" t="n" s="10">
-        <v>78.4</v>
+        <v>78.3</v>
       </c>
       <c r="BQ97" t="n" s="10">
         <v>74.2</v>
       </c>
       <c r="BR97" t="n" s="10">
-        <v>79.0</v>
+        <v>79.1</v>
       </c>
       <c r="BS97" t="n" s="10">
         <v>69.2</v>
@@ -39398,7 +39398,7 @@
         <v>84.9</v>
       </c>
       <c r="BZ97" t="n" s="10">
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="CA97" t="n" s="10">
         <v>82.1</v>
@@ -39407,7 +39407,7 @@
         <v>76.3</v>
       </c>
       <c r="CC97" t="n" s="10">
-        <v>83.0</v>
+        <v>83.1</v>
       </c>
       <c r="CD97" t="n" s="10">
         <v>75.7</v>
@@ -39416,7 +39416,7 @@
         <v>77.5</v>
       </c>
       <c r="CF97" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="CG97" t="n" s="10">
         <v>75.2</v>
@@ -39425,7 +39425,7 @@
         <v>86.5</v>
       </c>
       <c r="CI97" t="n" s="10">
-        <v>79.8</v>
+        <v>79.9</v>
       </c>
       <c r="CJ97" t="n" s="10">
         <v>86.2</v>
@@ -39434,13 +39434,13 @@
         <v>78.8</v>
       </c>
       <c r="CL97" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="CM97" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="CN97" t="n" s="10">
-        <v>81.3</v>
+        <v>81.4</v>
       </c>
       <c r="CO97" t="n" s="10">
         <v>73.2</v>
@@ -39449,7 +39449,7 @@
         <v>83.6</v>
       </c>
       <c r="CQ97" t="n" s="10">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="CR97" t="n" s="10">
         <v>77.6</v>
@@ -39458,7 +39458,7 @@
         <v>83.1</v>
       </c>
       <c r="CT97" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="CU97" t="n" s="10">
         <v>80.1</v>
@@ -39473,7 +39473,7 @@
         <v>71.0</v>
       </c>
       <c r="CY97" t="n" s="10">
-        <v>78.7</v>
+        <v>78.8</v>
       </c>
       <c r="CZ97" t="n" s="10">
         <v>77.5</v>
@@ -39500,7 +39500,7 @@
         <v>82.9</v>
       </c>
       <c r="DH97" t="n" s="10">
-        <v>81.6</v>
+        <v>81.7</v>
       </c>
       <c r="DI97" t="n" s="10">
         <v>80.9</v>
@@ -39530,10 +39530,10 @@
         <v>94.2</v>
       </c>
       <c r="DR97" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="DS97" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="DT97" t="n" s="10">
         <v>85.9</v>
@@ -39548,13 +39548,13 @@
         <v>96.7</v>
       </c>
       <c r="DX97" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="DY97" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="DZ97" t="n" s="10">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="EA97" t="n" s="10">
         <v>95.0</v>
@@ -39569,7 +39569,7 @@
         <v>97.1</v>
       </c>
       <c r="EE97" t="n" s="10">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="98">
@@ -39990,16 +39990,16 @@
         <v>110.8</v>
       </c>
       <c r="E99" t="n" s="10">
-        <v>127.9</v>
+        <v>127.8</v>
       </c>
       <c r="F99" t="n" s="10">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="G99" t="n" s="10">
         <v>112.5</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="I99" t="n" s="10">
         <v>116.6</v>
@@ -40020,7 +40020,7 @@
         <v>115.0</v>
       </c>
       <c r="O99" t="n" s="10">
-        <v>116.0</v>
+        <v>115.9</v>
       </c>
       <c r="P99" t="n" s="10">
         <v>113.4</v>
@@ -40032,13 +40032,13 @@
         <v>116.5</v>
       </c>
       <c r="S99" t="n" s="10">
-        <v>111.3</v>
+        <v>111.4</v>
       </c>
       <c r="T99" t="n" s="10">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="U99" t="n" s="10">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="V99" t="n" s="10">
         <v>107.1</v>
@@ -40074,7 +40074,7 @@
         <v>92.7</v>
       </c>
       <c r="AG99" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="AH99" t="n" s="10">
         <v>97.6</v>
@@ -40086,10 +40086,10 @@
         <v>91.7</v>
       </c>
       <c r="AK99" t="n" s="10">
-        <v>92.6</v>
+        <v>92.7</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AM99" t="n" s="10">
         <v>97.7</v>
@@ -40101,16 +40101,16 @@
         <v>86.2</v>
       </c>
       <c r="AP99" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="AQ99" t="n" s="10">
         <v>97.2</v>
       </c>
       <c r="AR99" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="AS99" t="n" s="10">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="AT99" t="n" s="10">
         <v>87.6</v>
@@ -40125,46 +40125,46 @@
         <v>89.5</v>
       </c>
       <c r="AX99" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="AY99" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="AZ99" t="n" s="10">
         <v>89.1</v>
       </c>
       <c r="BA99" t="n" s="10">
-        <v>89.6</v>
+        <v>89.7</v>
       </c>
       <c r="BB99" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="BC99" t="n" s="10">
-        <v>84.5</v>
+        <v>84.6</v>
       </c>
       <c r="BD99" t="n" s="10">
         <v>87.5</v>
       </c>
       <c r="BE99" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="BF99" t="n" s="10">
         <v>93.1</v>
       </c>
       <c r="BG99" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="BH99" t="n" s="10">
-        <v>88.8</v>
+        <v>88.9</v>
       </c>
       <c r="BI99" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="BJ99" t="n" s="10">
         <v>91.3</v>
       </c>
       <c r="BK99" t="n" s="10">
-        <v>89.8</v>
+        <v>89.9</v>
       </c>
       <c r="BL99" t="n" s="10">
         <v>85.6</v>
@@ -40173,13 +40173,13 @@
         <v>88.3</v>
       </c>
       <c r="BN99" t="n" s="10">
-        <v>86.6</v>
+        <v>86.7</v>
       </c>
       <c r="BO99" t="n" s="10">
-        <v>85.0</v>
+        <v>84.9</v>
       </c>
       <c r="BP99" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="BQ99" t="n" s="10">
         <v>85.6</v>
@@ -40191,7 +40191,7 @@
         <v>89.5</v>
       </c>
       <c r="BT99" t="n" s="10">
-        <v>83.5</v>
+        <v>83.4</v>
       </c>
       <c r="BU99" t="n" s="10">
         <v>83.8</v>
@@ -40209,7 +40209,7 @@
         <v>89.6</v>
       </c>
       <c r="BZ99" t="n" s="10">
-        <v>88.4</v>
+        <v>88.5</v>
       </c>
       <c r="CA99" t="n" s="10">
         <v>94.3</v>
@@ -40227,16 +40227,16 @@
         <v>88.2</v>
       </c>
       <c r="CF99" t="n" s="10">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="CG99" t="n" s="10">
-        <v>154.7</v>
+        <v>154.8</v>
       </c>
       <c r="CH99" t="n" s="10">
-        <v>148.6</v>
+        <v>148.7</v>
       </c>
       <c r="CI99" t="n" s="10">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="CJ99" t="n" s="10">
         <v>90.7</v>
@@ -40245,10 +40245,10 @@
         <v>91.6</v>
       </c>
       <c r="CL99" t="n" s="10">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>88.5</v>
+        <v>88.6</v>
       </c>
       <c r="CN99" t="n" s="10">
         <v>100.4</v>
@@ -40269,10 +40269,10 @@
         <v>89.2</v>
       </c>
       <c r="CT99" t="n" s="10">
-        <v>89.9</v>
+        <v>89.8</v>
       </c>
       <c r="CU99" t="n" s="10">
-        <v>83.9</v>
+        <v>84.0</v>
       </c>
       <c r="CV99" t="n" s="10">
         <v>96.3</v>
@@ -40284,7 +40284,7 @@
         <v>83.9</v>
       </c>
       <c r="CY99" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="CZ99" t="n" s="10">
         <v>84.9</v>
@@ -40293,19 +40293,19 @@
         <v>94.2</v>
       </c>
       <c r="DB99" t="n" s="10">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="DC99" t="n" s="10">
         <v>92.4</v>
       </c>
       <c r="DD99" t="n" s="10">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="DE99" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="DF99" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="DG99" t="n" s="10">
         <v>95.7</v>
@@ -40326,10 +40326,10 @@
         <v>90.6</v>
       </c>
       <c r="DM99" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>69.1</v>
+        <v>69.2</v>
       </c>
       <c r="DO99" t="n" s="10">
         <v>86.6</v>
@@ -40359,10 +40359,10 @@
         <v>78.3</v>
       </c>
       <c r="DX99" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="DY99" t="n" s="10">
-        <v>91.1</v>
+        <v>91.0</v>
       </c>
       <c r="DZ99" t="n" s="10">
         <v>99.6</v>
@@ -40380,7 +40380,7 @@
         <v>91.8</v>
       </c>
       <c r="EE99" t="n" s="10">
-        <v>91.2</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="100">
@@ -40821,10 +40821,10 @@
         <v>95.4</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>95.0</v>
+        <v>95.1</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>94.5</v>
+        <v>94.6</v>
       </c>
       <c r="L102" t="n" s="10">
         <v>94.1</v>
@@ -40836,7 +40836,7 @@
         <v>92.9</v>
       </c>
       <c r="O102" t="n" s="10">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="P102" t="n" s="10">
         <v>91.6</v>
@@ -40854,7 +40854,7 @@
         <v>89.3</v>
       </c>
       <c r="U102" t="n" s="10">
-        <v>88.6</v>
+        <v>88.7</v>
       </c>
       <c r="V102" t="n" s="10">
         <v>88.0</v>
@@ -40926,7 +40926,7 @@
         <v>74.3</v>
       </c>
       <c r="AS102" t="n" s="10">
-        <v>73.7</v>
+        <v>73.6</v>
       </c>
       <c r="AT102" t="n" s="10">
         <v>73.0</v>
@@ -40962,7 +40962,7 @@
         <v>72.4</v>
       </c>
       <c r="BE102" t="n" s="10">
-        <v>72.9</v>
+        <v>72.8</v>
       </c>
       <c r="BF102" t="n" s="10">
         <v>73.4</v>
@@ -40971,7 +40971,7 @@
         <v>74.0</v>
       </c>
       <c r="BH102" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="BI102" t="n" s="10">
         <v>75.1</v>
@@ -41148,7 +41148,7 @@
         <v>80.1</v>
       </c>
       <c r="DO102" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="DP102" t="n" s="10">
         <v>80.7</v>
@@ -41178,7 +41178,7 @@
         <v>85.0</v>
       </c>
       <c r="DY102" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DZ102" t="n" s="10">
         <v>86.4</v>
@@ -41216,13 +41216,13 @@
         <v>120.8</v>
       </c>
       <c r="G103" t="n" s="10">
-        <v>120.5</v>
+        <v>120.6</v>
       </c>
       <c r="H103" t="n" s="10">
-        <v>120.3</v>
+        <v>120.4</v>
       </c>
       <c r="I103" t="n" s="10">
-        <v>120.0</v>
+        <v>120.1</v>
       </c>
       <c r="J103" t="n" s="10">
         <v>119.7</v>
@@ -41231,13 +41231,13 @@
         <v>119.1</v>
       </c>
       <c r="L103" t="n" s="10">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="M103" t="n" s="10">
         <v>117.9</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>117.2</v>
+        <v>117.3</v>
       </c>
       <c r="O103" t="n" s="10">
         <v>116.5</v>
@@ -41249,7 +41249,7 @@
         <v>115.3</v>
       </c>
       <c r="R103" t="n" s="10">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="S103" t="n" s="10">
         <v>113.9</v>
@@ -41258,10 +41258,10 @@
         <v>113.1</v>
       </c>
       <c r="U103" t="n" s="10">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="V103" t="n" s="10">
-        <v>111.4</v>
+        <v>111.5</v>
       </c>
       <c r="W103" t="n" s="10">
         <v>110.5</v>
@@ -41276,7 +41276,7 @@
         <v>106.9</v>
       </c>
       <c r="AA103" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AB103" t="n" s="10">
         <v>104.4</v>
@@ -41318,7 +41318,7 @@
         <v>97.4</v>
       </c>
       <c r="AO103" t="n" s="10">
-        <v>96.6</v>
+        <v>96.7</v>
       </c>
       <c r="AP103" t="n" s="10">
         <v>95.7</v>
@@ -41333,37 +41333,37 @@
         <v>92.7</v>
       </c>
       <c r="AT103" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="AU103" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="AV103" t="n" s="10">
         <v>90.0</v>
       </c>
       <c r="AW103" t="n" s="10">
-        <v>89.4</v>
+        <v>89.3</v>
       </c>
       <c r="AX103" t="n" s="10">
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="AY103" t="n" s="10">
         <v>88.6</v>
       </c>
       <c r="AZ103" t="n" s="10">
-        <v>88.6</v>
+        <v>88.5</v>
       </c>
       <c r="BA103" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="BB103" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="BC103" t="n" s="10">
         <v>89.5</v>
       </c>
       <c r="BD103" t="n" s="10">
-        <v>90.1</v>
+        <v>90.0</v>
       </c>
       <c r="BE103" t="n" s="10">
         <v>90.6</v>
@@ -41381,10 +41381,10 @@
         <v>93.2</v>
       </c>
       <c r="BJ103" t="n" s="10">
-        <v>93.9</v>
+        <v>93.8</v>
       </c>
       <c r="BK103" t="n" s="10">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="BL103" t="n" s="10">
         <v>94.5</v>
@@ -41411,88 +41411,88 @@
         <v>95.0</v>
       </c>
       <c r="BT103" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="BU103" t="n" s="10">
         <v>95.2</v>
       </c>
-      <c r="BU103" t="n" s="10">
+      <c r="BV103" t="n" s="10">
         <v>95.4</v>
       </c>
-      <c r="BV103" t="n" s="10">
-        <v>95.6</v>
-      </c>
       <c r="BW103" t="n" s="10">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="BX103" t="n" s="10">
         <v>95.8</v>
       </c>
       <c r="BY103" t="n" s="10">
-        <v>95.9</v>
+        <v>96.1</v>
       </c>
       <c r="BZ103" t="n" s="10">
-        <v>96.0</v>
+        <v>96.4</v>
       </c>
       <c r="CA103" t="n" s="10">
-        <v>96.1</v>
+        <v>96.9</v>
       </c>
       <c r="CB103" t="n" s="10">
-        <v>96.3</v>
+        <v>97.3</v>
       </c>
       <c r="CC103" t="n" s="10">
-        <v>96.4</v>
+        <v>97.7</v>
       </c>
       <c r="CD103" t="n" s="10">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
       <c r="CE103" t="n" s="10">
-        <v>96.9</v>
+        <v>98.5</v>
       </c>
       <c r="CF103" t="n" s="10">
-        <v>97.1</v>
+        <v>99.0</v>
       </c>
       <c r="CG103" t="n" s="10">
-        <v>97.3</v>
+        <v>99.3</v>
       </c>
       <c r="CH103" t="n" s="10">
-        <v>97.5</v>
+        <v>99.3</v>
       </c>
       <c r="CI103" t="n" s="10">
-        <v>97.5</v>
+        <v>99.1</v>
       </c>
       <c r="CJ103" t="n" s="10">
-        <v>97.4</v>
+        <v>98.9</v>
       </c>
       <c r="CK103" t="n" s="10">
-        <v>97.2</v>
+        <v>98.4</v>
       </c>
       <c r="CL103" t="n" s="10">
-        <v>96.7</v>
+        <v>97.7</v>
       </c>
       <c r="CM103" t="n" s="10">
-        <v>96.1</v>
+        <v>96.8</v>
       </c>
       <c r="CN103" t="n" s="10">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="CO103" t="n" s="10">
-        <v>94.4</v>
+        <v>94.6</v>
       </c>
       <c r="CP103" t="n" s="10">
         <v>93.2</v>
       </c>
       <c r="CQ103" t="n" s="10">
-        <v>92.0</v>
+        <v>91.8</v>
       </c>
       <c r="CR103" t="n" s="10">
-        <v>90.7</v>
+        <v>90.4</v>
       </c>
       <c r="CS103" t="n" s="10">
-        <v>89.6</v>
+        <v>89.3</v>
       </c>
       <c r="CT103" t="n" s="10">
-        <v>88.6</v>
+        <v>88.4</v>
       </c>
       <c r="CU103" t="n" s="10">
-        <v>87.8</v>
+        <v>87.9</v>
       </c>
       <c r="CV103" t="n" s="10">
         <v>87.3</v>
@@ -41546,7 +41546,7 @@
         <v>88.4</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>88.2</v>
+        <v>88.1</v>
       </c>
       <c r="DN103" t="n" s="10">
         <v>88.1</v>
@@ -41564,7 +41564,7 @@
         <v>88.8</v>
       </c>
       <c r="DS103" t="n" s="10">
-        <v>89.1</v>
+        <v>89.0</v>
       </c>
       <c r="DT103" t="n" s="10">
         <v>89.4</v>
@@ -41573,7 +41573,7 @@
         <v>89.8</v>
       </c>
       <c r="DV103" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="DW103" t="n" s="10">
         <v>90.6</v>
@@ -41588,16 +41588,16 @@
         <v>92.2</v>
       </c>
       <c r="EA103" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="EB103" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="EC103" t="n" s="10">
         <v>94.0</v>
       </c>
       <c r="ED103" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="EE103" t="n" s="10">
         <v>94.9</v>
@@ -41755,7 +41755,7 @@
         <v>67.9</v>
       </c>
       <c r="AY104" t="n" s="10">
-        <v>67.7</v>
+        <v>67.6</v>
       </c>
       <c r="AZ104" t="n" s="10">
         <v>67.6</v>
@@ -41764,7 +41764,7 @@
         <v>67.6</v>
       </c>
       <c r="BB104" t="n" s="10">
-        <v>67.9</v>
+        <v>67.8</v>
       </c>
       <c r="BC104" t="n" s="10">
         <v>68.1</v>
@@ -41782,7 +41782,7 @@
         <v>69.8</v>
       </c>
       <c r="BH104" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="BI104" t="n" s="10">
         <v>71.3</v>
@@ -41929,7 +41929,7 @@
         <v>70.7</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>71.4</v>
+        <v>71.3</v>
       </c>
       <c r="DF104" t="n" s="10">
         <v>72.2</v>
@@ -41962,7 +41962,7 @@
         <v>75.6</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>76.2</v>
+        <v>76.1</v>
       </c>
       <c r="DQ104" t="n" s="10">
         <v>76.8</v>
@@ -41974,7 +41974,7 @@
         <v>78.2</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>79.2</v>
+        <v>79.1</v>
       </c>
       <c r="DU104" t="n" s="10">
         <v>79.9</v>
@@ -41983,7 +41983,7 @@
         <v>80.6</v>
       </c>
       <c r="DW104" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DX104" t="n" s="10">
         <v>82.3</v>
@@ -42033,7 +42033,7 @@
         <v>126.3</v>
       </c>
       <c r="I105" t="n" s="10">
-        <v>125.3</v>
+        <v>125.4</v>
       </c>
       <c r="J105" t="n" s="10">
         <v>124.2</v>
@@ -42096,7 +42096,7 @@
         <v>98.3</v>
       </c>
       <c r="AD105" t="n" s="10">
-        <v>97.4</v>
+        <v>97.5</v>
       </c>
       <c r="AE105" t="n" s="10">
         <v>96.9</v>
@@ -42105,13 +42105,13 @@
         <v>96.5</v>
       </c>
       <c r="AG105" t="n" s="10">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AH105" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="AI105" t="n" s="10">
-        <v>95.8</v>
+        <v>95.9</v>
       </c>
       <c r="AJ105" t="n" s="10">
         <v>95.4</v>
@@ -42150,16 +42150,16 @@
         <v>86.3</v>
       </c>
       <c r="AV105" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="AW105" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="AX105" t="n" s="10">
-        <v>84.0</v>
+        <v>83.9</v>
       </c>
       <c r="AY105" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="AZ105" t="n" s="10">
         <v>83.4</v>
@@ -42171,7 +42171,7 @@
         <v>83.7</v>
       </c>
       <c r="BC105" t="n" s="10">
-        <v>84.1</v>
+        <v>84.0</v>
       </c>
       <c r="BD105" t="n" s="10">
         <v>84.4</v>
@@ -42186,13 +42186,13 @@
         <v>86.2</v>
       </c>
       <c r="BH105" t="n" s="10">
-        <v>87.1</v>
+        <v>87.0</v>
       </c>
       <c r="BI105" t="n" s="10">
         <v>87.9</v>
       </c>
       <c r="BJ105" t="n" s="10">
-        <v>88.8</v>
+        <v>88.7</v>
       </c>
       <c r="BK105" t="n" s="10">
         <v>89.4</v>
@@ -42228,7 +42228,7 @@
         <v>91.3</v>
       </c>
       <c r="BV105" t="n" s="10">
-        <v>91.5</v>
+        <v>91.6</v>
       </c>
       <c r="BW105" t="n" s="10">
         <v>91.6</v>
@@ -42261,10 +42261,10 @@
         <v>92.1</v>
       </c>
       <c r="CG105" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="CH105" t="n" s="10">
-        <v>92.1</v>
+        <v>92.2</v>
       </c>
       <c r="CI105" t="n" s="10">
         <v>92.2</v>
@@ -42363,37 +42363,37 @@
         <v>82.6</v>
       </c>
       <c r="DO105" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="DP105" t="n" s="10">
         <v>83.4</v>
       </c>
       <c r="DQ105" t="n" s="10">
-        <v>83.9</v>
+        <v>83.8</v>
       </c>
       <c r="DR105" t="n" s="10">
-        <v>84.4</v>
+        <v>84.3</v>
       </c>
       <c r="DS105" t="n" s="10">
         <v>84.9</v>
       </c>
       <c r="DT105" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DU105" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DV105" t="n" s="10">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="DW105" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DX105" t="n" s="10">
         <v>88.2</v>
       </c>
       <c r="DY105" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="DZ105" t="n" s="10">
         <v>89.5</v>
@@ -42411,7 +42411,7 @@
         <v>92.1</v>
       </c>
       <c r="EE105" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="106">
@@ -42431,7 +42431,7 @@
         <v>90.9</v>
       </c>
       <c r="F106" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="G106" t="n" s="10">
         <v>88.2</v>
@@ -42446,10 +42446,10 @@
         <v>84.5</v>
       </c>
       <c r="K106" t="n" s="10">
-        <v>83.1</v>
+        <v>83.2</v>
       </c>
       <c r="L106" t="n" s="10">
-        <v>81.8</v>
+        <v>81.9</v>
       </c>
       <c r="M106" t="n" s="10">
         <v>80.3</v>
@@ -42458,10 +42458,10 @@
         <v>78.6</v>
       </c>
       <c r="O106" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="P106" t="n" s="10">
-        <v>76.0</v>
+        <v>76.1</v>
       </c>
       <c r="Q106" t="n" s="10">
         <v>75.1</v>
@@ -42473,7 +42473,7 @@
         <v>74.0</v>
       </c>
       <c r="T106" t="n" s="10">
-        <v>73.7</v>
+        <v>73.8</v>
       </c>
       <c r="U106" t="n" s="10">
         <v>73.4</v>
@@ -42494,13 +42494,13 @@
         <v>71.6</v>
       </c>
       <c r="AA106" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="AB106" t="n" s="10">
         <v>70.3</v>
       </c>
       <c r="AC106" t="n" s="10">
-        <v>69.8</v>
+        <v>69.9</v>
       </c>
       <c r="AD106" t="n" s="10">
         <v>69.7</v>
@@ -42521,13 +42521,13 @@
         <v>69.0</v>
       </c>
       <c r="AJ106" t="n" s="10">
-        <v>68.6</v>
+        <v>68.7</v>
       </c>
       <c r="AK106" t="n" s="10">
         <v>68.4</v>
       </c>
       <c r="AL106" t="n" s="10">
-        <v>68.0</v>
+        <v>68.1</v>
       </c>
       <c r="AM106" t="n" s="10">
         <v>67.6</v>
@@ -42548,7 +42548,7 @@
         <v>64.2</v>
       </c>
       <c r="AS106" t="n" s="10">
-        <v>63.4</v>
+        <v>63.3</v>
       </c>
       <c r="AT106" t="n" s="10">
         <v>62.4</v>
@@ -42557,10 +42557,10 @@
         <v>61.6</v>
       </c>
       <c r="AV106" t="n" s="10">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="AW106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="AX106" t="n" s="10">
         <v>59.5</v>
@@ -42572,16 +42572,16 @@
         <v>58.5</v>
       </c>
       <c r="BA106" t="n" s="10">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="BB106" t="n" s="10">
         <v>57.8</v>
       </c>
       <c r="BC106" t="n" s="10">
-        <v>57.7</v>
+        <v>57.6</v>
       </c>
       <c r="BD106" t="n" s="10">
-        <v>57.6</v>
+        <v>57.5</v>
       </c>
       <c r="BE106" t="n" s="10">
         <v>57.5</v>
@@ -42590,7 +42590,7 @@
         <v>57.6</v>
       </c>
       <c r="BG106" t="n" s="10">
-        <v>57.9</v>
+        <v>57.8</v>
       </c>
       <c r="BH106" t="n" s="10">
         <v>58.2</v>
@@ -42599,19 +42599,19 @@
         <v>58.7</v>
       </c>
       <c r="BJ106" t="n" s="10">
-        <v>59.3</v>
+        <v>59.2</v>
       </c>
       <c r="BK106" t="n" s="10">
         <v>59.7</v>
       </c>
       <c r="BL106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="BM106" t="n" s="10">
         <v>60.5</v>
       </c>
       <c r="BN106" t="n" s="10">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="BO106" t="n" s="10">
         <v>61.2</v>
@@ -42635,7 +42635,7 @@
         <v>60.6</v>
       </c>
       <c r="BV106" t="n" s="10">
-        <v>60.2</v>
+        <v>60.3</v>
       </c>
       <c r="BW106" t="n" s="10">
         <v>59.9</v>
@@ -42659,19 +42659,19 @@
         <v>57.9</v>
       </c>
       <c r="CD106" t="n" s="10">
-        <v>57.6</v>
+        <v>57.7</v>
       </c>
       <c r="CE106" t="n" s="10">
         <v>57.4</v>
       </c>
       <c r="CF106" t="n" s="10">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="CG106" t="n" s="10">
         <v>56.7</v>
       </c>
       <c r="CH106" t="n" s="10">
-        <v>56.4</v>
+        <v>56.5</v>
       </c>
       <c r="CI106" t="n" s="10">
         <v>56.3</v>
@@ -42698,7 +42698,7 @@
         <v>54.5</v>
       </c>
       <c r="CQ106" t="n" s="10">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="CR106" t="n" s="10">
         <v>54.0</v>
@@ -42710,13 +42710,13 @@
         <v>53.6</v>
       </c>
       <c r="CU106" t="n" s="10">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="CV106" t="n" s="10">
         <v>53.6</v>
       </c>
       <c r="CW106" t="n" s="10">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="CX106" t="n" s="10">
         <v>53.9</v>
@@ -42725,7 +42725,7 @@
         <v>54.1</v>
       </c>
       <c r="CZ106" t="n" s="10">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="DA106" t="n" s="10">
         <v>54.5</v>
@@ -42779,10 +42779,10 @@
         <v>64.0</v>
       </c>
       <c r="DR106" t="n" s="10">
-        <v>65.2</v>
+        <v>65.1</v>
       </c>
       <c r="DS106" t="n" s="10">
-        <v>66.4</v>
+        <v>66.3</v>
       </c>
       <c r="DT106" t="n" s="10">
         <v>67.5</v>
@@ -42791,7 +42791,7 @@
         <v>68.6</v>
       </c>
       <c r="DV106" t="n" s="10">
-        <v>69.7</v>
+        <v>69.6</v>
       </c>
       <c r="DW106" t="n" s="10">
         <v>70.8</v>
@@ -42809,13 +42809,13 @@
         <v>74.0</v>
       </c>
       <c r="EB106" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="EC106" t="n" s="10">
         <v>75.7</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>76.6</v>
+        <v>76.5</v>
       </c>
       <c r="EE106" t="n" s="10">
         <v>77.2</v>
@@ -42829,61 +42829,61 @@
         <v>34</v>
       </c>
       <c r="D107" t="n" s="10">
-        <v>113.1</v>
+        <v>113.8</v>
       </c>
       <c r="E107" t="n" s="10">
-        <v>111.2</v>
+        <v>112.2</v>
       </c>
       <c r="F107" t="n" s="10">
-        <v>109.4</v>
+        <v>110.5</v>
       </c>
       <c r="G107" t="n" s="10">
-        <v>107.7</v>
+        <v>109.0</v>
       </c>
       <c r="H107" t="n" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="I107" t="n" s="10">
         <v>106.1</v>
       </c>
-      <c r="I107" t="n" s="10">
-        <v>104.6</v>
-      </c>
       <c r="J107" t="n" s="10">
-        <v>103.0</v>
+        <v>104.5</v>
       </c>
       <c r="K107" t="n" s="10">
-        <v>101.6</v>
+        <v>102.8</v>
       </c>
       <c r="L107" t="n" s="10">
-        <v>100.2</v>
+        <v>101.3</v>
       </c>
       <c r="M107" t="n" s="10">
-        <v>98.5</v>
+        <v>99.4</v>
       </c>
       <c r="N107" t="n" s="10">
-        <v>96.7</v>
+        <v>97.4</v>
       </c>
       <c r="O107" t="n" s="10">
-        <v>95.2</v>
+        <v>95.7</v>
       </c>
       <c r="P107" t="n" s="10">
-        <v>94.0</v>
+        <v>94.4</v>
       </c>
       <c r="Q107" t="n" s="10">
-        <v>93.1</v>
+        <v>93.2</v>
       </c>
       <c r="R107" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="S107" t="n" s="10">
-        <v>92.1</v>
+        <v>91.9</v>
       </c>
       <c r="T107" t="n" s="10">
-        <v>91.9</v>
+        <v>91.7</v>
       </c>
       <c r="U107" t="n" s="10">
-        <v>91.5</v>
+        <v>91.3</v>
       </c>
       <c r="V107" t="n" s="10">
-        <v>91.2</v>
+        <v>91.1</v>
       </c>
       <c r="W107" t="n" s="10">
         <v>90.8</v>
@@ -42919,7 +42919,7 @@
         <v>86.4</v>
       </c>
       <c r="AH107" t="n" s="10">
-        <v>86.4</v>
+        <v>86.3</v>
       </c>
       <c r="AI107" t="n" s="10">
         <v>86.1</v>
@@ -42937,7 +42937,7 @@
         <v>84.2</v>
       </c>
       <c r="AN107" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="AO107" t="n" s="10">
         <v>82.8</v>
@@ -42946,10 +42946,10 @@
         <v>81.8</v>
       </c>
       <c r="AQ107" t="n" s="10">
-        <v>80.6</v>
+        <v>80.7</v>
       </c>
       <c r="AR107" t="n" s="10">
-        <v>79.5</v>
+        <v>79.6</v>
       </c>
       <c r="AS107" t="n" s="10">
         <v>78.4</v>
@@ -42964,7 +42964,7 @@
         <v>75.1</v>
       </c>
       <c r="AW107" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
       <c r="AX107" t="n" s="10">
         <v>73.3</v>
@@ -42973,19 +42973,19 @@
         <v>72.6</v>
       </c>
       <c r="AZ107" t="n" s="10">
-        <v>72.0</v>
+        <v>72.1</v>
       </c>
       <c r="BA107" t="n" s="10">
         <v>71.7</v>
       </c>
       <c r="BB107" t="n" s="10">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="BC107" t="n" s="10">
         <v>71.1</v>
       </c>
       <c r="BD107" t="n" s="10">
-        <v>71.0</v>
+        <v>71.1</v>
       </c>
       <c r="BE107" t="n" s="10">
         <v>71.0</v>
@@ -43069,7 +43069,7 @@
         <v>66.3</v>
       </c>
       <c r="CF107" t="n" s="10">
-        <v>65.9</v>
+        <v>65.8</v>
       </c>
       <c r="CG107" t="n" s="10">
         <v>65.2</v>
@@ -43102,7 +43102,7 @@
         <v>61.1</v>
       </c>
       <c r="CQ107" t="n" s="10">
-        <v>60.7</v>
+        <v>60.6</v>
       </c>
       <c r="CR107" t="n" s="10">
         <v>60.2</v>
@@ -43159,7 +43159,7 @@
         <v>64.3</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>64.6</v>
+        <v>64.7</v>
       </c>
       <c r="DK107" t="n" s="10">
         <v>64.9</v>
@@ -43195,7 +43195,7 @@
         <v>74.6</v>
       </c>
       <c r="DV107" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="DW107" t="n" s="10">
         <v>76.6</v>
@@ -43257,13 +43257,13 @@
         <v>109.4</v>
       </c>
       <c r="K108" t="n" s="10">
-        <v>108.2</v>
+        <v>108.3</v>
       </c>
       <c r="L108" t="n" s="10">
         <v>107.0</v>
       </c>
       <c r="M108" t="n" s="10">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="N108" t="n" s="10">
         <v>104.2</v>
@@ -43317,7 +43317,7 @@
         <v>82.7</v>
       </c>
       <c r="AE108" t="n" s="10">
-        <v>82.0</v>
+        <v>82.1</v>
       </c>
       <c r="AF108" t="n" s="10">
         <v>81.6</v>
@@ -43389,7 +43389,7 @@
         <v>74.8</v>
       </c>
       <c r="BC108" t="n" s="10">
-        <v>75.4</v>
+        <v>75.3</v>
       </c>
       <c r="BD108" t="n" s="10">
         <v>75.8</v>
@@ -43422,7 +43422,7 @@
         <v>82.8</v>
       </c>
       <c r="BN108" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="BO108" t="n" s="10">
         <v>83.7</v>
@@ -43527,7 +43527,7 @@
         <v>85.3</v>
       </c>
       <c r="CW108" t="n" s="10">
-        <v>83.5</v>
+        <v>83.6</v>
       </c>
       <c r="CX108" t="n" s="10">
         <v>82.2</v>
@@ -43608,7 +43608,7 @@
         <v>88.8</v>
       </c>
       <c r="DX108" t="n" s="10">
-        <v>89.8</v>
+        <v>89.7</v>
       </c>
       <c r="DY108" t="n" s="10">
         <v>90.7</v>
@@ -43649,7 +43649,7 @@
         <v>139.3</v>
       </c>
       <c r="G109" t="n" s="10">
-        <v>139.4</v>
+        <v>139.5</v>
       </c>
       <c r="H109" t="n" s="10">
         <v>139.3</v>
@@ -43664,7 +43664,7 @@
         <v>136.4</v>
       </c>
       <c r="L109" t="n" s="10">
-        <v>134.9</v>
+        <v>135.0</v>
       </c>
       <c r="M109" t="n" s="10">
         <v>133.3</v>
@@ -43700,7 +43700,7 @@
         <v>115.5</v>
       </c>
       <c r="X109" t="n" s="10">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="Y109" t="n" s="10">
         <v>112.2</v>
@@ -43721,7 +43721,7 @@
         <v>104.8</v>
       </c>
       <c r="AE109" t="n" s="10">
-        <v>103.9</v>
+        <v>104.0</v>
       </c>
       <c r="AF109" t="n" s="10">
         <v>103.4</v>
@@ -43745,7 +43745,7 @@
         <v>101.2</v>
       </c>
       <c r="AM109" t="n" s="10">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AN109" t="n" s="10">
         <v>100.2</v>
@@ -43772,10 +43772,10 @@
         <v>93.5</v>
       </c>
       <c r="AV109" t="n" s="10">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AW109" t="n" s="10">
-        <v>92.1</v>
+        <v>92.0</v>
       </c>
       <c r="AX109" t="n" s="10">
         <v>91.4</v>
@@ -43790,16 +43790,16 @@
         <v>91.6</v>
       </c>
       <c r="BB109" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>93.1</v>
+        <v>93.0</v>
       </c>
       <c r="BD109" t="n" s="10">
         <v>93.7</v>
       </c>
       <c r="BE109" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="BF109" t="n" s="10">
         <v>95.3</v>
@@ -43814,7 +43814,7 @@
         <v>98.7</v>
       </c>
       <c r="BJ109" t="n" s="10">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="BK109" t="n" s="10">
         <v>100.5</v>
@@ -43823,7 +43823,7 @@
         <v>101.0</v>
       </c>
       <c r="BM109" t="n" s="10">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="BN109" t="n" s="10">
         <v>101.8</v>
@@ -43895,7 +43895,7 @@
         <v>112.0</v>
       </c>
       <c r="CK109" t="n" s="10">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="CL109" t="n" s="10">
         <v>112.2</v>
@@ -43973,7 +43973,7 @@
         <v>94.3</v>
       </c>
       <c r="DK109" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DL109" t="n" s="10">
         <v>93.8</v>
@@ -43988,16 +43988,16 @@
         <v>93.3</v>
       </c>
       <c r="DP109" t="n" s="10">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="DQ109" t="n" s="10">
         <v>93.3</v>
       </c>
       <c r="DR109" t="n" s="10">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="DS109" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DT109" t="n" s="10">
         <v>94.1</v>
@@ -44006,7 +44006,7 @@
         <v>94.4</v>
       </c>
       <c r="DV109" t="n" s="10">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="DW109" t="n" s="10">
         <v>95.0</v>
@@ -44015,7 +44015,7 @@
         <v>95.8</v>
       </c>
       <c r="DY109" t="n" s="10">
-        <v>96.6</v>
+        <v>96.5</v>
       </c>
       <c r="DZ109" t="n" s="10">
         <v>97.0</v>
@@ -44047,16 +44047,16 @@
         <v>34</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>111.8</v>
+        <v>111.9</v>
       </c>
       <c r="E110" t="n" s="10">
         <v>111.7</v>
       </c>
       <c r="F110" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="G110" t="n" s="10">
         <v>111.5</v>
-      </c>
-      <c r="G110" t="n" s="10">
-        <v>111.4</v>
       </c>
       <c r="H110" t="n" s="10">
         <v>111.0</v>
@@ -44071,7 +44071,7 @@
         <v>108.3</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="M110" t="n" s="10">
         <v>105.3</v>
@@ -44116,7 +44116,7 @@
         <v>85.9</v>
       </c>
       <c r="AA110" t="n" s="10">
-        <v>84.6</v>
+        <v>84.7</v>
       </c>
       <c r="AB110" t="n" s="10">
         <v>83.2</v>
@@ -44131,19 +44131,19 @@
         <v>80.2</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>79.6</v>
+        <v>79.7</v>
       </c>
       <c r="AG110" t="n" s="10">
         <v>79.2</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
       <c r="AI110" t="n" s="10">
         <v>78.5</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>78.0</v>
+        <v>78.1</v>
       </c>
       <c r="AK110" t="n" s="10">
         <v>77.6</v>
@@ -44182,7 +44182,7 @@
         <v>71.2</v>
       </c>
       <c r="AW110" t="n" s="10">
-        <v>70.9</v>
+        <v>70.8</v>
       </c>
       <c r="AX110" t="n" s="10">
         <v>70.6</v>
@@ -44194,16 +44194,16 @@
         <v>71.1</v>
       </c>
       <c r="BA110" t="n" s="10">
-        <v>71.7</v>
+        <v>71.6</v>
       </c>
       <c r="BB110" t="n" s="10">
-        <v>72.6</v>
+        <v>72.5</v>
       </c>
       <c r="BC110" t="n" s="10">
         <v>73.2</v>
       </c>
       <c r="BD110" t="n" s="10">
-        <v>73.8</v>
+        <v>73.7</v>
       </c>
       <c r="BE110" t="n" s="10">
         <v>74.6</v>
@@ -44218,16 +44218,16 @@
         <v>77.0</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>78.0</v>
+        <v>77.9</v>
       </c>
       <c r="BJ110" t="n" s="10">
-        <v>78.9</v>
+        <v>78.8</v>
       </c>
       <c r="BK110" t="n" s="10">
         <v>79.7</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>80.4</v>
+        <v>80.3</v>
       </c>
       <c r="BM110" t="n" s="10">
         <v>81.0</v>
@@ -44278,7 +44278,7 @@
         <v>94.6</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>95.1</v>
+        <v>95.2</v>
       </c>
       <c r="CD110" t="n" s="10">
         <v>95.6</v>
@@ -44320,19 +44320,19 @@
         <v>97.4</v>
       </c>
       <c r="CQ110" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="CR110" t="n" s="10">
         <v>93.4</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>90.5</v>
+        <v>90.6</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="CU110" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="CV110" t="n" s="10">
         <v>82.6</v>
@@ -44341,7 +44341,7 @@
         <v>80.3</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>78.5</v>
+        <v>78.6</v>
       </c>
       <c r="CY110" t="n" s="10">
         <v>77.1</v>
@@ -44380,19 +44380,19 @@
         <v>79.7</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>79.9</v>
+        <v>79.8</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>80.2</v>
+        <v>80.1</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>80.7</v>
+        <v>80.6</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="DP110" t="n" s="10">
         <v>82.2</v>
@@ -44407,7 +44407,7 @@
         <v>84.6</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="DU110" t="n" s="10">
         <v>86.6</v>
@@ -44428,7 +44428,7 @@
         <v>90.6</v>
       </c>
       <c r="EA110" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="EB110" t="n" s="10">
         <v>92.5</v>
@@ -44876,7 +44876,7 @@
         <v>100.2</v>
       </c>
       <c r="J112" t="n" s="10">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="K112" t="n" s="10">
         <v>100.6</v>
@@ -44915,7 +44915,7 @@
         <v>100.6</v>
       </c>
       <c r="W112" t="n" s="10">
-        <v>99.3</v>
+        <v>99.4</v>
       </c>
       <c r="X112" t="n" s="10">
         <v>97.6</v>
@@ -44951,7 +44951,7 @@
         <v>88.6</v>
       </c>
       <c r="AI112" t="n" s="10">
-        <v>89.0</v>
+        <v>89.1</v>
       </c>
       <c r="AJ112" t="n" s="10">
         <v>89.2</v>
@@ -44984,7 +44984,7 @@
         <v>89.4</v>
       </c>
       <c r="AT112" t="n" s="10">
-        <v>89.0</v>
+        <v>88.9</v>
       </c>
       <c r="AU112" t="n" s="10">
         <v>88.0</v>
@@ -45002,7 +45002,7 @@
         <v>84.8</v>
       </c>
       <c r="AZ112" t="n" s="10">
-        <v>84.2</v>
+        <v>84.1</v>
       </c>
       <c r="BA112" t="n" s="10">
         <v>83.6</v>
@@ -45032,7 +45032,7 @@
         <v>87.9</v>
       </c>
       <c r="BJ112" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="BK112" t="n" s="10">
         <v>89.3</v>
@@ -45041,7 +45041,7 @@
         <v>89.7</v>
       </c>
       <c r="BM112" t="n" s="10">
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="BN112" t="n" s="10">
         <v>89.0</v>
@@ -45215,7 +45215,7 @@
         <v>94.7</v>
       </c>
       <c r="DS112" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="DT112" t="n" s="10">
         <v>92.7</v>
@@ -45227,7 +45227,7 @@
         <v>92.1</v>
       </c>
       <c r="DW112" t="n" s="10">
-        <v>92.5</v>
+        <v>92.4</v>
       </c>
       <c r="DX112" t="n" s="10">
         <v>93.1</v>
@@ -45714,7 +45714,7 @@
         <v>90.7</v>
       </c>
       <c r="S114" t="n" s="10">
-        <v>90.8</v>
+        <v>90.7</v>
       </c>
       <c r="T114" t="n" s="10">
         <v>90.6</v>
@@ -45723,7 +45723,7 @@
         <v>90.4</v>
       </c>
       <c r="V114" t="n" s="10">
-        <v>90.2</v>
+        <v>90.1</v>
       </c>
       <c r="W114" t="n" s="10">
         <v>89.8</v>
@@ -45795,7 +45795,7 @@
         <v>76.9</v>
       </c>
       <c r="AT114" t="n" s="10">
-        <v>76.1</v>
+        <v>76.2</v>
       </c>
       <c r="AU114" t="n" s="10">
         <v>75.6</v>
@@ -45906,10 +45906,10 @@
         <v>89.9</v>
       </c>
       <c r="CE114" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="CF114" t="n" s="10">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="CG114" t="n" s="10">
         <v>92.6</v>
@@ -45966,7 +45966,7 @@
         <v>87.9</v>
       </c>
       <c r="CY114" t="n" s="10">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="CZ114" t="n" s="10">
         <v>88.9</v>
@@ -46023,31 +46023,31 @@
         <v>86.2</v>
       </c>
       <c r="DR114" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DS114" t="n" s="10">
-        <v>86.3</v>
+        <v>86.4</v>
       </c>
       <c r="DT114" t="n" s="10">
-        <v>86.5</v>
+        <v>86.6</v>
       </c>
       <c r="DU114" t="n" s="10">
         <v>87.0</v>
       </c>
       <c r="DV114" t="n" s="10">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="DW114" t="n" s="10">
         <v>87.7</v>
       </c>
       <c r="DX114" t="n" s="10">
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="DY114" t="n" s="10">
         <v>88.7</v>
       </c>
       <c r="DZ114" t="n" s="10">
-        <v>89.3</v>
+        <v>89.4</v>
       </c>
       <c r="EA114" t="n" s="10">
         <v>90.0</v>
@@ -46109,7 +46109,7 @@
         <v>114.8</v>
       </c>
       <c r="P115" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="Q115" t="n" s="10">
         <v>115.3</v>
@@ -46220,7 +46220,7 @@
         <v>94.4</v>
       </c>
       <c r="BA115" t="n" s="10">
-        <v>94.7</v>
+        <v>94.6</v>
       </c>
       <c r="BB115" t="n" s="10">
         <v>95.1</v>
@@ -46229,7 +46229,7 @@
         <v>95.7</v>
       </c>
       <c r="BD115" t="n" s="10">
-        <v>96.5</v>
+        <v>96.4</v>
       </c>
       <c r="BE115" t="n" s="10">
         <v>97.1</v>
@@ -46238,7 +46238,7 @@
         <v>97.8</v>
       </c>
       <c r="BG115" t="n" s="10">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="BH115" t="n" s="10">
         <v>98.9</v>
@@ -46316,7 +46316,7 @@
         <v>102.0</v>
       </c>
       <c r="CG115" t="n" s="10">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="CH115" t="n" s="10">
         <v>102.4</v>
@@ -46376,7 +46376,7 @@
         <v>97.8</v>
       </c>
       <c r="DA115" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="DB115" t="n" s="10">
         <v>99.1</v>
@@ -46421,7 +46421,7 @@
         <v>94.1</v>
       </c>
       <c r="DP115" t="n" s="10">
-        <v>94.1</v>
+        <v>94.0</v>
       </c>
       <c r="DQ115" t="n" s="10">
         <v>94.0</v>
@@ -46492,7 +46492,7 @@
         <v>85.3</v>
       </c>
       <c r="H116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="I116" t="n" s="10">
         <v>85.8</v>
@@ -46504,7 +46504,7 @@
         <v>86.0</v>
       </c>
       <c r="L116" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="M116" t="n" s="10">
         <v>85.9</v>
@@ -46513,13 +46513,13 @@
         <v>85.8</v>
       </c>
       <c r="O116" t="n" s="10">
-        <v>85.6</v>
+        <v>85.7</v>
       </c>
       <c r="P116" t="n" s="10">
         <v>85.6</v>
       </c>
       <c r="Q116" t="n" s="10">
-        <v>85.5</v>
+        <v>85.6</v>
       </c>
       <c r="R116" t="n" s="10">
         <v>85.4</v>
@@ -46531,7 +46531,7 @@
         <v>85.7</v>
       </c>
       <c r="U116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="V116" t="n" s="10">
         <v>85.8</v>
@@ -46621,10 +46621,10 @@
         <v>74.5</v>
       </c>
       <c r="AY116" t="n" s="10">
-        <v>74.6</v>
+        <v>74.5</v>
       </c>
       <c r="AZ116" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="BA116" t="n" s="10">
         <v>75.3</v>
@@ -46633,16 +46633,16 @@
         <v>75.9</v>
       </c>
       <c r="BC116" t="n" s="10">
-        <v>76.9</v>
+        <v>76.8</v>
       </c>
       <c r="BD116" t="n" s="10">
         <v>77.7</v>
       </c>
       <c r="BE116" t="n" s="10">
-        <v>78.5</v>
+        <v>78.4</v>
       </c>
       <c r="BF116" t="n" s="10">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="BG116" t="n" s="10">
         <v>80.0</v>
@@ -46666,13 +46666,13 @@
         <v>83.2</v>
       </c>
       <c r="BN116" t="n" s="10">
-        <v>83.4</v>
+        <v>83.3</v>
       </c>
       <c r="BO116" t="n" s="10">
         <v>83.5</v>
       </c>
       <c r="BP116" t="n" s="10">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="BQ116" t="n" s="10">
         <v>84.1</v>
@@ -46720,7 +46720,7 @@
         <v>93.5</v>
       </c>
       <c r="CF116" t="n" s="10">
-        <v>94.3</v>
+        <v>94.4</v>
       </c>
       <c r="CG116" t="n" s="10">
         <v>94.7</v>
@@ -46777,7 +46777,7 @@
         <v>96.1</v>
       </c>
       <c r="CY116" t="n" s="10">
-        <v>97.8</v>
+        <v>97.9</v>
       </c>
       <c r="CZ116" t="n" s="10">
         <v>99.3</v>
@@ -46819,7 +46819,7 @@
         <v>89.4</v>
       </c>
       <c r="DM116" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
       <c r="DN116" t="n" s="10">
         <v>88.1</v>
@@ -46834,7 +46834,7 @@
         <v>87.4</v>
       </c>
       <c r="DR116" t="n" s="10">
-        <v>87.5</v>
+        <v>87.4</v>
       </c>
       <c r="DS116" t="n" s="10">
         <v>87.6</v>
@@ -46843,7 +46843,7 @@
         <v>87.6</v>
       </c>
       <c r="DU116" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DV116" t="n" s="10">
         <v>87.6</v>
@@ -46855,7 +46855,7 @@
         <v>87.4</v>
       </c>
       <c r="DY116" t="n" s="10">
-        <v>87.6</v>
+        <v>87.5</v>
       </c>
       <c r="DZ116" t="n" s="10">
         <v>88.0</v>
@@ -46884,7 +46884,7 @@
         <v>34</v>
       </c>
       <c r="D117" t="n" s="10">
-        <v>108.0</v>
+        <v>108.1</v>
       </c>
       <c r="E117" t="n" s="10">
         <v>108.5</v>
@@ -46902,16 +46902,16 @@
         <v>110.0</v>
       </c>
       <c r="J117" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="K117" t="n" s="10">
         <v>110.3</v>
       </c>
       <c r="L117" t="n" s="10">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="M117" t="n" s="10">
-        <v>110.1</v>
+        <v>110.2</v>
       </c>
       <c r="N117" t="n" s="10">
         <v>110.1</v>
@@ -46920,7 +46920,7 @@
         <v>109.9</v>
       </c>
       <c r="P117" t="n" s="10">
-        <v>109.8</v>
+        <v>109.9</v>
       </c>
       <c r="Q117" t="n" s="10">
         <v>109.8</v>
@@ -46947,7 +46947,7 @@
         <v>110.2</v>
       </c>
       <c r="Y117" t="n" s="10">
-        <v>109.9</v>
+        <v>110.0</v>
       </c>
       <c r="Z117" t="n" s="10">
         <v>109.4</v>
@@ -46959,16 +46959,16 @@
         <v>107.7</v>
       </c>
       <c r="AC117" t="n" s="10">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AD117" t="n" s="10">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AE117" t="n" s="10">
         <v>104.6</v>
       </c>
       <c r="AF117" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="AG117" t="n" s="10">
         <v>103.3</v>
@@ -47031,7 +47031,7 @@
         <v>96.7</v>
       </c>
       <c r="BA117" t="n" s="10">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="BB117" t="n" s="10">
         <v>98.1</v>
@@ -47043,7 +47043,7 @@
         <v>100.4</v>
       </c>
       <c r="BE117" t="n" s="10">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="BF117" t="n" s="10">
         <v>102.3</v>
@@ -47076,7 +47076,7 @@
         <v>104.9</v>
       </c>
       <c r="BP117" t="n" s="10">
-        <v>104.9</v>
+        <v>104.8</v>
       </c>
       <c r="BQ117" t="n" s="10">
         <v>105.0</v>
@@ -47181,7 +47181,7 @@
         <v>107.7</v>
       </c>
       <c r="CY117" t="n" s="10">
-        <v>109.6</v>
+        <v>109.7</v>
       </c>
       <c r="CZ117" t="n" s="10">
         <v>111.3</v>
@@ -47223,13 +47223,13 @@
         <v>99.7</v>
       </c>
       <c r="DM117" t="n" s="10">
-        <v>98.9</v>
+        <v>98.8</v>
       </c>
       <c r="DN117" t="n" s="10">
         <v>98.2</v>
       </c>
       <c r="DO117" t="n" s="10">
-        <v>97.9</v>
+        <v>97.8</v>
       </c>
       <c r="DP117" t="n" s="10">
         <v>97.4</v>
@@ -47256,13 +47256,13 @@
         <v>95.9</v>
       </c>
       <c r="DX117" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DY117" t="n" s="10">
         <v>95.5</v>
       </c>
       <c r="DZ117" t="n" s="10">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="EA117" t="n" s="10">
         <v>96.4</v>
@@ -47271,13 +47271,13 @@
         <v>96.9</v>
       </c>
       <c r="EC117" t="n" s="10">
-        <v>97.5</v>
+        <v>97.4</v>
       </c>
       <c r="ED117" t="n" s="10">
         <v>97.9</v>
       </c>
       <c r="EE117" t="n" s="10">
-        <v>98.2</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="118">
@@ -47333,7 +47333,7 @@
         <v>93.5</v>
       </c>
       <c r="R118" t="n" s="10">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="S118" t="n" s="10">
         <v>93.8</v>
@@ -47408,7 +47408,7 @@
         <v>78.9</v>
       </c>
       <c r="AQ118" t="n" s="10">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="AR118" t="n" s="10">
         <v>77.6</v>
@@ -47420,7 +47420,7 @@
         <v>76.3</v>
       </c>
       <c r="AU118" t="n" s="10">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="AV118" t="n" s="10">
         <v>75.4</v>
@@ -47555,7 +47555,7 @@
         <v>86.7</v>
       </c>
       <c r="CN118" t="n" s="10">
-        <v>86.0</v>
+        <v>86.1</v>
       </c>
       <c r="CO118" t="n" s="10">
         <v>85.2</v>
@@ -47648,7 +47648,7 @@
         <v>85.6</v>
       </c>
       <c r="DS118" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DT118" t="n" s="10">
         <v>85.9</v>
@@ -47851,7 +47851,7 @@
         <v>93.7</v>
       </c>
       <c r="BD119" t="n" s="10">
-        <v>94.2</v>
+        <v>94.1</v>
       </c>
       <c r="BE119" t="n" s="10">
         <v>94.6</v>
@@ -47863,7 +47863,7 @@
         <v>95.7</v>
       </c>
       <c r="BH119" t="n" s="10">
-        <v>96.1</v>
+        <v>96.0</v>
       </c>
       <c r="BI119" t="n" s="10">
         <v>96.3</v>
@@ -48061,7 +48061,7 @@
         <v>92.2</v>
       </c>
       <c r="DV119" t="n" s="10">
-        <v>92.7</v>
+        <v>92.6</v>
       </c>
       <c r="DW119" t="n" s="10">
         <v>93.2</v>
@@ -48183,7 +48183,7 @@
         <v>78.4</v>
       </c>
       <c r="AE120" t="n" s="10">
-        <v>78.3</v>
+        <v>78.4</v>
       </c>
       <c r="AF120" t="n" s="10">
         <v>78.2</v>
@@ -48225,13 +48225,13 @@
         <v>66.7</v>
       </c>
       <c r="AS120" t="n" s="10">
-        <v>66.2</v>
+        <v>66.1</v>
       </c>
       <c r="AT120" t="n" s="10">
         <v>65.5</v>
       </c>
       <c r="AU120" t="n" s="10">
-        <v>65.1</v>
+        <v>65.0</v>
       </c>
       <c r="AV120" t="n" s="10">
         <v>64.8</v>
@@ -48273,10 +48273,10 @@
         <v>70.2</v>
       </c>
       <c r="BI120" t="n" s="10">
-        <v>70.6</v>
+        <v>70.5</v>
       </c>
       <c r="BJ120" t="n" s="10">
-        <v>71.1</v>
+        <v>71.0</v>
       </c>
       <c r="BK120" t="n" s="10">
         <v>71.4</v>
@@ -48324,7 +48324,7 @@
         <v>79.9</v>
       </c>
       <c r="BZ120" t="n" s="10">
-        <v>80.1</v>
+        <v>80.2</v>
       </c>
       <c r="CA120" t="n" s="10">
         <v>80.2</v>
@@ -48333,7 +48333,7 @@
         <v>80.3</v>
       </c>
       <c r="CC120" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="CD120" t="n" s="10">
         <v>80.3</v>
@@ -48399,10 +48399,10 @@
         <v>77.2</v>
       </c>
       <c r="CY120" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="CZ120" t="n" s="10">
-        <v>77.1</v>
+        <v>77.2</v>
       </c>
       <c r="DA120" t="n" s="10">
         <v>77.2</v>
@@ -48444,22 +48444,22 @@
         <v>83.0</v>
       </c>
       <c r="DN120" t="n" s="10">
-        <v>83.7</v>
+        <v>83.6</v>
       </c>
       <c r="DO120" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="DP120" t="n" s="10">
-        <v>85.5</v>
+        <v>85.4</v>
       </c>
       <c r="DQ120" t="n" s="10">
-        <v>86.5</v>
+        <v>86.4</v>
       </c>
       <c r="DR120" t="n" s="10">
         <v>87.2</v>
       </c>
       <c r="DS120" t="n" s="10">
-        <v>87.9</v>
+        <v>87.8</v>
       </c>
       <c r="DT120" t="n" s="10">
         <v>88.8</v>
@@ -48471,7 +48471,7 @@
         <v>90.9</v>
       </c>
       <c r="DW120" t="n" s="10">
-        <v>91.5</v>
+        <v>91.4</v>
       </c>
       <c r="DX120" t="n" s="10">
         <v>91.8</v>
@@ -48919,13 +48919,13 @@
         <v>115.2</v>
       </c>
       <c r="F122" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="G122" t="n" s="10">
         <v>114.8</v>
       </c>
       <c r="H122" t="n" s="10">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="I122" t="n" s="10">
         <v>114.5</v>
@@ -48934,7 +48934,7 @@
         <v>114.2</v>
       </c>
       <c r="K122" t="n" s="10">
-        <v>113.5</v>
+        <v>113.4</v>
       </c>
       <c r="L122" t="n" s="10">
         <v>112.7</v>
@@ -48955,7 +48955,7 @@
         <v>110.0</v>
       </c>
       <c r="R122" t="n" s="10">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="S122" t="n" s="10">
         <v>109.2</v>
@@ -49021,7 +49021,7 @@
         <v>93.6</v>
       </c>
       <c r="AN122" t="n" s="10">
-        <v>93.2</v>
+        <v>93.1</v>
       </c>
       <c r="AO122" t="n" s="10">
         <v>92.9</v>
@@ -49042,7 +49042,7 @@
         <v>90.5</v>
       </c>
       <c r="AU122" t="n" s="10">
-        <v>89.9</v>
+        <v>90.0</v>
       </c>
       <c r="AV122" t="n" s="10">
         <v>89.5</v>
@@ -49090,7 +49090,7 @@
         <v>89.3</v>
       </c>
       <c r="BK122" t="n" s="10">
-        <v>88.9</v>
+        <v>89.0</v>
       </c>
       <c r="BL122" t="n" s="10">
         <v>88.4</v>
@@ -49114,7 +49114,7 @@
         <v>85.6</v>
       </c>
       <c r="BS122" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="BT122" t="n" s="10">
         <v>85.9</v>
@@ -49141,7 +49141,7 @@
         <v>89.8</v>
       </c>
       <c r="CB122" t="n" s="10">
-        <v>90.4</v>
+        <v>90.3</v>
       </c>
       <c r="CC122" t="n" s="10">
         <v>91.0</v>
@@ -49156,7 +49156,7 @@
         <v>93.0</v>
       </c>
       <c r="CG122" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="CH122" t="n" s="10">
         <v>94.0</v>
@@ -49171,7 +49171,7 @@
         <v>93.9</v>
       </c>
       <c r="CL122" t="n" s="10">
-        <v>93.6</v>
+        <v>93.5</v>
       </c>
       <c r="CM122" t="n" s="10">
         <v>93.3</v>
@@ -49255,7 +49255,7 @@
         <v>87.6</v>
       </c>
       <c r="DN122" t="n" s="10">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="DO122" t="n" s="10">
         <v>85.5</v>
@@ -49273,10 +49273,10 @@
         <v>82.9</v>
       </c>
       <c r="DT122" t="n" s="10">
+        <v>82.4</v>
+      </c>
+      <c r="DU122" t="n" s="10">
         <v>82.3</v>
-      </c>
-      <c r="DU122" t="n" s="10">
-        <v>82.2</v>
       </c>
       <c r="DV122" t="n" s="10">
         <v>82.5</v>
@@ -49285,7 +49285,7 @@
         <v>83.3</v>
       </c>
       <c r="DX122" t="n" s="10">
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="DY122" t="n" s="10">
         <v>85.6</v>
@@ -49303,7 +49303,7 @@
         <v>90.1</v>
       </c>
       <c r="ED122" t="n" s="10">
-        <v>91.4</v>
+        <v>91.5</v>
       </c>
       <c r="EE122" t="n" s="10">
         <v>92.5</v>
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:14:27&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:27:28&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>